--- a/scripts/data/resultados/top10_impo_ci.xlsx
+++ b/scripts/data/resultados/top10_impo_ci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="1132">
   <si>
     <t>hs6_d12</t>
   </si>
@@ -703,444 +703,447 @@
     <t>87085099990U</t>
   </si>
   <si>
+    <t>87131000000F</t>
+  </si>
+  <si>
+    <t>76151000910E</t>
+  </si>
+  <si>
+    <t>90289010000E</t>
+  </si>
+  <si>
+    <t>90183924000X</t>
+  </si>
+  <si>
+    <t>90039090000Z</t>
+  </si>
+  <si>
+    <t>90183219100X</t>
+  </si>
+  <si>
+    <t>38220090300L</t>
+  </si>
+  <si>
+    <t>38210000900M</t>
+  </si>
+  <si>
+    <t>85177099000H</t>
+  </si>
+  <si>
+    <t>84159090100E</t>
+  </si>
+  <si>
+    <t>85076000910U</t>
+  </si>
+  <si>
+    <t>85423120000W</t>
+  </si>
+  <si>
+    <t>85061010190X</t>
+  </si>
+  <si>
+    <t>85182910000R</t>
+  </si>
+  <si>
+    <t>85423999000D</t>
+  </si>
+  <si>
+    <t>85423221900P</t>
+  </si>
+  <si>
+    <t>85183000000N</t>
+  </si>
+  <si>
+    <t>74081900000G</t>
+  </si>
+  <si>
+    <t>74081100000L</t>
+  </si>
+  <si>
+    <t>85079090000X</t>
+  </si>
+  <si>
+    <t>72251100000J</t>
+  </si>
+  <si>
+    <t>90011011000D</t>
+  </si>
+  <si>
+    <t>94054010900M</t>
+  </si>
+  <si>
+    <t>85364900900N</t>
+  </si>
+  <si>
+    <t>84733041000K</t>
+  </si>
+  <si>
+    <t>84733092000R</t>
+  </si>
+  <si>
+    <t>85285920900N</t>
+  </si>
+  <si>
+    <t>85235190100A</t>
+  </si>
+  <si>
+    <t>84439923000L</t>
+  </si>
+  <si>
+    <t>29051220000B</t>
+  </si>
+  <si>
+    <t>29153100900T</t>
+  </si>
+  <si>
+    <t>85171290000D</t>
+  </si>
+  <si>
+    <t>29141100900W</t>
+  </si>
+  <si>
+    <t>87150000100J</t>
+  </si>
+  <si>
+    <t>85166000900T</t>
+  </si>
+  <si>
+    <t>85166000100Z</t>
+  </si>
+  <si>
+    <t>84339090000D</t>
+  </si>
+  <si>
+    <t>87079010000G</t>
+  </si>
+  <si>
+    <t>84509090000P</t>
+  </si>
+  <si>
+    <t>85371090200G</t>
+  </si>
+  <si>
+    <t>87084019000Y</t>
+  </si>
+  <si>
+    <t>85014019990J</t>
+  </si>
+  <si>
+    <t>87085019000M</t>
+  </si>
+  <si>
+    <t>72104910490V</t>
+  </si>
+  <si>
+    <t>76061290100T</t>
+  </si>
+  <si>
+    <t>72259200110T</t>
+  </si>
+  <si>
+    <t>72283000990J</t>
+  </si>
+  <si>
+    <t>76061290900L</t>
+  </si>
+  <si>
+    <t>72104910390P</t>
+  </si>
+  <si>
+    <t>72104910590A</t>
+  </si>
+  <si>
+    <t>32151900100E</t>
+  </si>
+  <si>
+    <t>76129019120A</t>
+  </si>
+  <si>
+    <t>72071110000P</t>
+  </si>
+  <si>
+    <t>72106100310L</t>
+  </si>
+  <si>
+    <t>79011111000G</t>
+  </si>
+  <si>
+    <t>79011210000L</t>
+  </si>
+  <si>
+    <t>72193400000B</t>
+  </si>
+  <si>
+    <t>70072100190Q</t>
+  </si>
+  <si>
+    <t>70071100190B</t>
+  </si>
+  <si>
+    <t>32072099000D</t>
+  </si>
+  <si>
+    <t>25232910000T</t>
+  </si>
+  <si>
+    <t>25231000000L</t>
+  </si>
+  <si>
+    <t>48193000100X</t>
+  </si>
+  <si>
+    <t>27131100000Q</t>
+  </si>
+  <si>
+    <t>48052500900R</t>
+  </si>
+  <si>
+    <t>39012029000V</t>
+  </si>
+  <si>
+    <t>40012200000F</t>
+  </si>
+  <si>
+    <t>48102990110Q</t>
+  </si>
+  <si>
+    <t>39076000112M</t>
+  </si>
+  <si>
+    <t>48115923100C</t>
+  </si>
+  <si>
+    <t>39041010000H</t>
+  </si>
+  <si>
+    <t>39021020000F</t>
+  </si>
+  <si>
+    <t>29319032100J</t>
+  </si>
+  <si>
+    <t>29173600000Q</t>
+  </si>
+  <si>
+    <t>32061119000E</t>
+  </si>
+  <si>
+    <t>38089299990M</t>
+  </si>
+  <si>
+    <t>31028000110R</t>
+  </si>
+  <si>
+    <t>27101931000T</t>
+  </si>
+  <si>
+    <t>27101259129W</t>
+  </si>
+  <si>
+    <t>84198999900J</t>
+  </si>
+  <si>
+    <t>27101249990H</t>
+  </si>
+  <si>
+    <t>38112150000G</t>
+  </si>
+  <si>
+    <t>27101911000Y</t>
+  </si>
+  <si>
+    <t>27101929900T</t>
+  </si>
+  <si>
+    <t>48010010000Q</t>
+  </si>
+  <si>
+    <t>48102290100D</t>
+  </si>
+  <si>
+    <t>48102990990K</t>
+  </si>
+  <si>
+    <t>48026191000R</t>
+  </si>
+  <si>
+    <t>48114190000H</t>
+  </si>
+  <si>
+    <t>48119090910U</t>
+  </si>
+  <si>
+    <t>48102290900X</t>
+  </si>
+  <si>
+    <t>47032900200H</t>
+  </si>
+  <si>
+    <t>48041100000M</t>
+  </si>
+  <si>
+    <t>39069044000T</t>
+  </si>
+  <si>
+    <t>82121020112M</t>
+  </si>
+  <si>
+    <t>56031130000U</t>
+  </si>
+  <si>
+    <t>33051000910E</t>
+  </si>
+  <si>
+    <t>96190000290V</t>
+  </si>
+  <si>
+    <t>82129000000T</t>
+  </si>
+  <si>
+    <t>48119090990V</t>
+  </si>
+  <si>
+    <t>45031000000M</t>
+  </si>
+  <si>
+    <t>44123100944U</t>
+  </si>
+  <si>
+    <t>45049000110C</t>
+  </si>
+  <si>
+    <t>48025592990L</t>
+  </si>
+  <si>
+    <t>44101210000E</t>
+  </si>
+  <si>
+    <t>44111391000W</t>
+  </si>
+  <si>
+    <t>83024200190R</t>
+  </si>
+  <si>
+    <t>64041100280Q</t>
+  </si>
+  <si>
+    <t>64041100290U</t>
+  </si>
+  <si>
+    <t>64062000110B</t>
+  </si>
+  <si>
+    <t>64021900598L</t>
+  </si>
+  <si>
+    <t>64061000163K</t>
+  </si>
+  <si>
+    <t>64029990313P</t>
+  </si>
+  <si>
+    <t>64061000153G</t>
+  </si>
+  <si>
+    <t>64029990932B</t>
+  </si>
+  <si>
+    <t>90213930000T</t>
+  </si>
+  <si>
+    <t>62019300110F</t>
+  </si>
+  <si>
+    <t>61091000110Y</t>
+  </si>
+  <si>
+    <t>61051000110Z</t>
+  </si>
+  <si>
+    <t>12019000190C</t>
+  </si>
+  <si>
+    <t>54023300200W</t>
+  </si>
+  <si>
+    <t>54024400990P</t>
+  </si>
+  <si>
+    <t>39081024000X</t>
+  </si>
+  <si>
+    <t>55013000000M</t>
+  </si>
+  <si>
+    <t>55093200321J</t>
+  </si>
+  <si>
+    <t>24031900100B</t>
+  </si>
+  <si>
+    <t>55020010000Y</t>
+  </si>
+  <si>
+    <t>24039990000X</t>
+  </si>
+  <si>
+    <t>33029090900X</t>
+  </si>
+  <si>
+    <t>56012291000Z</t>
+  </si>
+  <si>
+    <t>48132000000R</t>
+  </si>
+  <si>
+    <t>24039100000N</t>
+  </si>
+  <si>
+    <t>24012040000E</t>
+  </si>
+  <si>
+    <t>39202019911M</t>
+  </si>
+  <si>
+    <t>48131000100H</t>
+  </si>
+  <si>
+    <t>18040000100Q</t>
+  </si>
+  <si>
+    <t>22042919900T</t>
+  </si>
+  <si>
+    <t>31021010000U</t>
+  </si>
+  <si>
+    <t>18050000000D</t>
+  </si>
+  <si>
+    <t>03021400100Z</t>
+  </si>
+  <si>
+    <t>21069090900Z</t>
+  </si>
+  <si>
+    <t>49019900190G</t>
+  </si>
+  <si>
+    <t>87032390190H</t>
+  </si>
+  <si>
+    <t>87033390900L</t>
+  </si>
+  <si>
+    <t>62029300110Z</t>
+  </si>
+  <si>
+    <t>87032100900K</t>
+  </si>
+  <si>
     <t>90213190100L</t>
   </si>
   <si>
-    <t>87131000000F</t>
-  </si>
-  <si>
-    <t>76151000910E</t>
-  </si>
-  <si>
-    <t>90289010000E</t>
-  </si>
-  <si>
-    <t>90183924000X</t>
-  </si>
-  <si>
-    <t>90039090000Z</t>
-  </si>
-  <si>
-    <t>90183219100X</t>
-  </si>
-  <si>
-    <t>38220090300L</t>
-  </si>
-  <si>
-    <t>85177099000H</t>
-  </si>
-  <si>
-    <t>84159090100E</t>
-  </si>
-  <si>
-    <t>85076000910U</t>
-  </si>
-  <si>
-    <t>85423120000W</t>
-  </si>
-  <si>
-    <t>85061010190X</t>
-  </si>
-  <si>
-    <t>85182910000R</t>
-  </si>
-  <si>
-    <t>85423999000D</t>
-  </si>
-  <si>
-    <t>85423221900P</t>
-  </si>
-  <si>
-    <t>85183000000N</t>
-  </si>
-  <si>
-    <t>74081900000G</t>
-  </si>
-  <si>
-    <t>74081100000L</t>
-  </si>
-  <si>
-    <t>85079090000X</t>
-  </si>
-  <si>
-    <t>72251100000J</t>
-  </si>
-  <si>
-    <t>90011011000D</t>
-  </si>
-  <si>
-    <t>94054010900M</t>
-  </si>
-  <si>
-    <t>85364900900N</t>
-  </si>
-  <si>
-    <t>84733041000K</t>
-  </si>
-  <si>
-    <t>84733092000R</t>
-  </si>
-  <si>
-    <t>85285920900N</t>
-  </si>
-  <si>
-    <t>85235190100A</t>
-  </si>
-  <si>
-    <t>84439923000L</t>
-  </si>
-  <si>
-    <t>29051220000B</t>
-  </si>
-  <si>
-    <t>29153100900T</t>
-  </si>
-  <si>
-    <t>85171290000D</t>
-  </si>
-  <si>
-    <t>29141100900W</t>
-  </si>
-  <si>
-    <t>87150000100J</t>
-  </si>
-  <si>
-    <t>85166000900T</t>
-  </si>
-  <si>
-    <t>85166000100Z</t>
-  </si>
-  <si>
-    <t>84339090000D</t>
-  </si>
-  <si>
-    <t>87079010000G</t>
-  </si>
-  <si>
-    <t>84509090000P</t>
-  </si>
-  <si>
-    <t>85371090200G</t>
-  </si>
-  <si>
-    <t>87084019000Y</t>
-  </si>
-  <si>
-    <t>85014019990J</t>
-  </si>
-  <si>
-    <t>87085019000M</t>
-  </si>
-  <si>
-    <t>72104910490V</t>
-  </si>
-  <si>
-    <t>76061290100T</t>
-  </si>
-  <si>
-    <t>72259200110T</t>
-  </si>
-  <si>
-    <t>72283000990J</t>
-  </si>
-  <si>
-    <t>76061290900L</t>
-  </si>
-  <si>
-    <t>72104910390P</t>
-  </si>
-  <si>
-    <t>72104910590A</t>
-  </si>
-  <si>
-    <t>32151900100E</t>
-  </si>
-  <si>
-    <t>76129019120A</t>
-  </si>
-  <si>
-    <t>72071110000P</t>
-  </si>
-  <si>
-    <t>72106100310L</t>
-  </si>
-  <si>
-    <t>79011111000G</t>
-  </si>
-  <si>
-    <t>79011210000L</t>
-  </si>
-  <si>
-    <t>72193400000B</t>
-  </si>
-  <si>
-    <t>70072100190Q</t>
-  </si>
-  <si>
-    <t>70071100190B</t>
-  </si>
-  <si>
-    <t>32072099000D</t>
-  </si>
-  <si>
-    <t>25232910000T</t>
-  </si>
-  <si>
-    <t>25231000000L</t>
-  </si>
-  <si>
-    <t>48193000100X</t>
-  </si>
-  <si>
-    <t>27131100000Q</t>
-  </si>
-  <si>
-    <t>48052500900R</t>
-  </si>
-  <si>
-    <t>39012029000V</t>
-  </si>
-  <si>
-    <t>40012200000F</t>
-  </si>
-  <si>
-    <t>48102990110Q</t>
-  </si>
-  <si>
-    <t>39076000112M</t>
-  </si>
-  <si>
-    <t>48115923100C</t>
-  </si>
-  <si>
-    <t>39041010000H</t>
-  </si>
-  <si>
-    <t>39021020000F</t>
-  </si>
-  <si>
-    <t>29319032100J</t>
-  </si>
-  <si>
-    <t>29173600000Q</t>
-  </si>
-  <si>
-    <t>32061119000E</t>
-  </si>
-  <si>
-    <t>38089299990M</t>
-  </si>
-  <si>
-    <t>31028000110R</t>
-  </si>
-  <si>
-    <t>27101931000T</t>
-  </si>
-  <si>
-    <t>27101259129W</t>
-  </si>
-  <si>
-    <t>84198999900J</t>
-  </si>
-  <si>
-    <t>27101249990H</t>
-  </si>
-  <si>
-    <t>38112150000G</t>
-  </si>
-  <si>
-    <t>27101911000Y</t>
-  </si>
-  <si>
-    <t>27101929900T</t>
-  </si>
-  <si>
-    <t>48010010000Q</t>
-  </si>
-  <si>
-    <t>48102290100D</t>
-  </si>
-  <si>
-    <t>48102990990K</t>
-  </si>
-  <si>
-    <t>48026191000R</t>
-  </si>
-  <si>
-    <t>48114190000H</t>
-  </si>
-  <si>
-    <t>48119090910U</t>
-  </si>
-  <si>
-    <t>48102290900X</t>
-  </si>
-  <si>
-    <t>47032900200H</t>
-  </si>
-  <si>
-    <t>48041100000M</t>
-  </si>
-  <si>
-    <t>39069044000T</t>
-  </si>
-  <si>
-    <t>82121020112M</t>
-  </si>
-  <si>
-    <t>56031130000U</t>
-  </si>
-  <si>
-    <t>33051000910E</t>
-  </si>
-  <si>
-    <t>96190000290V</t>
-  </si>
-  <si>
-    <t>82129000000T</t>
-  </si>
-  <si>
-    <t>48119090990V</t>
-  </si>
-  <si>
-    <t>45031000000M</t>
-  </si>
-  <si>
-    <t>44123100944U</t>
-  </si>
-  <si>
-    <t>45049000110C</t>
-  </si>
-  <si>
-    <t>48025592990L</t>
-  </si>
-  <si>
-    <t>44101210000E</t>
-  </si>
-  <si>
-    <t>44111391000W</t>
-  </si>
-  <si>
-    <t>83024200190R</t>
-  </si>
-  <si>
-    <t>64041100280Q</t>
-  </si>
-  <si>
-    <t>64041100290U</t>
-  </si>
-  <si>
-    <t>64062000110B</t>
-  </si>
-  <si>
-    <t>64021900598L</t>
-  </si>
-  <si>
-    <t>64061000163K</t>
-  </si>
-  <si>
-    <t>64029990313P</t>
-  </si>
-  <si>
-    <t>64061000153G</t>
-  </si>
-  <si>
-    <t>64029990932B</t>
-  </si>
-  <si>
-    <t>90213930000T</t>
-  </si>
-  <si>
-    <t>62019300110F</t>
-  </si>
-  <si>
-    <t>61091000110Y</t>
-  </si>
-  <si>
-    <t>61051000110Z</t>
-  </si>
-  <si>
-    <t>12019000190C</t>
-  </si>
-  <si>
-    <t>54023300200W</t>
-  </si>
-  <si>
-    <t>54024400990P</t>
-  </si>
-  <si>
-    <t>39081024000X</t>
-  </si>
-  <si>
-    <t>55013000000M</t>
-  </si>
-  <si>
-    <t>55093200321J</t>
-  </si>
-  <si>
-    <t>24031900100B</t>
-  </si>
-  <si>
-    <t>55020010000Y</t>
-  </si>
-  <si>
-    <t>24039990000X</t>
-  </si>
-  <si>
-    <t>33029090900X</t>
-  </si>
-  <si>
-    <t>56012291000Z</t>
-  </si>
-  <si>
-    <t>48132000000R</t>
-  </si>
-  <si>
-    <t>24039100000N</t>
-  </si>
-  <si>
-    <t>24012040000E</t>
-  </si>
-  <si>
-    <t>39202019911M</t>
-  </si>
-  <si>
-    <t>48131000100H</t>
-  </si>
-  <si>
-    <t>18040000100Q</t>
-  </si>
-  <si>
-    <t>22042919900T</t>
-  </si>
-  <si>
-    <t>31021010000U</t>
-  </si>
-  <si>
-    <t>18050000000D</t>
-  </si>
-  <si>
-    <t>03021400100Z</t>
-  </si>
-  <si>
-    <t>21069090900Z</t>
-  </si>
-  <si>
-    <t>49019900190G</t>
-  </si>
-  <si>
-    <t>87032390190H</t>
-  </si>
-  <si>
-    <t>87033390900L</t>
-  </si>
-  <si>
-    <t>62029300110Z</t>
-  </si>
-  <si>
-    <t>87032100900K</t>
-  </si>
-  <si>
     <t>62034200111M</t>
   </si>
   <si>
@@ -1153,9 +1156,6 @@
     <t>64039990218N</t>
   </si>
   <si>
-    <t>87033290900Z</t>
-  </si>
-  <si>
     <t>73261100000J</t>
   </si>
   <si>
@@ -2023,444 +2023,447 @@
     <t>Las demás // Las demás // Las demás // Partes // -Ejes con diferencial, incluso provistos con otros órganos de trasmisión, y ejes portadores; sus partes // PARTES Y ACCESORIOS PARA VEHÍCULOS AUTOMÓVILES DELAS PARTIDAS 87.01 A 87.05.</t>
   </si>
   <si>
+    <t>-Sin mecanismo de propulsión // SILLONES DE RUEDAS Y DEMAS VEHICULOS PARA INVALIDOS, INCLUSO CON MOTOR U OTRO MECANISMO DEPROPULSION.</t>
+  </si>
+  <si>
+    <t>Aptos para estar en contacto con alimentos // Los demás // -Artículos de uso domestico y sus partes; esponjas, estropajos, guantes y artículos similares para fregar, lustrar o usos análogos // ARTÍCULOS DE USO DOMESTICO, HIGIENE O TOCADOR, YSUS PARTES, D</t>
+  </si>
+  <si>
+    <t>De contadores de electricidad // -Partes y accesorios // CONTADORES DE GAS, LÍQUIDO O ELECTRICIDAD,INCLUIDOS LOS DE CALIBRACIÓN.</t>
+  </si>
+  <si>
+    <t>Catéteres intravenosos periféricos, de      poliuretano o copolímero de    etilenotetrafluoretileno (ETFE) // Sondas, catéteres y cánulas // --Los demás // -Jeringas, agujas, catéteres, cánulas e instrumentos similares: // INSTRUMENTOS Y APARATOS DE MEDI</t>
+  </si>
+  <si>
+    <t>Las dem?s // Las dem?s // -Partes // MONTURAS (ARMAZONES) DE GAFAS (ANTEOJOS) O ARTÍCULOS SIMILARES Y SUS PARTES.</t>
+  </si>
+  <si>
+    <t>Para medicina humana // Las demás // Tubulares de metal // --Agujas tubulares de metal y agujas de sutura // -Jeringas, agujas, catéteres, cánulas e instrumentos similares: // INSTRUMENTOS Y APARATOS DE MEDICINA, CIRUGÍA, ODONTOLOGÍA O VETERINARIA, INCLU</t>
+  </si>
+  <si>
+    <t>Materiales de referencia certificados // Los demás // REACTIVOS DE DIAGNÓSTICO O DE LABORATORIO SOBRECUALQUIER SOPORTE Y REACTIVOS DE DIAGNÓSTICO ODE LABORATORIO PREPARADOS, INCLUSO SOBRE SOPORTE,EXCEPTO LOS DE LAS PARTIDAS 30.02 Ó 30.06; MATERIALES DE R</t>
+  </si>
+  <si>
+    <t>Los demás // MEDIOS DE CULTIVO PREPARADOS PARA EL DESARROLLO O MANTENIMIENTO DE MICROORGANISMOS (INCLUIDOS LOS VIRUS Y ORGANISMOS SIMILARES) O DE CELULAS VEGETALES, HUMANAS O ANIMALES.</t>
+  </si>
+  <si>
+    <t>Las demás // Las demás // -Partes // TELEFONOS, INCLUIDOS LOS TELEFONOS CELULARES (MÓVILES)* Y LOS DE OTRAS REDES INALÁMBRICAS; LOS DEMÁS APARATOS DE EMISIÓN, TRANSMISIÓN O RECEPCIÓN DE VOZ, IMAGEN U OTROS DATOS, INCLUIDOS LOS DE COMUNICACIÓN EN RED CON</t>
+  </si>
+  <si>
+    <t>De la subpartida 8415,10, excepto las      unidades evaporadoras (internas) y unidades      condensadoras (externas) de aparatos para      acondicionamiento de aire del tipo sistema      de elementos separados ("split-system") // Las demás // -Partes //</t>
+  </si>
+  <si>
+    <t>De los tipos utilizados en telefonos       celulares // Los demás // -De ión de litio // ACUMULADORES ELECTRICOS, INCLUIDOS SUSSEPARADORES, AUNQUE SEAN CUADRADOS ORECTANGULARES.</t>
+  </si>
+  <si>
+    <t>Montados, aptos para montaje en superficie    (SMD - «Surface Mounted Device») // --Procesadores y controladores, incluso combinados  con memorias, convertidores, circuitos  lógicos, amplificadores, relojes y circuitos de  sincronización, u otros circuit</t>
+  </si>
+  <si>
+    <t>Las demás // Con volumen exterior inferior o igual a       300 cm3 (Anexo II-8) // Pilas alcalinas // -De dióxido de manganeso // PILAS Y BATERÍAS DE PILAS, ELECTRICAS.</t>
+  </si>
+  <si>
+    <t>Piezoeléctricos aptos para aparatos telefónicos // --Los demás // -Altavoces (altoparlantes), incluso montados en sus cajas: // MICRÓFONOS Y SUS SOPORTES; ALTAVOCES          (ALTOPARLANTES), INCLUSO MONTADOS EN SUSCAJAS; AURICULARES, INCLUIDOS LOS DE CAS</t>
+  </si>
+  <si>
+    <t>Los demás // Los demás // --Los demás // -Circuitos electrónicos integrados: // CIRCUITOS ELECTRÓNICOS INTEGRADOS</t>
+  </si>
+  <si>
+    <t>Las demás // De los tipos RAM estáticas (SRAM) con tiempo    de acceso inferior o igual a 25 ns,     EPROM, EEPROM, PROM, ROM y FLASH // Montadas, aptos para montaje en superficie   (SMD - «Surface Mounted Device») // --Memorias // -Circuitos electrónico</t>
+  </si>
+  <si>
+    <t>-Auriculares, incluidos los de casco, estén o no combinados con micrófono, y juegos o conjuntos constituidos por un micrófono y uno o varios altavoces (altoparlantes) // MICRÓFONOS Y SUS SOPORTES; ALTAVOCES          (ALTOPARLANTES), INCLUSO MONTADOS EN S</t>
+  </si>
+  <si>
+    <t>--Los demás // -De cobre refinado: // ALAMBRE DE COBRE.</t>
+  </si>
+  <si>
+    <t>--Con la mayor dimensión de la sección  transversal superior a 6 mm // -De cobre refinado: // ALAMBRE DE COBRE.</t>
+  </si>
+  <si>
+    <t>Las demás // -Partes // ACUMULADORES ELECTRICOS, INCLUIDOS SUSSEPARADORES, AUNQUE SEAN CUADRADOS ORECTANGULARES.</t>
+  </si>
+  <si>
+    <t>--De grano orientado // -De acero al silicio llamado "magnético" (acero magnético al silicio)*: // PRODUCTOS LAMINADOS PLANOS DE LOS DEMÁS ACEROS ALEADOS, DE ANCHURA SUPERIOR O IGUAL A 600 mm.</t>
+  </si>
+  <si>
+    <t>Con diámetro de núcleo inferior a 11    micrómetros // Fibras ópticas // -Fibras ópticas, haces y cables de  fibras ópticas // FIBRAS ÓPTICAS Y HACES DE FIBRAS ÓPTICAS; CABLESDE FIBRAS ÓPTICAS, EXCEPTO LOS DE LA PARTIDA 85.44; HOJAS Y PLACAS DE MATERIA P</t>
+  </si>
+  <si>
+    <t>Los demás // De metal común // -Los demás aparatos eléctricos de alumbrado // APARATOS DE ALUMBRADO (INCLUIDOS LOS PROYECTORES)Y SUS PARTES, NO EXPRESADOS NI COMPRENDIDOS EN OTRA PARTE; ANUNCIOS, LETREROS Y PLACASINDICADORAS, LUMINOSOS Y ARTÍCULOS SIMILA</t>
+  </si>
+  <si>
+    <t>Los demás // --Los demás // -Relés: // APARATOS PARA CORTE, SECCIONAMIENTO, PROTECCIÓN,DERIVACIÓN, EMPALME O CONEXIÓN DE CIRCUITOSELECTRICOS (POR EJEMPLO: INTERRUPTORES,CONMUTADORES, RELES, CORTACIRCUITOS, SUPRESORESDE SOBRETENSIÓN TRANSITORIA, CLAVIJAS</t>
+  </si>
+  <si>
+    <t>Placas madre («mother boards») // Circuitos impresos con componentes eléctricos   o electrónicos montados // -Partes y accesorios de máquinas de la partida  84.71 // PARTES Y ACCESORIOS (EXCEPTO LOS ESTUCHES, FUNDASY SIMILARES) IDENTIFICABLES COMO DESTIN</t>
+  </si>
+  <si>
+    <t>Pantallas («display») para máquinas    automáticas para tratamiento o procesamiento    de datos, portátiles // Los demás // -Partes y accesorios de máquinas de la partida  84.71 // PARTES Y ACCESORIOS (EXCEPTO LOS ESTUCHES, FUNDASY SIMILARES) IDENTIFICAB</t>
+  </si>
+  <si>
+    <t>Los demás // Policromáticos // --Los demás // -Los demás monitores: // MONITORES Y PROYECTORES, QUE NO INCORPOREN APARATORECEPTOR DE TELEVISIÓN; APARATOS RECEPTORES DETELEVISIÓN, INCLUSO CON APARATO RECEPTOR DERADIODIFUSIÓN O DE GRABACIÓN O REPRODUCCIÓN</t>
+  </si>
+  <si>
+    <t>Dispositivo de almacenamiento de datos, de      estado sólido, de los tipos denominados       "flash memory card" // Los demás // --Dispositivos de almacenamiento permanente de  datos a base de semiconductores // -Soportes semiconductores: // DISCOS, CIN</t>
+  </si>
+  <si>
+    <t>Cartuchos de tinta // Mecanismos de impresión a chorro de tinta, sus   partes y accesorios // --Los demás // -Partes y accesorios: // MÁQUINAS Y APARATOS PARA IMPRIMIR MEDIANTE PLANCHAS, CILINDROS Y DEMÁS ELEMENTOS IMPRESORES DE LA PARTIDA 84.42; LAS DEM</t>
+  </si>
+  <si>
+    <t>Alcohol isopropílico // --Propan-1-ol (alcohol propílico) y propan-2-ol  (alcohol isopropílico) // -Monoalcoholes saturados: // ALCOHOLES ACÍCLICOS Y SUS DERIVADOS HALOGENADOS,SULFONADOS, NITRADOS O NITROSADOS.</t>
+  </si>
+  <si>
+    <t>Los demás // --Acetato de etilo // -Esteres del ácido acético: // ÁCIDOS MONOCARBOXÍLICOS ACÍCLICOS SATURADOSY SUS ANHÍDRIDOS, HALOGENUROS, PERÓXIDOS Y PEROXIÁCIDOS; SUS DERIVADOS HALOGENADOS, SULFONADOS, NITRADOS O NITROSADOS.</t>
+  </si>
+  <si>
+    <t>Los demás // --Teléfonos celulares (móviles)* y los de otras  redes inalámbricas // -Teléfonos, incluidos los teléfonos celulares (móviles)* y los de otras redes inalámbricas: // TELEFONOS, INCLUIDOS LOS TELEFONOS CELULARES (MÓVILES)* Y LOS DE OTRAS REDE</t>
+  </si>
+  <si>
+    <t>Las demás // --Acetona // -Cetonas acíclicas sin otras funciones    oxigenadas: // CETONAS Y QUINONAS, INCLUSO CON OTRAS FUNCIONES OXIGENADAS, Y SUS DERIVADOS HALOGENADOS,SULFONADOS, NITRADOS O NITROSADOS.</t>
+  </si>
+  <si>
+    <t>Coches, sillas y vehículos similares para      el transporte de niños // COCHES, SILLAS Y VEHÍCULOS SIMILARES PARAEL TRANSPORTE DE NIÑOS, Y SUS PARTES.</t>
+  </si>
+  <si>
+    <t>Los demás // -Los demás hornos; cocinas, calentadores  (incluidas las mesas de cocción), parrillas y asadores // CALENTADORES ELECTRICOS DE AGUA DE CALENTAMIENTOINSTÁNTANEO O ACUMULACIÓN Y CALENTADORESELECTRICOS DE INMERSIÓN; APARATOS ELECTRICOSPARA CALE</t>
+  </si>
+  <si>
+    <t>De funcionamiento mixto (gas y electricidad) // -Los demás hornos; cocinas, calentadores  (incluidas las mesas de cocción), parrillas y asadores // CALENTADORES ELECTRICOS DE AGUA DE CALENTAMIENTOINSTÁNTANEO O ACUMULACIÓN Y CALENTADORESELECTRICOS DE INME</t>
+  </si>
+  <si>
+    <t>Las dem?s // Las dem?s // -Partes // MÁQUINAS, APARATOS Y ARTEFACTOS DE COSECHAR OTRILLAR, INCLUIDAS LAS PRENSAS PARA PAJA O FORRAJE; CORTADORAS DE CESPED Y GUADAÑADORAS;MÁQUINAS PARA LIMPIEZA O CLASIFICACIÓN DEHUEVOS, FRUTOS O DEMÁS PRODUCTOS AGRÍCOLAS,</t>
+  </si>
+  <si>
+    <t>De los vehículos de las subpartidas   8701.10, 8701.30, 8701.90 u 8704.10 // -Las demás // CARROCERÍAS PARA VEHÍCULOS AUTOMÓVILES DE LAS PARTIDAS 87.01 A 87.05, INCLUÍDAS LAS CABINAS.</t>
+  </si>
+  <si>
+    <t>Las dem?s // Las dem?s // -Partes // MÁQUINAS DE LAVAR ROPA, INCLUSO CON DISPOSITIVO DESECADO.</t>
+  </si>
+  <si>
+    <t>Conmutadores de programa fijo de los tipos      utilizados para el mando de aparatos de uso      doméstico // Los demás // -Para una tensión inferior o igual a 1.000 V // CUADROS, PANELES, CONSOLAS, ARMARIOS Y DEMÁSSOPORTES EQUIPADOS CON VARIOS APARATOS</t>
+  </si>
+  <si>
+    <t>Las demás // Cajas de cambio de los vehículos de las   subpartidas 8701.10, 8701.30, 8701.90 u 8704.10 // -Cajas de cambio y sus partes // PARTES Y ACCESORIOS PARA VEHÍCULOS AUTOMÓVILES DELAS PARTIDAS 87.01 A 87.05.</t>
+  </si>
+  <si>
+    <t>Los demás // Los demás // Los demás // De potencia inferior o igual a 15 kW // -Los demás motores de corriente alterna, monofásicos // MOTORES Y GENERADORES, ELECTRICOS, EXCEPTO LOSGRUPOS ELECTRÓGENOS.</t>
+  </si>
+  <si>
+    <t>Los demás // De los vehículos de las subpartidas 8701.10,   8701.30, 8701.90 u 8704.10 // -Ejes con diferencial, incluso provistos con otros órganos de trasmisión, y ejes portadores; sus partes // PARTES Y ACCESORIOS PARA VEHÍCULOS AUTOMÓVILES DELAS PART</t>
+  </si>
+  <si>
+    <t>Los demás // De espesor superior o igual a 0,66 mm pero      inferior a 1,20 mm // De espesor inferior a 4,75 mm // --Los demás // -Cincados de otro modo: // PRODUCTOS LAMINADOS PLANOS DE HIERRO O ACERO SIN ALEAR, DE ANCHURA SUPERIOR O IGUAL A 600 mm, CH</t>
+  </si>
+  <si>
+    <t>Con un contenido de magnesio superior o       igual al 0,80 % pero inferior o igual al      1,30 %, en peso, manganeso superior o igual      al 0,80 % pero inferior o igual al 1,50 %,      en peso, hierro inferior o igual al 0,80 %      en peso, silicio</t>
+  </si>
+  <si>
+    <t>Lisos // De espesor superior o igual a 0,30 mm // --Cincados de otro modo // -Los demás: // PRODUCTOS LAMINADOS PLANOS DE LOS DEMÁS ACEROS ALEADOS, DE ANCHURA SUPERIOR O IGUAL A 600 mm.</t>
+  </si>
+  <si>
+    <t>Las demás // Las demás // -Las demás barras, simplemente laminadas o extrudidas en caliente // BARRAS Y PERFILES, DE LOS DEMÁS ACEROS ALEADOS;BARRAS HUECAS PARA PERFORACIÓN, DE ACEROS ALEADOSO SIN ALEAR.</t>
+  </si>
+  <si>
+    <t>Las demás // Las demás // --De aleaciones de aluminio // -Cuadradas o rectangulares: // CHAPAS Y TIRAS, DE ALUMINIO, DE ESPESOR SUPERIORA 0,2 mm.</t>
+  </si>
+  <si>
+    <t>Los demás // De espesor superior o igual a 0,51 mm pero      inferior a 0,66 mm // De espesor inferior a 4,75 mm // --Los demás // -Cincados de otro modo: // PRODUCTOS LAMINADOS PLANOS DE HIERRO O ACERO SIN ALEAR, DE ANCHURA SUPERIOR O IGUAL A 600 mm, CH</t>
+  </si>
+  <si>
+    <t>Los demás // De espesor superior o igual a 1,20 mm pero      inferior a 1,81 mm // De espesor inferior a 4,75 mm // --Los demás // -Cincados de otro modo: // PRODUCTOS LAMINADOS PLANOS DE HIERRO O ACERO SIN ALEAR, DE ANCHURA SUPERIOR O IGUAL A 600 mm, CH</t>
+  </si>
+  <si>
+    <t>Tintas de seguridad para impresión de papel      moneda // --Las demás // -Tintas de imprimir: // TINTAS DE IMPRIMIR, TINTAS DE ESCRIBIR ODIBUJAR Y DEMÁS TINTAS, INCLUSO CONCENTRADASO SÓLIDAS.</t>
+  </si>
+  <si>
+    <t>De capacidad superior a 0,25 l pero       inferior o igual a 0,5 l // De los tipos utilizados para bebidas // Los demás // Envases tubulares // -Los demás // DEPÓSITOS, BARRILES, TAMBORES, BIDONES, BOTES,CAJAS Y RECIPIENTES SIMILARES, DE ALUMINIO(INCLUID</t>
+  </si>
+  <si>
+    <t>Palanquilla // --De sección transversal cuadrada o rectangular,   cuya anchura sea inferior al doble del espesor // -Con un contenido de carbono inferior al 0,25 % en peso: // PRODUCTOS INTERMEDIOS DE HIERRO O ACERO SINALEAR.</t>
+  </si>
+  <si>
+    <t>Lisos // De espesor superior o igual a 0,51 mm pero      inferior a 0,66 mm // --Revestidos de aleaciones de aluminio y cinc // -Revestidos de aluminio: // PRODUCTOS LAMINADOS PLANOS DE HIERRO O ACERO SIN ALEAR, DE ANCHURA SUPERIOR O IGUAL A 600 mm, CHAP</t>
+  </si>
+  <si>
+    <t>En lingotes // Electrolítico // --Con un contenido de cinc superior o igual al  99,99 % en peso // -Cinc sin alear: // CINC EN BRUTO.</t>
+  </si>
+  <si>
+    <t>En lingotes // --Con un contenido de cinc inferior al 99,99 % en  peso // -Cinc sin alear: // CINC EN BRUTO.</t>
+  </si>
+  <si>
+    <t>--De espesor superior o igual a 0,5 mm pero  inferior o igual a 1 mm // -Simplemente laminados en frío: // PRODUCTOS LAMINADOS PLANOS DE ACERO INOXIDABLE, DE ANCHURA SUPERIOR O IGUAL A 600 mm.</t>
+  </si>
+  <si>
+    <t>Los demás // De los tipos utilizados en automóviles // --De dimensiones y formatos que permitan su  empleo en automóviles, aeronaves, barcos u  otros vehículos // -Vidrio contrachapado: // VIDRIO DE SEGURIDAD CONSTITUIDO POR VIDRIO     TEMPLADO O CONTRAC</t>
+  </si>
+  <si>
+    <t>Los demás // De los tipos utilizados en automóviles // --De dimensiones y formatos que permitan su  empleo en automóviles, aeronaves, barcos u  otros vehículos // -Vidrio templado: // VIDRIO DE SEGURIDAD CONSTITUIDO POR VIDRIO     TEMPLADO O CONTRACHAPAD</t>
+  </si>
+  <si>
+    <t>Las demás // Las demás // -Composiciones vitrificables, engobes y preparaciones similares // PIGMENTOS, OPACIFICANTES Y COLORES PREPARADOS,COMPOSICIONES VITRIFICABLES, ENGOBES,ABRILLANTADORES (LUSTRES) LÍQUIDOS Y PREPARACIONES SIMILARES, DE LOS TIPOS UTI</t>
+  </si>
+  <si>
+    <t>Cemento normal // --Los demás // -Cemento Portland: // CEMENTOS HIDRÁULICOS (COMPRENDIDOS LOS CEMENTOSSIN PULVERIZAR O CLINKER), INCLUSO COLOREADOS.</t>
+  </si>
+  <si>
+    <t>-Cementos sin pulverizar o clinker // CEMENTOS HIDRÁULICOS (COMPRENDIDOS LOS CEMENTOSSIN PULVERIZAR O CLINKER), INCLUSO COLOREADOS.</t>
+  </si>
+  <si>
+    <t>Para cemento (R.564/97 MEOSP) // -Sacos (bolsas) con una anchura en la base  superior o igual a 40 cm // CAJAS, SACOS (BOLSAS), BOLSITAS, CUCURUCHOS Y DEMÁS ENVASES DE PAPEL, CARTÓN, GUATA DE CELULOSAO NAPA  DE FIBRAS DE CELULOSA; CARTONAJES DE OFICINA,</t>
+  </si>
+  <si>
+    <t>--Sin calcinar // -Coque de petróleo: // COQUE DE PETRÓLEO, BETÚN DE PETRÓLEO Y DEMÁS RESIDUOS DE LOS ACEITES DE PETRÓLEO O DE MINERAL BITUMINOSO.</t>
+  </si>
+  <si>
+    <t>Los demás // --De peso superior a 150 g/m2 // -«Testliner» (de fibras recicladas): // LOS DEMÁS PAPELES Y CARTONES, SIN ESTUCAR NI RECUBRIR, EN BOBINAS (ROLLOS) O EN HOJAS, QUE NOHAYAN SIDO SOMETIDOS A TRABAJOS COMPLEMENTARIOS OTRATAMIENTOS DISTINTOS DE</t>
+  </si>
+  <si>
+    <t>Los demás // Sin carga // -Polietileno de densidad superior o igual a 0,94 // POLÍMEROS DE ETILENO EN FORMAS PRIMARIAS.</t>
+  </si>
+  <si>
+    <t>--Cauchos técnicamente especificados (TSNR) // -Caucho natural en otras formas: // CAUCHO NATURAL, BALATA, GUTAPERCHA, GUAYULE,CHICLE Y GOMAS NATURALES ANÁLOGAS, EN FORMASPRIMARIAS O EN PLACAS, HOJAS O TIRAS.</t>
+  </si>
+  <si>
+    <t>Tipo duplex (Res.214/99 MEOSP) // De peso superior a 200 g/m2, con grado      de blancura superior al 60 %, espesor      comprendido entre las 225 y 508 micras y un      contenido de cenizas superior al 3 %, para      la elaboración de envases(Anexo V-C-</t>
+  </si>
+  <si>
+    <t>De viscosidad intrínseca superior o igual       a 0,70 dl/g pero inferior o igual a 0,86       dl/g // En gránulos // En las formas previstas en la Nota 6 b) de      este Capítulo // -Poli(tereftalato de etileno) // POLIACETALES, LOS DEMÁS POLIETERES Y R</t>
+  </si>
+  <si>
+    <t>Aptos para estar en contacto con alimentos // De polietileno, estratificado con aluminio,    impreso // Los demás, recubiertos o revestidos // --Los demás // -Papel y cartón recubiertos, impregnados o revestidos de plástico (excepto los adhesivos): // PA</t>
+  </si>
+  <si>
+    <t>Obtenido por proceso de suspensión // -Poli(cloruro de vinilo) sin mezclar con otras sustancias // POLÍMEROS DE CLORURO DE VINILO O DE OTRAS OLE-FINAS HALOGENADAS, EN FORMAS PRIMARIAS.</t>
+  </si>
+  <si>
+    <t>Sin carga // -Polipropileno // POLÍMEROS DE PROPILENO O DE OTRAS OLEFINAS, EN FORMAS PRIMARIAS.</t>
+  </si>
+  <si>
+    <t>Glifosato // Glifosato y su sal de monoisopropilamina // Compuestos órgano-fosforados mencionados a   continuación: ácido clodrónico y su sal   disódica; ácido fosfonometiliminodiacético;   ácido trimetilfosfónico;. difenilfosfonato   (4,4'-bis[(dimetoxi</t>
+  </si>
+  <si>
+    <t>--Ácido tereftálico y sus sales // -Ácidos policarboxílicos aromáticos, sus  anhídridos, halogenuros, peróxidos, peroxiácidos y sus derivados: // ÁCIDOS POLICARBOXÍLICOS, SUS ANHÍDRIDOS, HALOGENUROS, PERÓXIDOS Y PEROXIÁCIDOS; SUSDERIVADOS HALOGENADOS, SU</t>
+  </si>
+  <si>
+    <t>Los demás // Pigmentos tipo rutilo // --Con un contenido de dióxido de titanio superior  o igual al 80 % en peso, calculado sobre materia  seca // -Pigmentos y preparaciones a base de dióxido de titanio: // LAS DEMÁS MATERIAS COLORANTES; PREPARACIONES AQ</t>
+  </si>
+  <si>
+    <t>Los demás // Los demás // Los demás // Los demás // --Fungicidas // -Los demás // INSECTICIDAS, RATICIDAS Y DEMÁS ANTIRROEDORES,  FUNGICIDAS, HERBICIDAS, INHIBIDORES DE GERMINACIÓN Y REGULADORES DEL CRECIMIENTO DE LAS PLANTAS, DESINFECTANTES Y PRODUCTOS</t>
+  </si>
+  <si>
+    <t>En disolución acuosa // Mezclas fertilizantes que contengan nitrato        de amonio // -Mezclas de urea con nitrato de amonio en disolución acuosa o amoniacal // ABONOS MINERALES O QUÍMICOS NITROGENADOS.</t>
+  </si>
+  <si>
+    <t>Sin aditivos // Aceites lubricantes // --Los demás // -Aceites de petróleo o de mineral bituminoso (excepto los aceites crudos) y preparaciones no expresadas ni comprendidas en otra parte, con un contenido de aceites de petróleo o de mineral bituminoso s</t>
+  </si>
+  <si>
+    <t>Las demás // De RON superior a 92 // Sin plomo // Las demás // Gasolinas // --Aceites livianos (ligeros)* y preparaciones // -Aceites de petróleo o de mineral bituminoso (excepto los aceites crudos) y preparaciones no expresadas ni comprendidas en otra p</t>
+  </si>
+  <si>
+    <t>Las dem?s // Las dem?s // Los demás // Los demás // --Los demás // -Los demás aparatos y dispositivos: // APARATOS Y DISPOSITIVOS, AUNQUE SE CALIENTENELECTRICAMENTE (EXCEPTO LOS HORNOS Y DEMÁSAPARATOS DE LA PARTIDA 85.14), PARA EL TRATAMIENTODE MATERIAS</t>
+  </si>
+  <si>
+    <t>Los demás // Las demás // Las demás // Naftas // --Aceites livianos (ligeros)* y preparaciones // -Aceites de petróleo o de mineral bituminoso (excepto los aceites crudos) y preparaciones no expresadas ni comprendidas en otra parte, con un contenido de a</t>
+  </si>
+  <si>
+    <t>Otras preparaciones que contengan por lo menos   uno de los productos comprendidos en los ítem   3811.21.10, 3811.21.20, 3811.21.30 ó 3811.21.40 // --Que contengan aceites de petróleo o de  mineral bituminoso // -Aditivos para aceites lubricantes: // PRE</t>
+  </si>
+  <si>
+    <t>De aviación // Querosenos // --Los demás // -Aceites de petróleo o de mineral bituminoso (excepto los aceites crudos) y preparaciones no expresadas ni comprendidas en otra parte, con un contenido de aceites de petróleo o de mineral bituminoso superior o</t>
+  </si>
+  <si>
+    <t>Los demás // Los demás // Otros aceites combustibles // --Los demás // -Aceites de petróleo o de mineral bituminoso (excepto los aceites crudos) y preparaciones no expresadas ni comprendidas en otra parte, con un contenido de aceites de petróleo o de min</t>
+  </si>
+  <si>
+    <t>De peso inferior o igual a 57 g/m2, con un   contenido de fibras de madera obtenidas por   procedimiento mecánico superior o igual al 65 %   en peso del contenido total de fibra // PAPEL PRENSA EN BOBINAS (ROLLOS) O EN HOJAS.</t>
+  </si>
+  <si>
+    <t>De peso inferior o igual a 60 g/m2 // Los demás // --Papel estucado o cuché ligero(liviano) *  («L.W.C.») // -Papel y cartón de los tipos utilizados para escribir, imprimir u otros fines gráficos, con un contenido total de fibras obtenidas por procedimie</t>
+  </si>
+  <si>
+    <t>Los demás // Los demás // Los demás // --Los demás // -Papel y cartón de los tipos utilizados para escribir, imprimir u otros fines gráficos, con un contenido total de fibras obtenidas por procedimiento mecánico o químico-macánico superior al 10 % en pes</t>
+  </si>
+  <si>
+    <t>De peso inferior o igual a 57 g/m2, con un    contenido de fibras de madera obtenidas por    procedimiento mecánico superior o igual al 65    % en peso del contenido total de fibra // Los demás // --En bobinas (rollos) // -Los demás papeles y cartones, c</t>
+  </si>
+  <si>
+    <t>Los demás // --Autoadhesivos // -Papel y cartón engomados o adhesivos: // PAPEL, CARTÓN, GUATA DE CELULOSA Y NAPA DE FIBRASDE CELULOSA, ESTUCADOS, RECUBIERTOS, IMPREGNADOSO REVESTIDOS, COLOREADOS O DECORADOS EN LASUPERFICIE O IMPRESOS, EN BOBINAS (ROLLOS</t>
+  </si>
+  <si>
+    <t>Los demás papeles termosensibles // papeles termosensibles // Los demás // Los demás // -Los demás papeles, cartones, guata de celulosa y napa de fibras de celulosa // PAPEL, CARTÓN, GUATA DE CELULOSA Y NAPA DE FIBRASDE CELULOSA, ESTUCADOS, RECUBIERTOS,</t>
+  </si>
+  <si>
+    <t>Los demás // Los demás // --Papel estucado o cuché ligero(liviano) *  («L.W.C.») // -Papel y cartón de los tipos utilizados para escribir, imprimir u otros fines gráficos, con un contenido total de fibras obtenidas por procedimiento mecánico o químico-ma</t>
+  </si>
+  <si>
+    <t>De eucalipto // --Distinta de las de coníferas // -Semiblanqueada o blanqueada: // PASTA QUÍMICA DE MADERA A LA SOSA (SODA) O ALSULFATO, EXCEPTO LA PASTA PARA DISOLVER.</t>
+  </si>
+  <si>
+    <t>--Crudos // -Papel y cartón para caras (cubiertas) («Kraftliner»): // PAPEL Y CARTON KRAFT, SIN ESTUCAR NI RECUBRIR, ENBOBINAS (ROLLOS) O EN HOJAS, EXCEPTO EL DE LASPARTIDAS 48.02 ó 48.03.</t>
+  </si>
+  <si>
+    <t>Poli(acrilato de sodio), con capacidad de    absorción de una solución acuosa de cloruro    de sodio al 0,9 % en peso, superior o igual a    20 veces su propio peso // En las formas previstas en la Nota 6 b) de   este Capítulo // -Los demás // POLÍMEROS</t>
+  </si>
+  <si>
+    <t>Con parte operante de acero inoxidable // De cabezal fijo // Descartables // Máquinas y maquinillas // -Navajas y máquinas de afeitar // NAVAJAS Y MÁQUINAS DE AFEITAR Y SUS HOJAS(INCLUIDOS LOS ESBOZOS EN FLEJE).</t>
+  </si>
+  <si>
+    <t>De polipropileno // --De peso inferior o igual a 25 g/m2 // -De filamentos sintéticos o artificiales: // TELA SIN TEJER, INCLUSO IMPREGNADA,   RECUBIERTA, REVESTIDA O ESTRATIFICADA.</t>
+  </si>
+  <si>
+    <t>Para el tratamiento de la caspa // Los demás // -Champúes // PREPARACIONES CAPILARES.</t>
+  </si>
+  <si>
+    <t>Las demás // Las demás, compresas y tampones higiénicos, pañales para bebés y artículos higiénicos similares // COMPRESAS Y TAMPONES HIGIÉNICOS, PAÑALES PARA BEBÉS Y ARTÍCULOS SIMILARES, DE CUALQUIER MATERIA.</t>
+  </si>
+  <si>
+    <t>-Las demás partes // NAVAJAS Y MÁQUINAS DE AFEITAR Y SUS HOJAS(INCLUIDOS LOS ESBOZOS EN FLEJE).</t>
+  </si>
+  <si>
+    <t>Los demás // Los demás // Los demás // -Los demás papeles, cartones, guata de celulosa y napa de fibras de celulosa // PAPEL, CARTÓN, GUATA DE CELULOSA Y NAPA DE FIBRASDE CELULOSA, ESTUCADOS, RECUBIERTOS, IMPREGNADOSO REVESTIDOS, COLOREADOS O DECORADOS E</t>
+  </si>
+  <si>
+    <t>-Tapones // MANUFACTURAS DE CORCHO NATURAL.</t>
+  </si>
+  <si>
+    <t>De espesor superior o igual a 16 mm., de       primera calidad (calidades A y B, según       Norma IRAM 9506) // De espesor superior o igual a 15 mm pero       inferior o igual a 18 mm // Las demás // --Que tengan, por lo menos, una hoja externa de  las</t>
+  </si>
+  <si>
+    <t>Tapones, incluso con discos de corcho       natural // Con aglomerante // -Las demás // CORCHO AGLOMERADO (INCLUSO CON AGLUTINANTE) YMANUFACTURAS DE CORCHO AGLOMERADO.</t>
+  </si>
+  <si>
+    <t>Los demás // Los demás // Kraft // Los demás // --De peso superior o igual a 40 g/m2 pero inferior  o igual a 150 g/m2, en bobinas (rollos) // -Los demás papeles y cartones, sin fibras obtenidas por procedimiento mecánico o químico- mecánico o con un con</t>
+  </si>
+  <si>
+    <t>En bruto o simplemente lijados // --Tableros llamados «oriented strand board» (OSB) // -De madera // TABLEROS DE PARTÍCULAS, TABLEROS LLAMADOS «ORIENTED STRAND BOARD» (OSB) Y TABLEROS SIMILARES (POR EJEMPLO «WAFERBOARD»), DE MADERA U OTRAS MATERIAS LEÑOS</t>
+  </si>
+  <si>
+    <t>Recubiertos en ambas caras con papel    impregnado con melamina, película protectora    en la cara vista y trabajo de encastre en sus    cuatro cantos, de los tipos utilizados para    piso flotante // Los demás // --De espesor superior a 5 mm pero inferi</t>
+  </si>
+  <si>
+    <t>Los demás // De acero sin alear // --Los demás, para muebles // -Las demás guarniciones, herrajes y artículos similares: // GUARNICIONES, HERRAJES Y ARTÍCULOS SIMILARES, DE METAL COMÚN, PARA MUEBLES, PUERTAS, ESCALERAS,VENTANAS, PERSIANAS, CARROCERÍAS, A</t>
+  </si>
+  <si>
+    <t>Los demás, presentados desmontados o sin           montar todavía // , presentados desmontados o sin           montar todavía // Calzado para tenis, baloncesto, gimnasia,      entrenamiento y calzados similares // --Calzado de deporte; calzado de tenis,</t>
+  </si>
+  <si>
+    <t>Los demás // Calzado para tenis, baloncesto, gimnasia,      entrenamiento y calzados similares // --Calzado de deporte; calzado de tenis,  baloncesto, gimnasia, entrenamiento y calzados  similares // -Calzado con suela de caucho o plástico: // CALZADO CO</t>
+  </si>
+  <si>
+    <t>Enteras // Suelas // -Suelas y tacos (tacones)*, de caucho o plástico // PARTES DE CALZADO (INCLUIDAS LAS PARTESSUPERIORES FIJADAS A LAS PALMILLAS DISTINTAS DELA SUELA); PLANTILLAS, TALONERAS Y ARTÍCULOSSIMILARES, AMOVIBLES; POLAINAS Y ARTÍCULOSSIMILARES</t>
+  </si>
+  <si>
+    <t>Los demás, presentados desmontados o sin           montar todavía // Los demás // Para fùtbol // --Los demás // -Calzado de deporte: // LOS DEMÁS CALZADOS CON SUELA Y PARTE SUPERIORDE CAUCHO O PLÁSTICO.</t>
+  </si>
+  <si>
+    <t>Superior al número 34 e inferior o igual       al número 40, o sus equivalentes // De materias textiles // Partes superiores // -Partes superiores de calzado y sus partes, excepto los contrafuertes y punteras duras // PARTES DE CALZADO (INCLUIDAS LAS PAR</t>
+  </si>
+  <si>
+    <t>Superior al número 34 e inferior o igual       al número 40, o sus equivalentes // Con taco (tacón) cosido, pegado o clavado // Los demás, con taco (tacón) incluso      moldeado formando una sola pieza con la      suela // Los demás // --Los demás // -Lo</t>
+  </si>
+  <si>
+    <t>Superior al número 34 e inferior o igual       al número 40, o sus equivalentes // De caucho o plástico // Partes superiores // -Partes superiores de calzado y sus partes, excepto los contrafuertes y punteras duras // PARTES DE CALZADO (INCLUIDAS LAS PAR</t>
+  </si>
+  <si>
+    <t>Los demás // Superior al número 34 e inferior o igual       al número 40, o sus equivalentes // Los demás // Los demás // --Los demás // -Los demás calzados: // LOS DEMÁS CALZADOS CON SUELA Y PARTE SUPERIORDE CAUCHO O PLÁSTICO.</t>
+  </si>
+  <si>
+    <t>Prótesis de arterias vasculares revestidas // --Los demás // -Los demás artículos y aparatos para prótesis: // ARTÍCULOS Y APARATOS PARA ORTOPEDIA, INCLUIDAS LASFAJAS Y VENDAJES MEDICOQUIRÚRGICOS Y LAS MULETAS;TABLILLAS, FERULAS U OTROS ARTÍCULOS Y APARA</t>
+  </si>
+  <si>
+    <t>De talle superior al 16 o sus equivalentes // Con relleno // --De fibras sintéticas o artificiales // -Los demás: // ABRIGOS, CHAQUETONES, CAPAS, ANORAKS, CAZADORAS Y ARTÍCULOS SIMILARES, PARA HOMBRES O NIÑOS,EXCEPTO LOS ARTÍCULOS DE LA PARTIDA 62.03.</t>
+  </si>
+  <si>
+    <t>De talle superior al 16 o sus equivalentes // «T-shirts» // -De algodón // «T-SHIRTS» Y CAMISETAS, DE PUNTO.</t>
+  </si>
+  <si>
+    <t>De talle superior al 16 o sus equivalentes // Con mangas cortas que no cubran el codo // -De algodón // CAMISAS DE PUNTO PARA HOMBRES O NIÑOS.</t>
+  </si>
+  <si>
+    <t>Las demás // A granel, con hasta 15 % embolsado      (Ley 21.453) // -Los demás // HABAS (POROTOS, FRIJOLES, FREJOLES)* DE SOJA(SOYA), INCLUSO QUEBRANTADAS.</t>
+  </si>
+  <si>
+    <t>De título superior a 80 Dtex. pero inferior      o igual a 170 Dtex. // --De poliésteres // -Hilados texturados: // HILADOS DE FILAMENTOS SINTETICOS (EXCEPTO EL HILO DE COSER) SIN ACONDICIONAR PARA LA VENTA AL POR MENOR, INCLUIDOS LOS MONOFILAMENTOS SINT</t>
+  </si>
+  <si>
+    <t>Los demás // Los demás // --De elastómeros // -Los demás hilados sencillos sin torsión o con una torsión inferior o igual a 50 vueltas  por metro: // HILADOS DE FILAMENTOS SINTETICOS (EXCEPTO EL HILO DE COSER) SIN ACONDICIONAR PARA LA VENTA AL POR MENOR,</t>
+  </si>
+  <si>
+    <t>Poliamida-6 ó poliamida-6,6, sin carga // En las formas previstas en la Nota 6 b) de   este Capítulo // -Poliamidas-6,-11,-12,-6,6,- 6,9,- 6,10 ó -6,12 // POLIAMIDAS EN FORMAS PRIMARIAS.</t>
+  </si>
+  <si>
+    <t>-Acrílicos o modacrílicos // CABLES DE FILAMENTOS SINTETICOS.</t>
+  </si>
+  <si>
+    <t>De título inferior o igual a 800 Decitex           por hilo sencillo // De longitud de fibra superior a 51 mm // Retorcidos // --Retorcidos o cableados // -Con un contenido de fibras discontinuas acrílicas o modacrílicas superior o igual al 85 % en peso:</t>
+  </si>
+  <si>
+    <t>Tabaco picado o en hebras // --Los demás // -Tabaco para fumar, incluso con sucedáneos de tabaco en cualquier proporción: // LOS DEMÁS TABACOS Y SUCEDÁNEOS DEL TABACO, ELABORADOS; TABACO &lt;&lt;HOMOGENEIZADO&gt;&gt; O &lt;&lt;RECONSTITUIDO&gt;&gt;; EXTRACTOS Y JUGOS DE TABACO.</t>
+  </si>
+  <si>
+    <t>De acetato de celulosa // CABLES DE FILAMENTOS ARTIFICIALES.</t>
+  </si>
+  <si>
+    <t>Los demás // --Los demás // -Los demás: // LOS DEMÁS TABACOS Y SUCEDÁNEOS DEL TABACO, ELABORADOS; TABACO &lt;&lt;HOMOGENEIZADO&gt;&gt; O &lt;&lt;RECONSTITUIDO&gt;&gt;; EXTRACTOS Y JUGOS DE TABACO.</t>
+  </si>
+  <si>
+    <t>Las demás // Las demás // -Las demás // MEZCLAS DE SUSTANCIAS ODORÍFERAS Y MEZCLAS (INCLUIDAS LAS DISOLUCIONES ALCOHÓLICAS) A BASEDE UNA O VARIAS DE ESTAS SUSTANCIAS, DE LOS TIPOSUTILIZADOS COMO MATERIAS BÁSICAS PARA LAINDUSTRIA; LAS DEMÁS PREPARACIONES</t>
+  </si>
+  <si>
+    <t>Cilindros para filtros de cigarrillos // Los demás artículos de guata // --De fibras sintéticas o artificiales // -Guata de materia textil y artículos de esta guata: // GUATA DE MATERIA TEXTIL Y ARTÍCULOS DE ESTAGUATA; FIBRAS TEXTILES DE LONGITUD INFERIO</t>
+  </si>
+  <si>
+    <t>-En bobinas (rollos) de anchura inferior o igual a 5 cm // PAPEL DE FUMAR, INCLUSO CORTADO AL TAMAÑO ADECUADO, EN LIBRILLOS O EN TUBOS.</t>
+  </si>
+  <si>
+    <t>--Tabaco &lt;&lt;homogeneizado&gt;&gt; o &lt;&lt;reconstituido&gt;&gt; // -Los demás: // LOS DEMÁS TABACOS Y SUCEDÁNEOS DEL TABACO, ELABORADOS; TABACO &lt;&lt;HOMOGENEIZADO&gt;&gt; O &lt;&lt;RECONSTITUIDO&gt;&gt;; EXTRACTOS Y JUGOS DE TABACO.</t>
+  </si>
+  <si>
+    <t>En hojas secas (&lt;&lt;light air cured&gt;&gt;), del tipo   Burley // -Tabaco total o parcialmente desvenado o desnervado // TABACO EN RAMA O SIN ELABORAR; DESPERDICIOS DETABACO.</t>
+  </si>
+  <si>
+    <t>De espesor superior a 10 micrones,       transparentes // De polipropileno biaxialmente orientado       exclusivamente // Las demás // Las demás // Biaxialmente orientados // -De polímeros de propileno // LAS DEMÁS PLACAS, LÁMINAS, HOJAS Y TIRAS, DE PLÁS</t>
+  </si>
+  <si>
+    <t>En librillos // -En librillos o en tubos // PAPEL DE FUMAR, INCLUSO CORTADO AL TAMAÑO ADECUADO, EN LIBRILLOS O EN TUBOS.</t>
+  </si>
+  <si>
+    <t>Manteca de cacao // MANTECA, GRASA Y ACEITE DE CACAO.</t>
+  </si>
+  <si>
+    <t>Los demás // Los demás // Vinos // --Los demás // -Los demás vinos; mosto de uva en el que la fermentación se ha impedido o cortado añadiendo alcohol: // VINO DE UVAS FRESCAS, INCLUSO ENCABEZADO; MOSTODE UVA, EXCEPTO EL DE LA PARTIDA 20.09.</t>
+  </si>
+  <si>
+    <t>Con un contenido de nitrógeno, calculado sobre   producto anhidro seco, superior al 45 % en peso // -Urea, incluso en disolución acuosa // ABONOS MINERALES O QUÍMICOS NITROGENADOS.</t>
+  </si>
+  <si>
+    <t>CACAO EN POLVO SIN ADICIÓN DE AZÚCAR NI OTRO EDULCORANTE.</t>
+  </si>
+  <si>
+    <t>Salmones del Atlántico (Salmo salar) // --Salmones del Atlántico (Salmo salar) y salmones  del Danubio (Hucho hucho) // -Salmónidos, excepto los hígados, huevas y lechas: // PESCADO FRESCO O REFRIGERADO, EXCEPTO LOS FILETES Y DEMÁS CARNE DE PESCADO DE LA</t>
+  </si>
+  <si>
+    <t>Las demás // Las demás // -Las demás // PREPARACIONES ALIMENTICIAS NO EXPRESADAS NI COMPRENDIDAS EN OTRA PARTE.</t>
+  </si>
+  <si>
+    <t>Los demás // En juegos o surtidos // --Los demás // -Los demás: // LIBROS, FOLLETOS E IMPRESOS SIMILARES, INCLUSO ENHOJAS SUELTAS.</t>
+  </si>
+  <si>
+    <t>Los demás // De cilindrada superior a 1.500 cm3 pero      inferior o igual a 2.000 cm3 // Los demás // --De cilindrada superior a 1.500 cm3 pero  inferior o igual a 3.000 cm3 // -Los demás vehículos con motor de émbolo (pistón) alternativo, de encendido</t>
+  </si>
+  <si>
+    <t>Los demás // Los demás // --De cilindrada superior a 2.500 cm3 // -Los demás vehículos con motor de embolo   (pistón), de encendido por compresión (Diesel o semi-Diesel): // AUTOMÓVILES PARA TURISMO Y DEMÁS VEHÍCULOSAUTOMÓVILES CONCEBIDOS PRINCIPALMENTE</t>
+  </si>
+  <si>
+    <t>De talle superior al 16 o sus equivalentes // Con relleno // --De fibras sinteticas o artificiales // -Los demás: // ABRIGOS, CHAQUETONES, CAPAS, ANORAKS, CAZADORAS Y ARTÍCULOS SIMILARES, PARA MUJERES O NIÑAS,EXCEPTO LOS ARTÍCULOS DE LA PARTIDA 62.04.</t>
+  </si>
+  <si>
+    <t>Los demás // --De cilindrada inferior o igual a 1.000 cm3 // -Los demás vehículos con motor de émbolo (pistón) alternativo, de encendido por chispa: // AUTOMÓVILES PARA TURISMO Y DEMÁS VEHÍCULOSAUTOMÓVILES CONCEBIDOS PRINCIPALMENTE PARAEL TRANSPORTE DE P</t>
+  </si>
+  <si>
     <t>Artículos y aparatos // Las demás // --Prótesis artículares // -Los demás artículos y aparatos para prótesis: // ARTÍCULOS Y APARATOS PARA ORTOPEDIA, INCLUIDAS LASFAJAS Y VENDAJES MEDICOQUIRÚRGICOS Y LAS MULETAS;TABLILLAS, FERULAS U OTROS ARTÍCULOS Y APA</t>
   </si>
   <si>
-    <t>-Sin mecanismo de propulsión // SILLONES DE RUEDAS Y DEMAS VEHICULOS PARA INVALIDOS, INCLUSO CON MOTOR U OTRO MECANISMO DEPROPULSION.</t>
-  </si>
-  <si>
-    <t>Aptos para estar en contacto con alimentos // Los demás // -Artículos de uso domestico y sus partes; esponjas, estropajos, guantes y artículos similares para fregar, lustrar o usos análogos // ARTÍCULOS DE USO DOMESTICO, HIGIENE O TOCADOR, YSUS PARTES, D</t>
-  </si>
-  <si>
-    <t>De contadores de electricidad // -Partes y accesorios // CONTADORES DE GAS, LÍQUIDO O ELECTRICIDAD,INCLUIDOS LOS DE CALIBRACIÓN.</t>
-  </si>
-  <si>
-    <t>Catéteres intravenosos periféricos, de      poliuretano o copolímero de    etilenotetrafluoretileno (ETFE) // Sondas, catéteres y cánulas // --Los demás // -Jeringas, agujas, catéteres, cánulas e instrumentos similares: // INSTRUMENTOS Y APARATOS DE MEDI</t>
-  </si>
-  <si>
-    <t>Las dem?s // Las dem?s // -Partes // MONTURAS (ARMAZONES) DE GAFAS (ANTEOJOS) O ARTÍCULOS SIMILARES Y SUS PARTES.</t>
-  </si>
-  <si>
-    <t>Para medicina humana // Las demás // Tubulares de metal // --Agujas tubulares de metal y agujas de sutura // -Jeringas, agujas, catéteres, cánulas e instrumentos similares: // INSTRUMENTOS Y APARATOS DE MEDICINA, CIRUGÍA, ODONTOLOGÍA O VETERINARIA, INCLU</t>
-  </si>
-  <si>
-    <t>Materiales de referencia certificados // Los demás // REACTIVOS DE DIAGNÓSTICO O DE LABORATORIO SOBRECUALQUIER SOPORTE Y REACTIVOS DE DIAGNÓSTICO ODE LABORATORIO PREPARADOS, INCLUSO SOBRE SOPORTE,EXCEPTO LOS DE LAS PARTIDAS 30.02 Ó 30.06; MATERIALES DE R</t>
-  </si>
-  <si>
-    <t>Las demás // Las demás // -Partes // TELEFONOS, INCLUIDOS LOS TELEFONOS CELULARES (MÓVILES)* Y LOS DE OTRAS REDES INALÁMBRICAS; LOS DEMÁS APARATOS DE EMISIÓN, TRANSMISIÓN O RECEPCIÓN DE VOZ, IMAGEN U OTROS DATOS, INCLUIDOS LOS DE COMUNICACIÓN EN RED CON</t>
-  </si>
-  <si>
-    <t>De la subpartida 8415,10, excepto las      unidades evaporadoras (internas) y unidades      condensadoras (externas) de aparatos para      acondicionamiento de aire del tipo sistema      de elementos separados ("split-system") // Las demás // -Partes //</t>
-  </si>
-  <si>
-    <t>De los tipos utilizados en telefonos       celulares // Los demás // -De ión de litio // ACUMULADORES ELECTRICOS, INCLUIDOS SUSSEPARADORES, AUNQUE SEAN CUADRADOS ORECTANGULARES.</t>
-  </si>
-  <si>
-    <t>Montados, aptos para montaje en superficie    (SMD - «Surface Mounted Device») // --Procesadores y controladores, incluso combinados  con memorias, convertidores, circuitos  lógicos, amplificadores, relojes y circuitos de  sincronización, u otros circuit</t>
-  </si>
-  <si>
-    <t>Las demás // Con volumen exterior inferior o igual a       300 cm3 (Anexo II-8) // Pilas alcalinas // -De dióxido de manganeso // PILAS Y BATERÍAS DE PILAS, ELECTRICAS.</t>
-  </si>
-  <si>
-    <t>Piezoeléctricos aptos para aparatos telefónicos // --Los demás // -Altavoces (altoparlantes), incluso montados en sus cajas: // MICRÓFONOS Y SUS SOPORTES; ALTAVOCES          (ALTOPARLANTES), INCLUSO MONTADOS EN SUSCAJAS; AURICULARES, INCLUIDOS LOS DE CAS</t>
-  </si>
-  <si>
-    <t>Los demás // Los demás // --Los demás // -Circuitos electrónicos integrados: // CIRCUITOS ELECTRÓNICOS INTEGRADOS</t>
-  </si>
-  <si>
-    <t>Las demás // De los tipos RAM estáticas (SRAM) con tiempo    de acceso inferior o igual a 25 ns,     EPROM, EEPROM, PROM, ROM y FLASH // Montadas, aptos para montaje en superficie   (SMD - «Surface Mounted Device») // --Memorias // -Circuitos electrónico</t>
-  </si>
-  <si>
-    <t>-Auriculares, incluidos los de casco, estén o no combinados con micrófono, y juegos o conjuntos constituidos por un micrófono y uno o varios altavoces (altoparlantes) // MICRÓFONOS Y SUS SOPORTES; ALTAVOCES          (ALTOPARLANTES), INCLUSO MONTADOS EN S</t>
-  </si>
-  <si>
-    <t>--Los demás // -De cobre refinado: // ALAMBRE DE COBRE.</t>
-  </si>
-  <si>
-    <t>--Con la mayor dimensión de la sección  transversal superior a 6 mm // -De cobre refinado: // ALAMBRE DE COBRE.</t>
-  </si>
-  <si>
-    <t>Las demás // -Partes // ACUMULADORES ELECTRICOS, INCLUIDOS SUSSEPARADORES, AUNQUE SEAN CUADRADOS ORECTANGULARES.</t>
-  </si>
-  <si>
-    <t>--De grano orientado // -De acero al silicio llamado "magnético" (acero magnético al silicio)*: // PRODUCTOS LAMINADOS PLANOS DE LOS DEMÁS ACEROS ALEADOS, DE ANCHURA SUPERIOR O IGUAL A 600 mm.</t>
-  </si>
-  <si>
-    <t>Con diámetro de núcleo inferior a 11    micrómetros // Fibras ópticas // -Fibras ópticas, haces y cables de  fibras ópticas // FIBRAS ÓPTICAS Y HACES DE FIBRAS ÓPTICAS; CABLESDE FIBRAS ÓPTICAS, EXCEPTO LOS DE LA PARTIDA 85.44; HOJAS Y PLACAS DE MATERIA P</t>
-  </si>
-  <si>
-    <t>Los demás // De metal común // -Los demás aparatos eléctricos de alumbrado // APARATOS DE ALUMBRADO (INCLUIDOS LOS PROYECTORES)Y SUS PARTES, NO EXPRESADOS NI COMPRENDIDOS EN OTRA PARTE; ANUNCIOS, LETREROS Y PLACASINDICADORAS, LUMINOSOS Y ARTÍCULOS SIMILA</t>
-  </si>
-  <si>
-    <t>Los demás // --Los demás // -Relés: // APARATOS PARA CORTE, SECCIONAMIENTO, PROTECCIÓN,DERIVACIÓN, EMPALME O CONEXIÓN DE CIRCUITOSELECTRICOS (POR EJEMPLO: INTERRUPTORES,CONMUTADORES, RELES, CORTACIRCUITOS, SUPRESORESDE SOBRETENSIÓN TRANSITORIA, CLAVIJAS</t>
-  </si>
-  <si>
-    <t>Placas madre («mother boards») // Circuitos impresos con componentes eléctricos   o electrónicos montados // -Partes y accesorios de máquinas de la partida  84.71 // PARTES Y ACCESORIOS (EXCEPTO LOS ESTUCHES, FUNDASY SIMILARES) IDENTIFICABLES COMO DESTIN</t>
-  </si>
-  <si>
-    <t>Pantallas («display») para máquinas    automáticas para tratamiento o procesamiento    de datos, portátiles // Los demás // -Partes y accesorios de máquinas de la partida  84.71 // PARTES Y ACCESORIOS (EXCEPTO LOS ESTUCHES, FUNDASY SIMILARES) IDENTIFICAB</t>
-  </si>
-  <si>
-    <t>Los demás // Policromáticos // --Los demás // -Los demás monitores: // MONITORES Y PROYECTORES, QUE NO INCORPOREN APARATORECEPTOR DE TELEVISIÓN; APARATOS RECEPTORES DETELEVISIÓN, INCLUSO CON APARATO RECEPTOR DERADIODIFUSIÓN O DE GRABACIÓN O REPRODUCCIÓN</t>
-  </si>
-  <si>
-    <t>Dispositivo de almacenamiento de datos, de      estado sólido, de los tipos denominados       "flash memory card" // Los demás // --Dispositivos de almacenamiento permanente de  datos a base de semiconductores // -Soportes semiconductores: // DISCOS, CIN</t>
-  </si>
-  <si>
-    <t>Cartuchos de tinta // Mecanismos de impresión a chorro de tinta, sus   partes y accesorios // --Los demás // -Partes y accesorios: // MÁQUINAS Y APARATOS PARA IMPRIMIR MEDIANTE PLANCHAS, CILINDROS Y DEMÁS ELEMENTOS IMPRESORES DE LA PARTIDA 84.42; LAS DEM</t>
-  </si>
-  <si>
-    <t>Alcohol isopropílico // --Propan-1-ol (alcohol propílico) y propan-2-ol  (alcohol isopropílico) // -Monoalcoholes saturados: // ALCOHOLES ACÍCLICOS Y SUS DERIVADOS HALOGENADOS,SULFONADOS, NITRADOS O NITROSADOS.</t>
-  </si>
-  <si>
-    <t>Los demás // --Acetato de etilo // -Esteres del ácido acético: // ÁCIDOS MONOCARBOXÍLICOS ACÍCLICOS SATURADOSY SUS ANHÍDRIDOS, HALOGENUROS, PERÓXIDOS Y PEROXIÁCIDOS; SUS DERIVADOS HALOGENADOS, SULFONADOS, NITRADOS O NITROSADOS.</t>
-  </si>
-  <si>
-    <t>Los demás // --Teléfonos celulares (móviles)* y los de otras  redes inalámbricas // -Teléfonos, incluidos los teléfonos celulares (móviles)* y los de otras redes inalámbricas: // TELEFONOS, INCLUIDOS LOS TELEFONOS CELULARES (MÓVILES)* Y LOS DE OTRAS REDE</t>
-  </si>
-  <si>
-    <t>Las demás // --Acetona // -Cetonas acíclicas sin otras funciones    oxigenadas: // CETONAS Y QUINONAS, INCLUSO CON OTRAS FUNCIONES OXIGENADAS, Y SUS DERIVADOS HALOGENADOS,SULFONADOS, NITRADOS O NITROSADOS.</t>
-  </si>
-  <si>
-    <t>Coches, sillas y vehículos similares para      el transporte de niños // COCHES, SILLAS Y VEHÍCULOS SIMILARES PARAEL TRANSPORTE DE NIÑOS, Y SUS PARTES.</t>
-  </si>
-  <si>
-    <t>Los demás // -Los demás hornos; cocinas, calentadores  (incluidas las mesas de cocción), parrillas y asadores // CALENTADORES ELECTRICOS DE AGUA DE CALENTAMIENTOINSTÁNTANEO O ACUMULACIÓN Y CALENTADORESELECTRICOS DE INMERSIÓN; APARATOS ELECTRICOSPARA CALE</t>
-  </si>
-  <si>
-    <t>De funcionamiento mixto (gas y electricidad) // -Los demás hornos; cocinas, calentadores  (incluidas las mesas de cocción), parrillas y asadores // CALENTADORES ELECTRICOS DE AGUA DE CALENTAMIENTOINSTÁNTANEO O ACUMULACIÓN Y CALENTADORESELECTRICOS DE INME</t>
-  </si>
-  <si>
-    <t>Las dem?s // Las dem?s // -Partes // MÁQUINAS, APARATOS Y ARTEFACTOS DE COSECHAR OTRILLAR, INCLUIDAS LAS PRENSAS PARA PAJA O FORRAJE; CORTADORAS DE CESPED Y GUADAÑADORAS;MÁQUINAS PARA LIMPIEZA O CLASIFICACIÓN DEHUEVOS, FRUTOS O DEMÁS PRODUCTOS AGRÍCOLAS,</t>
-  </si>
-  <si>
-    <t>De los vehículos de las subpartidas   8701.10, 8701.30, 8701.90 u 8704.10 // -Las demás // CARROCERÍAS PARA VEHÍCULOS AUTOMÓVILES DE LAS PARTIDAS 87.01 A 87.05, INCLUÍDAS LAS CABINAS.</t>
-  </si>
-  <si>
-    <t>Las dem?s // Las dem?s // -Partes // MÁQUINAS DE LAVAR ROPA, INCLUSO CON DISPOSITIVO DESECADO.</t>
-  </si>
-  <si>
-    <t>Conmutadores de programa fijo de los tipos      utilizados para el mando de aparatos de uso      doméstico // Los demás // -Para una tensión inferior o igual a 1.000 V // CUADROS, PANELES, CONSOLAS, ARMARIOS Y DEMÁSSOPORTES EQUIPADOS CON VARIOS APARATOS</t>
-  </si>
-  <si>
-    <t>Las demás // Cajas de cambio de los vehículos de las   subpartidas 8701.10, 8701.30, 8701.90 u 8704.10 // -Cajas de cambio y sus partes // PARTES Y ACCESORIOS PARA VEHÍCULOS AUTOMÓVILES DELAS PARTIDAS 87.01 A 87.05.</t>
-  </si>
-  <si>
-    <t>Los demás // Los demás // Los demás // De potencia inferior o igual a 15 kW // -Los demás motores de corriente alterna, monofásicos // MOTORES Y GENERADORES, ELECTRICOS, EXCEPTO LOSGRUPOS ELECTRÓGENOS.</t>
-  </si>
-  <si>
-    <t>Los demás // De los vehículos de las subpartidas 8701.10,   8701.30, 8701.90 u 8704.10 // -Ejes con diferencial, incluso provistos con otros órganos de trasmisión, y ejes portadores; sus partes // PARTES Y ACCESORIOS PARA VEHÍCULOS AUTOMÓVILES DELAS PART</t>
-  </si>
-  <si>
-    <t>Los demás // De espesor superior o igual a 0,66 mm pero      inferior a 1,20 mm // De espesor inferior a 4,75 mm // --Los demás // -Cincados de otro modo: // PRODUCTOS LAMINADOS PLANOS DE HIERRO O ACERO SIN ALEAR, DE ANCHURA SUPERIOR O IGUAL A 600 mm, CH</t>
-  </si>
-  <si>
-    <t>Con un contenido de magnesio superior o       igual al 0,80 % pero inferior o igual al      1,30 %, en peso, manganeso superior o igual      al 0,80 % pero inferior o igual al 1,50 %,      en peso, hierro inferior o igual al 0,80 %      en peso, silicio</t>
-  </si>
-  <si>
-    <t>Lisos // De espesor superior o igual a 0,30 mm // --Cincados de otro modo // -Los demás: // PRODUCTOS LAMINADOS PLANOS DE LOS DEMÁS ACEROS ALEADOS, DE ANCHURA SUPERIOR O IGUAL A 600 mm.</t>
-  </si>
-  <si>
-    <t>Las demás // Las demás // -Las demás barras, simplemente laminadas o extrudidas en caliente // BARRAS Y PERFILES, DE LOS DEMÁS ACEROS ALEADOS;BARRAS HUECAS PARA PERFORACIÓN, DE ACEROS ALEADOSO SIN ALEAR.</t>
-  </si>
-  <si>
-    <t>Las demás // Las demás // --De aleaciones de aluminio // -Cuadradas o rectangulares: // CHAPAS Y TIRAS, DE ALUMINIO, DE ESPESOR SUPERIORA 0,2 mm.</t>
-  </si>
-  <si>
-    <t>Los demás // De espesor superior o igual a 0,51 mm pero      inferior a 0,66 mm // De espesor inferior a 4,75 mm // --Los demás // -Cincados de otro modo: // PRODUCTOS LAMINADOS PLANOS DE HIERRO O ACERO SIN ALEAR, DE ANCHURA SUPERIOR O IGUAL A 600 mm, CH</t>
-  </si>
-  <si>
-    <t>Los demás // De espesor superior o igual a 1,20 mm pero      inferior a 1,81 mm // De espesor inferior a 4,75 mm // --Los demás // -Cincados de otro modo: // PRODUCTOS LAMINADOS PLANOS DE HIERRO O ACERO SIN ALEAR, DE ANCHURA SUPERIOR O IGUAL A 600 mm, CH</t>
-  </si>
-  <si>
-    <t>Tintas de seguridad para impresión de papel      moneda // --Las demás // -Tintas de imprimir: // TINTAS DE IMPRIMIR, TINTAS DE ESCRIBIR ODIBUJAR Y DEMÁS TINTAS, INCLUSO CONCENTRADASO SÓLIDAS.</t>
-  </si>
-  <si>
-    <t>De capacidad superior a 0,25 l pero       inferior o igual a 0,5 l // De los tipos utilizados para bebidas // Los demás // Envases tubulares // -Los demás // DEPÓSITOS, BARRILES, TAMBORES, BIDONES, BOTES,CAJAS Y RECIPIENTES SIMILARES, DE ALUMINIO(INCLUID</t>
-  </si>
-  <si>
-    <t>Palanquilla // --De sección transversal cuadrada o rectangular,   cuya anchura sea inferior al doble del espesor // -Con un contenido de carbono inferior al 0,25 % en peso: // PRODUCTOS INTERMEDIOS DE HIERRO O ACERO SINALEAR.</t>
-  </si>
-  <si>
-    <t>Lisos // De espesor superior o igual a 0,51 mm pero      inferior a 0,66 mm // --Revestidos de aleaciones de aluminio y cinc // -Revestidos de aluminio: // PRODUCTOS LAMINADOS PLANOS DE HIERRO O ACERO SIN ALEAR, DE ANCHURA SUPERIOR O IGUAL A 600 mm, CHAP</t>
-  </si>
-  <si>
-    <t>En lingotes // Electrolítico // --Con un contenido de cinc superior o igual al  99,99 % en peso // -Cinc sin alear: // CINC EN BRUTO.</t>
-  </si>
-  <si>
-    <t>En lingotes // --Con un contenido de cinc inferior al 99,99 % en  peso // -Cinc sin alear: // CINC EN BRUTO.</t>
-  </si>
-  <si>
-    <t>--De espesor superior o igual a 0,5 mm pero  inferior o igual a 1 mm // -Simplemente laminados en frío: // PRODUCTOS LAMINADOS PLANOS DE ACERO INOXIDABLE, DE ANCHURA SUPERIOR O IGUAL A 600 mm.</t>
-  </si>
-  <si>
-    <t>Los demás // De los tipos utilizados en automóviles // --De dimensiones y formatos que permitan su  empleo en automóviles, aeronaves, barcos u  otros vehículos // -Vidrio contrachapado: // VIDRIO DE SEGURIDAD CONSTITUIDO POR VIDRIO     TEMPLADO O CONTRAC</t>
-  </si>
-  <si>
-    <t>Los demás // De los tipos utilizados en automóviles // --De dimensiones y formatos que permitan su  empleo en automóviles, aeronaves, barcos u  otros vehículos // -Vidrio templado: // VIDRIO DE SEGURIDAD CONSTITUIDO POR VIDRIO     TEMPLADO O CONTRACHAPAD</t>
-  </si>
-  <si>
-    <t>Las demás // Las demás // -Composiciones vitrificables, engobes y preparaciones similares // PIGMENTOS, OPACIFICANTES Y COLORES PREPARADOS,COMPOSICIONES VITRIFICABLES, ENGOBES,ABRILLANTADORES (LUSTRES) LÍQUIDOS Y PREPARACIONES SIMILARES, DE LOS TIPOS UTI</t>
-  </si>
-  <si>
-    <t>Cemento normal // --Los demás // -Cemento Portland: // CEMENTOS HIDRÁULICOS (COMPRENDIDOS LOS CEMENTOSSIN PULVERIZAR O CLINKER), INCLUSO COLOREADOS.</t>
-  </si>
-  <si>
-    <t>-Cementos sin pulverizar o clinker // CEMENTOS HIDRÁULICOS (COMPRENDIDOS LOS CEMENTOSSIN PULVERIZAR O CLINKER), INCLUSO COLOREADOS.</t>
-  </si>
-  <si>
-    <t>Para cemento (R.564/97 MEOSP) // -Sacos (bolsas) con una anchura en la base  superior o igual a 40 cm // CAJAS, SACOS (BOLSAS), BOLSITAS, CUCURUCHOS Y DEMÁS ENVASES DE PAPEL, CARTÓN, GUATA DE CELULOSAO NAPA  DE FIBRAS DE CELULOSA; CARTONAJES DE OFICINA,</t>
-  </si>
-  <si>
-    <t>--Sin calcinar // -Coque de petróleo: // COQUE DE PETRÓLEO, BETÚN DE PETRÓLEO Y DEMÁS RESIDUOS DE LOS ACEITES DE PETRÓLEO O DE MINERAL BITUMINOSO.</t>
-  </si>
-  <si>
-    <t>Los demás // --De peso superior a 150 g/m2 // -«Testliner» (de fibras recicladas): // LOS DEMÁS PAPELES Y CARTONES, SIN ESTUCAR NI RECUBRIR, EN BOBINAS (ROLLOS) O EN HOJAS, QUE NOHAYAN SIDO SOMETIDOS A TRABAJOS COMPLEMENTARIOS OTRATAMIENTOS DISTINTOS DE</t>
-  </si>
-  <si>
-    <t>Los demás // Sin carga // -Polietileno de densidad superior o igual a 0,94 // POLÍMEROS DE ETILENO EN FORMAS PRIMARIAS.</t>
-  </si>
-  <si>
-    <t>--Cauchos técnicamente especificados (TSNR) // -Caucho natural en otras formas: // CAUCHO NATURAL, BALATA, GUTAPERCHA, GUAYULE,CHICLE Y GOMAS NATURALES ANÁLOGAS, EN FORMASPRIMARIAS O EN PLACAS, HOJAS O TIRAS.</t>
-  </si>
-  <si>
-    <t>Tipo duplex (Res.214/99 MEOSP) // De peso superior a 200 g/m2, con grado      de blancura superior al 60 %, espesor      comprendido entre las 225 y 508 micras y un      contenido de cenizas superior al 3 %, para      la elaboración de envases(Anexo V-C-</t>
-  </si>
-  <si>
-    <t>De viscosidad intrínseca superior o igual       a 0,70 dl/g pero inferior o igual a 0,86       dl/g // En gránulos // En las formas previstas en la Nota 6 b) de      este Capítulo // -Poli(tereftalato de etileno) // POLIACETALES, LOS DEMÁS POLIETERES Y R</t>
-  </si>
-  <si>
-    <t>Aptos para estar en contacto con alimentos // De polietileno, estratificado con aluminio,    impreso // Los demás, recubiertos o revestidos // --Los demás // -Papel y cartón recubiertos, impregnados o revestidos de plástico (excepto los adhesivos): // PA</t>
-  </si>
-  <si>
-    <t>Obtenido por proceso de suspensión // -Poli(cloruro de vinilo) sin mezclar con otras sustancias // POLÍMEROS DE CLORURO DE VINILO O DE OTRAS OLE-FINAS HALOGENADAS, EN FORMAS PRIMARIAS.</t>
-  </si>
-  <si>
-    <t>Sin carga // -Polipropileno // POLÍMEROS DE PROPILENO O DE OTRAS OLEFINAS, EN FORMAS PRIMARIAS.</t>
-  </si>
-  <si>
-    <t>Glifosato // Glifosato y su sal de monoisopropilamina // Compuestos órgano-fosforados mencionados a   continuación: ácido clodrónico y su sal   disódica; ácido fosfonometiliminodiacético;   ácido trimetilfosfónico;. difenilfosfonato   (4,4'-bis[(dimetoxi</t>
-  </si>
-  <si>
-    <t>--Ácido tereftálico y sus sales // -Ácidos policarboxílicos aromáticos, sus  anhídridos, halogenuros, peróxidos, peroxiácidos y sus derivados: // ÁCIDOS POLICARBOXÍLICOS, SUS ANHÍDRIDOS, HALOGENUROS, PERÓXIDOS Y PEROXIÁCIDOS; SUSDERIVADOS HALOGENADOS, SU</t>
-  </si>
-  <si>
-    <t>Los demás // Pigmentos tipo rutilo // --Con un contenido de dióxido de titanio superior  o igual al 80 % en peso, calculado sobre materia  seca // -Pigmentos y preparaciones a base de dióxido de titanio: // LAS DEMÁS MATERIAS COLORANTES; PREPARACIONES AQ</t>
-  </si>
-  <si>
-    <t>Los demás // Los demás // Los demás // Los demás // --Fungicidas // -Los demás // INSECTICIDAS, RATICIDAS Y DEMÁS ANTIRROEDORES,  FUNGICIDAS, HERBICIDAS, INHIBIDORES DE GERMINACIÓN Y REGULADORES DEL CRECIMIENTO DE LAS PLANTAS, DESINFECTANTES Y PRODUCTOS</t>
-  </si>
-  <si>
-    <t>En disolución acuosa // Mezclas fertilizantes que contengan nitrato        de amonio // -Mezclas de urea con nitrato de amonio en disolución acuosa o amoniacal // ABONOS MINERALES O QUÍMICOS NITROGENADOS.</t>
-  </si>
-  <si>
-    <t>Sin aditivos // Aceites lubricantes // --Los demás // -Aceites de petróleo o de mineral bituminoso (excepto los aceites crudos) y preparaciones no expresadas ni comprendidas en otra parte, con un contenido de aceites de petróleo o de mineral bituminoso s</t>
-  </si>
-  <si>
-    <t>Las demás // De RON superior a 92 // Sin plomo // Las demás // Gasolinas // --Aceites livianos (ligeros)* y preparaciones // -Aceites de petróleo o de mineral bituminoso (excepto los aceites crudos) y preparaciones no expresadas ni comprendidas en otra p</t>
-  </si>
-  <si>
-    <t>Las dem?s // Las dem?s // Los demás // Los demás // --Los demás // -Los demás aparatos y dispositivos: // APARATOS Y DISPOSITIVOS, AUNQUE SE CALIENTENELECTRICAMENTE (EXCEPTO LOS HORNOS Y DEMÁSAPARATOS DE LA PARTIDA 85.14), PARA EL TRATAMIENTODE MATERIAS</t>
-  </si>
-  <si>
-    <t>Los demás // Las demás // Las demás // Naftas // --Aceites livianos (ligeros)* y preparaciones // -Aceites de petróleo o de mineral bituminoso (excepto los aceites crudos) y preparaciones no expresadas ni comprendidas en otra parte, con un contenido de a</t>
-  </si>
-  <si>
-    <t>Otras preparaciones que contengan por lo menos   uno de los productos comprendidos en los ítem   3811.21.10, 3811.21.20, 3811.21.30 ó 3811.21.40 // --Que contengan aceites de petróleo o de  mineral bituminoso // -Aditivos para aceites lubricantes: // PRE</t>
-  </si>
-  <si>
-    <t>De aviación // Querosenos // --Los demás // -Aceites de petróleo o de mineral bituminoso (excepto los aceites crudos) y preparaciones no expresadas ni comprendidas en otra parte, con un contenido de aceites de petróleo o de mineral bituminoso superior o</t>
-  </si>
-  <si>
-    <t>Los demás // Los demás // Otros aceites combustibles // --Los demás // -Aceites de petróleo o de mineral bituminoso (excepto los aceites crudos) y preparaciones no expresadas ni comprendidas en otra parte, con un contenido de aceites de petróleo o de min</t>
-  </si>
-  <si>
-    <t>De peso inferior o igual a 57 g/m2, con un   contenido de fibras de madera obtenidas por   procedimiento mecánico superior o igual al 65 %   en peso del contenido total de fibra // PAPEL PRENSA EN BOBINAS (ROLLOS) O EN HOJAS.</t>
-  </si>
-  <si>
-    <t>De peso inferior o igual a 60 g/m2 // Los demás // --Papel estucado o cuché ligero(liviano) *  («L.W.C.») // -Papel y cartón de los tipos utilizados para escribir, imprimir u otros fines gráficos, con un contenido total de fibras obtenidas por procedimie</t>
-  </si>
-  <si>
-    <t>Los demás // Los demás // Los demás // --Los demás // -Papel y cartón de los tipos utilizados para escribir, imprimir u otros fines gráficos, con un contenido total de fibras obtenidas por procedimiento mecánico o químico-macánico superior al 10 % en pes</t>
-  </si>
-  <si>
-    <t>De peso inferior o igual a 57 g/m2, con un    contenido de fibras de madera obtenidas por    procedimiento mecánico superior o igual al 65    % en peso del contenido total de fibra // Los demás // --En bobinas (rollos) // -Los demás papeles y cartones, c</t>
-  </si>
-  <si>
-    <t>Los demás // --Autoadhesivos // -Papel y cartón engomados o adhesivos: // PAPEL, CARTÓN, GUATA DE CELULOSA Y NAPA DE FIBRASDE CELULOSA, ESTUCADOS, RECUBIERTOS, IMPREGNADOSO REVESTIDOS, COLOREADOS O DECORADOS EN LASUPERFICIE O IMPRESOS, EN BOBINAS (ROLLOS</t>
-  </si>
-  <si>
-    <t>Los demás papeles termosensibles // papeles termosensibles // Los demás // Los demás // -Los demás papeles, cartones, guata de celulosa y napa de fibras de celulosa // PAPEL, CARTÓN, GUATA DE CELULOSA Y NAPA DE FIBRASDE CELULOSA, ESTUCADOS, RECUBIERTOS,</t>
-  </si>
-  <si>
-    <t>Los demás // Los demás // --Papel estucado o cuché ligero(liviano) *  («L.W.C.») // -Papel y cartón de los tipos utilizados para escribir, imprimir u otros fines gráficos, con un contenido total de fibras obtenidas por procedimiento mecánico o químico-ma</t>
-  </si>
-  <si>
-    <t>De eucalipto // --Distinta de las de coníferas // -Semiblanqueada o blanqueada: // PASTA QUÍMICA DE MADERA A LA SOSA (SODA) O ALSULFATO, EXCEPTO LA PASTA PARA DISOLVER.</t>
-  </si>
-  <si>
-    <t>--Crudos // -Papel y cartón para caras (cubiertas) («Kraftliner»): // PAPEL Y CARTON KRAFT, SIN ESTUCAR NI RECUBRIR, ENBOBINAS (ROLLOS) O EN HOJAS, EXCEPTO EL DE LASPARTIDAS 48.02 ó 48.03.</t>
-  </si>
-  <si>
-    <t>Poli(acrilato de sodio), con capacidad de    absorción de una solución acuosa de cloruro    de sodio al 0,9 % en peso, superior o igual a    20 veces su propio peso // En las formas previstas en la Nota 6 b) de   este Capítulo // -Los demás // POLÍMEROS</t>
-  </si>
-  <si>
-    <t>Con parte operante de acero inoxidable // De cabezal fijo // Descartables // Máquinas y maquinillas // -Navajas y máquinas de afeitar // NAVAJAS Y MÁQUINAS DE AFEITAR Y SUS HOJAS(INCLUIDOS LOS ESBOZOS EN FLEJE).</t>
-  </si>
-  <si>
-    <t>De polipropileno // --De peso inferior o igual a 25 g/m2 // -De filamentos sintéticos o artificiales: // TELA SIN TEJER, INCLUSO IMPREGNADA,   RECUBIERTA, REVESTIDA O ESTRATIFICADA.</t>
-  </si>
-  <si>
-    <t>Para el tratamiento de la caspa // Los demás // -Champúes // PREPARACIONES CAPILARES.</t>
-  </si>
-  <si>
-    <t>Las demás // Las demás, compresas y tampones higiénicos, pañales para bebés y artículos higiénicos similares // COMPRESAS Y TAMPONES HIGIÉNICOS, PAÑALES PARA BEBÉS Y ARTÍCULOS SIMILARES, DE CUALQUIER MATERIA.</t>
-  </si>
-  <si>
-    <t>-Las demás partes // NAVAJAS Y MÁQUINAS DE AFEITAR Y SUS HOJAS(INCLUIDOS LOS ESBOZOS EN FLEJE).</t>
-  </si>
-  <si>
-    <t>Los demás // Los demás // Los demás // -Los demás papeles, cartones, guata de celulosa y napa de fibras de celulosa // PAPEL, CARTÓN, GUATA DE CELULOSA Y NAPA DE FIBRASDE CELULOSA, ESTUCADOS, RECUBIERTOS, IMPREGNADOSO REVESTIDOS, COLOREADOS O DECORADOS E</t>
-  </si>
-  <si>
-    <t>-Tapones // MANUFACTURAS DE CORCHO NATURAL.</t>
-  </si>
-  <si>
-    <t>De espesor superior o igual a 16 mm., de       primera calidad (calidades A y B, según       Norma IRAM 9506) // De espesor superior o igual a 15 mm pero       inferior o igual a 18 mm // Las demás // --Que tengan, por lo menos, una hoja externa de  las</t>
-  </si>
-  <si>
-    <t>Tapones, incluso con discos de corcho       natural // Con aglomerante // -Las demás // CORCHO AGLOMERADO (INCLUSO CON AGLUTINANTE) YMANUFACTURAS DE CORCHO AGLOMERADO.</t>
-  </si>
-  <si>
-    <t>Los demás // Los demás // Kraft // Los demás // --De peso superior o igual a 40 g/m2 pero inferior  o igual a 150 g/m2, en bobinas (rollos) // -Los demás papeles y cartones, sin fibras obtenidas por procedimiento mecánico o químico- mecánico o con un con</t>
-  </si>
-  <si>
-    <t>En bruto o simplemente lijados // --Tableros llamados «oriented strand board» (OSB) // -De madera // TABLEROS DE PARTÍCULAS, TABLEROS LLAMADOS «ORIENTED STRAND BOARD» (OSB) Y TABLEROS SIMILARES (POR EJEMPLO «WAFERBOARD»), DE MADERA U OTRAS MATERIAS LEÑOS</t>
-  </si>
-  <si>
-    <t>Recubiertos en ambas caras con papel    impregnado con melamina, película protectora    en la cara vista y trabajo de encastre en sus    cuatro cantos, de los tipos utilizados para    piso flotante // Los demás // --De espesor superior a 5 mm pero inferi</t>
-  </si>
-  <si>
-    <t>Los demás // De acero sin alear // --Los demás, para muebles // -Las demás guarniciones, herrajes y artículos similares: // GUARNICIONES, HERRAJES Y ARTÍCULOS SIMILARES, DE METAL COMÚN, PARA MUEBLES, PUERTAS, ESCALERAS,VENTANAS, PERSIANAS, CARROCERÍAS, A</t>
-  </si>
-  <si>
-    <t>Los demás, presentados desmontados o sin           montar todavía // , presentados desmontados o sin           montar todavía // Calzado para tenis, baloncesto, gimnasia,      entrenamiento y calzados similares // --Calzado de deporte; calzado de tenis,</t>
-  </si>
-  <si>
-    <t>Los demás // Calzado para tenis, baloncesto, gimnasia,      entrenamiento y calzados similares // --Calzado de deporte; calzado de tenis,  baloncesto, gimnasia, entrenamiento y calzados  similares // -Calzado con suela de caucho o plástico: // CALZADO CO</t>
-  </si>
-  <si>
-    <t>Enteras // Suelas // -Suelas y tacos (tacones)*, de caucho o plástico // PARTES DE CALZADO (INCLUIDAS LAS PARTESSUPERIORES FIJADAS A LAS PALMILLAS DISTINTAS DELA SUELA); PLANTILLAS, TALONERAS Y ARTÍCULOSSIMILARES, AMOVIBLES; POLAINAS Y ARTÍCULOSSIMILARES</t>
-  </si>
-  <si>
-    <t>Los demás, presentados desmontados o sin           montar todavía // Los demás // Para fùtbol // --Los demás // -Calzado de deporte: // LOS DEMÁS CALZADOS CON SUELA Y PARTE SUPERIORDE CAUCHO O PLÁSTICO.</t>
-  </si>
-  <si>
-    <t>Superior al número 34 e inferior o igual       al número 40, o sus equivalentes // De materias textiles // Partes superiores // -Partes superiores de calzado y sus partes, excepto los contrafuertes y punteras duras // PARTES DE CALZADO (INCLUIDAS LAS PAR</t>
-  </si>
-  <si>
-    <t>Superior al número 34 e inferior o igual       al número 40, o sus equivalentes // Con taco (tacón) cosido, pegado o clavado // Los demás, con taco (tacón) incluso      moldeado formando una sola pieza con la      suela // Los demás // --Los demás // -Lo</t>
-  </si>
-  <si>
-    <t>Superior al número 34 e inferior o igual       al número 40, o sus equivalentes // De caucho o plástico // Partes superiores // -Partes superiores de calzado y sus partes, excepto los contrafuertes y punteras duras // PARTES DE CALZADO (INCLUIDAS LAS PAR</t>
-  </si>
-  <si>
-    <t>Los demás // Superior al número 34 e inferior o igual       al número 40, o sus equivalentes // Los demás // Los demás // --Los demás // -Los demás calzados: // LOS DEMÁS CALZADOS CON SUELA Y PARTE SUPERIORDE CAUCHO O PLÁSTICO.</t>
-  </si>
-  <si>
-    <t>Prótesis de arterias vasculares revestidas // --Los demás // -Los demás artículos y aparatos para prótesis: // ARTÍCULOS Y APARATOS PARA ORTOPEDIA, INCLUIDAS LASFAJAS Y VENDAJES MEDICOQUIRÚRGICOS Y LAS MULETAS;TABLILLAS, FERULAS U OTROS ARTÍCULOS Y APARA</t>
-  </si>
-  <si>
-    <t>De talle superior al 16 o sus equivalentes // Con relleno // --De fibras sintéticas o artificiales // -Los demás: // ABRIGOS, CHAQUETONES, CAPAS, ANORAKS, CAZADORAS Y ARTÍCULOS SIMILARES, PARA HOMBRES O NIÑOS,EXCEPTO LOS ARTÍCULOS DE LA PARTIDA 62.03.</t>
-  </si>
-  <si>
-    <t>De talle superior al 16 o sus equivalentes // «T-shirts» // -De algodón // «T-SHIRTS» Y CAMISETAS, DE PUNTO.</t>
-  </si>
-  <si>
-    <t>De talle superior al 16 o sus equivalentes // Con mangas cortas que no cubran el codo // -De algodón // CAMISAS DE PUNTO PARA HOMBRES O NIÑOS.</t>
-  </si>
-  <si>
-    <t>Las demás // A granel, con hasta 15 % embolsado      (Ley 21.453) // -Los demás // HABAS (POROTOS, FRIJOLES, FREJOLES)* DE SOJA(SOYA), INCLUSO QUEBRANTADAS.</t>
-  </si>
-  <si>
-    <t>De título superior a 80 Dtex. pero inferior      o igual a 170 Dtex. // --De poliésteres // -Hilados texturados: // HILADOS DE FILAMENTOS SINTETICOS (EXCEPTO EL HILO DE COSER) SIN ACONDICIONAR PARA LA VENTA AL POR MENOR, INCLUIDOS LOS MONOFILAMENTOS SINT</t>
-  </si>
-  <si>
-    <t>Los demás // Los demás // --De elastómeros // -Los demás hilados sencillos sin torsión o con una torsión inferior o igual a 50 vueltas  por metro: // HILADOS DE FILAMENTOS SINTETICOS (EXCEPTO EL HILO DE COSER) SIN ACONDICIONAR PARA LA VENTA AL POR MENOR,</t>
-  </si>
-  <si>
-    <t>Poliamida-6 ó poliamida-6,6, sin carga // En las formas previstas en la Nota 6 b) de   este Capítulo // -Poliamidas-6,-11,-12,-6,6,- 6,9,- 6,10 ó -6,12 // POLIAMIDAS EN FORMAS PRIMARIAS.</t>
-  </si>
-  <si>
-    <t>-Acrílicos o modacrílicos // CABLES DE FILAMENTOS SINTETICOS.</t>
-  </si>
-  <si>
-    <t>De título inferior o igual a 800 Decitex           por hilo sencillo // De longitud de fibra superior a 51 mm // Retorcidos // --Retorcidos o cableados // -Con un contenido de fibras discontinuas acrílicas o modacrílicas superior o igual al 85 % en peso:</t>
-  </si>
-  <si>
-    <t>Tabaco picado o en hebras // --Los demás // -Tabaco para fumar, incluso con sucedáneos de tabaco en cualquier proporción: // LOS DEMÁS TABACOS Y SUCEDÁNEOS DEL TABACO, ELABORADOS; TABACO &lt;&lt;HOMOGENEIZADO&gt;&gt; O &lt;&lt;RECONSTITUIDO&gt;&gt;; EXTRACTOS Y JUGOS DE TABACO.</t>
-  </si>
-  <si>
-    <t>De acetato de celulosa // CABLES DE FILAMENTOS ARTIFICIALES.</t>
-  </si>
-  <si>
-    <t>Los demás // --Los demás // -Los demás: // LOS DEMÁS TABACOS Y SUCEDÁNEOS DEL TABACO, ELABORADOS; TABACO &lt;&lt;HOMOGENEIZADO&gt;&gt; O &lt;&lt;RECONSTITUIDO&gt;&gt;; EXTRACTOS Y JUGOS DE TABACO.</t>
-  </si>
-  <si>
-    <t>Las demás // Las demás // -Las demás // MEZCLAS DE SUSTANCIAS ODORÍFERAS Y MEZCLAS (INCLUIDAS LAS DISOLUCIONES ALCOHÓLICAS) A BASEDE UNA O VARIAS DE ESTAS SUSTANCIAS, DE LOS TIPOSUTILIZADOS COMO MATERIAS BÁSICAS PARA LAINDUSTRIA; LAS DEMÁS PREPARACIONES</t>
-  </si>
-  <si>
-    <t>Cilindros para filtros de cigarrillos // Los demás artículos de guata // --De fibras sintéticas o artificiales // -Guata de materia textil y artículos de esta guata: // GUATA DE MATERIA TEXTIL Y ARTÍCULOS DE ESTAGUATA; FIBRAS TEXTILES DE LONGITUD INFERIO</t>
-  </si>
-  <si>
-    <t>-En bobinas (rollos) de anchura inferior o igual a 5 cm // PAPEL DE FUMAR, INCLUSO CORTADO AL TAMAÑO ADECUADO, EN LIBRILLOS O EN TUBOS.</t>
-  </si>
-  <si>
-    <t>--Tabaco &lt;&lt;homogeneizado&gt;&gt; o &lt;&lt;reconstituido&gt;&gt; // -Los demás: // LOS DEMÁS TABACOS Y SUCEDÁNEOS DEL TABACO, ELABORADOS; TABACO &lt;&lt;HOMOGENEIZADO&gt;&gt; O &lt;&lt;RECONSTITUIDO&gt;&gt;; EXTRACTOS Y JUGOS DE TABACO.</t>
-  </si>
-  <si>
-    <t>En hojas secas (&lt;&lt;light air cured&gt;&gt;), del tipo   Burley // -Tabaco total o parcialmente desvenado o desnervado // TABACO EN RAMA O SIN ELABORAR; DESPERDICIOS DETABACO.</t>
-  </si>
-  <si>
-    <t>De espesor superior a 10 micrones,       transparentes // De polipropileno biaxialmente orientado       exclusivamente // Las demás // Las demás // Biaxialmente orientados // -De polímeros de propileno // LAS DEMÁS PLACAS, LÁMINAS, HOJAS Y TIRAS, DE PLÁS</t>
-  </si>
-  <si>
-    <t>En librillos // -En librillos o en tubos // PAPEL DE FUMAR, INCLUSO CORTADO AL TAMAÑO ADECUADO, EN LIBRILLOS O EN TUBOS.</t>
-  </si>
-  <si>
-    <t>Manteca de cacao // MANTECA, GRASA Y ACEITE DE CACAO.</t>
-  </si>
-  <si>
-    <t>Los demás // Los demás // Vinos // --Los demás // -Los demás vinos; mosto de uva en el que la fermentación se ha impedido o cortado añadiendo alcohol: // VINO DE UVAS FRESCAS, INCLUSO ENCABEZADO; MOSTODE UVA, EXCEPTO EL DE LA PARTIDA 20.09.</t>
-  </si>
-  <si>
-    <t>Con un contenido de nitrógeno, calculado sobre   producto anhidro seco, superior al 45 % en peso // -Urea, incluso en disolución acuosa // ABONOS MINERALES O QUÍMICOS NITROGENADOS.</t>
-  </si>
-  <si>
-    <t>CACAO EN POLVO SIN ADICIÓN DE AZÚCAR NI OTRO EDULCORANTE.</t>
-  </si>
-  <si>
-    <t>Salmones del Atlántico (Salmo salar) // --Salmones del Atlántico (Salmo salar) y salmones  del Danubio (Hucho hucho) // -Salmónidos, excepto los hígados, huevas y lechas: // PESCADO FRESCO O REFRIGERADO, EXCEPTO LOS FILETES Y DEMÁS CARNE DE PESCADO DE LA</t>
-  </si>
-  <si>
-    <t>Las demás // Las demás // -Las demás // PREPARACIONES ALIMENTICIAS NO EXPRESADAS NI COMPRENDIDAS EN OTRA PARTE.</t>
-  </si>
-  <si>
-    <t>Los demás // En juegos o surtidos // --Los demás // -Los demás: // LIBROS, FOLLETOS E IMPRESOS SIMILARES, INCLUSO ENHOJAS SUELTAS.</t>
-  </si>
-  <si>
-    <t>Los demás // De cilindrada superior a 1.500 cm3 pero      inferior o igual a 2.000 cm3 // Los demás // --De cilindrada superior a 1.500 cm3 pero  inferior o igual a 3.000 cm3 // -Los demás vehículos con motor de émbolo (pistón) alternativo, de encendido</t>
-  </si>
-  <si>
-    <t>Los demás // Los demás // --De cilindrada superior a 2.500 cm3 // -Los demás vehículos con motor de embolo   (pistón), de encendido por compresión (Diesel o semi-Diesel): // AUTOMÓVILES PARA TURISMO Y DEMÁS VEHÍCULOSAUTOMÓVILES CONCEBIDOS PRINCIPALMENTE</t>
-  </si>
-  <si>
-    <t>De talle superior al 16 o sus equivalentes // Con relleno // --De fibras sinteticas o artificiales // -Los demás: // ABRIGOS, CHAQUETONES, CAPAS, ANORAKS, CAZADORAS Y ARTÍCULOS SIMILARES, PARA MUJERES O NIÑAS,EXCEPTO LOS ARTÍCULOS DE LA PARTIDA 62.04.</t>
-  </si>
-  <si>
-    <t>Los demás // --De cilindrada inferior o igual a 1.000 cm3 // -Los demás vehículos con motor de émbolo (pistón) alternativo, de encendido por chispa: // AUTOMÓVILES PARA TURISMO Y DEMÁS VEHÍCULOSAUTOMÓVILES CONCEBIDOS PRINCIPALMENTE PARAEL TRANSPORTE DE P</t>
-  </si>
-  <si>
     <t>De talle superior al 16 o sus equivalentes // Confeccionadas con tejidos de las       subpartidas 5209.42 ó 5211.42 // Pantalones largos, sin peto // --De algodón // -Pantalones largos, pantalones con peto, pantalones cortos (calzones) y shorts: // TRAJE</t>
   </si>
   <si>
@@ -2473,9 +2476,6 @@
     <t>Los demás, presentados desmontados o sin           montar todavía // Con parte superior de cuero vacuno // Calzado para tenis, baloncesto, gimnasia,      entrenamiento y calzados similares // Los demás // --Los demás // -Los demás calzados: // CALZADO CO</t>
   </si>
   <si>
-    <t>Los demás // Los demás // --De cilindrada superior a 1.500 cm3 pero      inferior o igual a 2.500 cm3 // -Los demás vehículos con motor de embolo   (pistón), de encendido por compresión (Diesel o semi-Diesel): // AUTOMÓVILES PARA TURISMO Y DEMÁS VEHÍCULO</t>
-  </si>
-  <si>
     <t>--Bolas y artículos similares para molinos // -Forjadas o estampadas pero sin trabajar de otro modo: // LAS DEMÁS MANUFACTURAS DE HIERRO O ACERO.</t>
   </si>
   <si>
@@ -2974,250 +2974,253 @@
     <t>De transferenci</t>
   </si>
   <si>
+    <t xml:space="preserve">-Sin mecanismo </t>
+  </si>
+  <si>
+    <t>Aptos para esta</t>
+  </si>
+  <si>
+    <t>De contadores d</t>
+  </si>
+  <si>
+    <t>Catéteres intra</t>
+  </si>
+  <si>
+    <t>Para medicina h</t>
+  </si>
+  <si>
+    <t>Materiales de r</t>
+  </si>
+  <si>
+    <t>Los demás // ME</t>
+  </si>
+  <si>
+    <t>De la subpartid</t>
+  </si>
+  <si>
+    <t>Montados, aptos</t>
+  </si>
+  <si>
+    <t>Las demás // Co</t>
+  </si>
+  <si>
+    <t>Piezoeléctricos</t>
+  </si>
+  <si>
+    <t>-Auriculares, i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--Los demás // </t>
+  </si>
+  <si>
+    <t xml:space="preserve">--Con la mayor </t>
+  </si>
+  <si>
+    <t>Las demás // -P</t>
+  </si>
+  <si>
+    <t>--De grano orie</t>
+  </si>
+  <si>
+    <t>Con diámetro de</t>
+  </si>
+  <si>
+    <t>Placas madre («</t>
+  </si>
+  <si>
+    <t>Pantallas («dis</t>
+  </si>
+  <si>
+    <t>Los demás // Po</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispositivo de </t>
+  </si>
+  <si>
+    <t>Cartuchos de ti</t>
+  </si>
+  <si>
+    <t>Alcohol isoprop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coches, sillas </t>
+  </si>
+  <si>
+    <t>De funcionamien</t>
+  </si>
+  <si>
+    <t>Conmutadores de</t>
+  </si>
+  <si>
+    <t>Las demás // Ca</t>
+  </si>
+  <si>
+    <t>Lisos // De esp</t>
+  </si>
+  <si>
+    <t>Tintas de segur</t>
+  </si>
+  <si>
+    <t>De capacidad su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palanquilla // </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En lingotes // </t>
+  </si>
+  <si>
+    <t>--De espesor su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cemento normal </t>
+  </si>
+  <si>
+    <t>-Cementos sin p</t>
+  </si>
+  <si>
+    <t>Para cemento (R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--Sin calcinar </t>
+  </si>
+  <si>
+    <t>--Cauchos técni</t>
+  </si>
+  <si>
+    <t>Tipo duplex (Re</t>
+  </si>
+  <si>
+    <t>De viscosidad i</t>
+  </si>
+  <si>
+    <t>Obtenido por pr</t>
+  </si>
+  <si>
+    <t>Sin carga // -P</t>
+  </si>
+  <si>
+    <t>Glifosato // Gl</t>
+  </si>
+  <si>
+    <t>--Ácido tereftá</t>
+  </si>
+  <si>
+    <t>Los demás // Pi</t>
+  </si>
+  <si>
+    <t>En disolución a</t>
+  </si>
+  <si>
+    <t>Sin aditivos //</t>
+  </si>
+  <si>
+    <t>Otras preparaci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De aviación // </t>
+  </si>
+  <si>
+    <t>De peso inferio</t>
+  </si>
+  <si>
+    <t>Los demás papel</t>
+  </si>
+  <si>
+    <t>De eucalipto //</t>
+  </si>
+  <si>
+    <t>--Crudos // -Pa</t>
+  </si>
+  <si>
+    <t>Poli(acrilato d</t>
+  </si>
+  <si>
+    <t>Con parte opera</t>
+  </si>
+  <si>
+    <t>De polipropilen</t>
+  </si>
+  <si>
+    <t>Para el tratami</t>
+  </si>
+  <si>
+    <t>-Las demás part</t>
+  </si>
+  <si>
+    <t>-Tapones // MAN</t>
+  </si>
+  <si>
+    <t>Tapones, inclus</t>
+  </si>
+  <si>
+    <t>En bruto o simp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recubiertos en </t>
+  </si>
+  <si>
+    <t>Enteras // Suel</t>
+  </si>
+  <si>
+    <t>Superior al núm</t>
+  </si>
+  <si>
+    <t>Los demás // Su</t>
+  </si>
+  <si>
+    <t>Prótesis de art</t>
+  </si>
+  <si>
+    <t>De talle superi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las demás // A </t>
+  </si>
+  <si>
+    <t>De título super</t>
+  </si>
+  <si>
+    <t>Poliamida-6 ó p</t>
+  </si>
+  <si>
+    <t>-Acrílicos o mo</t>
+  </si>
+  <si>
+    <t>De título infer</t>
+  </si>
+  <si>
+    <t>Tabaco picado o</t>
+  </si>
+  <si>
+    <t>De acetato de c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cilindros para </t>
+  </si>
+  <si>
+    <t>-En bobinas (ro</t>
+  </si>
+  <si>
+    <t>--Tabaco &lt;&lt;homo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En hojas secas </t>
+  </si>
+  <si>
+    <t>En librillos //</t>
+  </si>
+  <si>
+    <t>Manteca de caca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACAO EN POLVO </t>
+  </si>
+  <si>
+    <t>Salmones del At</t>
+  </si>
+  <si>
     <t>Artículos y apa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-Sin mecanismo </t>
-  </si>
-  <si>
-    <t>Aptos para esta</t>
-  </si>
-  <si>
-    <t>De contadores d</t>
-  </si>
-  <si>
-    <t>Catéteres intra</t>
-  </si>
-  <si>
-    <t>Para medicina h</t>
-  </si>
-  <si>
-    <t>Materiales de r</t>
-  </si>
-  <si>
-    <t>De la subpartid</t>
-  </si>
-  <si>
-    <t>Montados, aptos</t>
-  </si>
-  <si>
-    <t>Las demás // Co</t>
-  </si>
-  <si>
-    <t>Piezoeléctricos</t>
-  </si>
-  <si>
-    <t>-Auriculares, i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--Los demás // </t>
-  </si>
-  <si>
-    <t xml:space="preserve">--Con la mayor </t>
-  </si>
-  <si>
-    <t>Las demás // -P</t>
-  </si>
-  <si>
-    <t>--De grano orie</t>
-  </si>
-  <si>
-    <t>Con diámetro de</t>
-  </si>
-  <si>
-    <t>Placas madre («</t>
-  </si>
-  <si>
-    <t>Pantallas («dis</t>
-  </si>
-  <si>
-    <t>Los demás // Po</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dispositivo de </t>
-  </si>
-  <si>
-    <t>Cartuchos de ti</t>
-  </si>
-  <si>
-    <t>Alcohol isoprop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coches, sillas </t>
-  </si>
-  <si>
-    <t>De funcionamien</t>
-  </si>
-  <si>
-    <t>Conmutadores de</t>
-  </si>
-  <si>
-    <t>Las demás // Ca</t>
-  </si>
-  <si>
-    <t>Lisos // De esp</t>
-  </si>
-  <si>
-    <t>Tintas de segur</t>
-  </si>
-  <si>
-    <t>De capacidad su</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palanquilla // </t>
-  </si>
-  <si>
-    <t xml:space="preserve">En lingotes // </t>
-  </si>
-  <si>
-    <t>--De espesor su</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cemento normal </t>
-  </si>
-  <si>
-    <t>-Cementos sin p</t>
-  </si>
-  <si>
-    <t>Para cemento (R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--Sin calcinar </t>
-  </si>
-  <si>
-    <t>--Cauchos técni</t>
-  </si>
-  <si>
-    <t>Tipo duplex (Re</t>
-  </si>
-  <si>
-    <t>De viscosidad i</t>
-  </si>
-  <si>
-    <t>Obtenido por pr</t>
-  </si>
-  <si>
-    <t>Sin carga // -P</t>
-  </si>
-  <si>
-    <t>Glifosato // Gl</t>
-  </si>
-  <si>
-    <t>--Ácido tereftá</t>
-  </si>
-  <si>
-    <t>Los demás // Pi</t>
-  </si>
-  <si>
-    <t>En disolución a</t>
-  </si>
-  <si>
-    <t>Sin aditivos //</t>
-  </si>
-  <si>
-    <t>Otras preparaci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De aviación // </t>
-  </si>
-  <si>
-    <t>De peso inferio</t>
-  </si>
-  <si>
-    <t>Los demás papel</t>
-  </si>
-  <si>
-    <t>De eucalipto //</t>
-  </si>
-  <si>
-    <t>--Crudos // -Pa</t>
-  </si>
-  <si>
-    <t>Poli(acrilato d</t>
-  </si>
-  <si>
-    <t>Con parte opera</t>
-  </si>
-  <si>
-    <t>De polipropilen</t>
-  </si>
-  <si>
-    <t>Para el tratami</t>
-  </si>
-  <si>
-    <t>-Las demás part</t>
-  </si>
-  <si>
-    <t>-Tapones // MAN</t>
-  </si>
-  <si>
-    <t>Tapones, inclus</t>
-  </si>
-  <si>
-    <t>En bruto o simp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recubiertos en </t>
-  </si>
-  <si>
-    <t>Enteras // Suel</t>
-  </si>
-  <si>
-    <t>Superior al núm</t>
-  </si>
-  <si>
-    <t>Los demás // Su</t>
-  </si>
-  <si>
-    <t>Prótesis de art</t>
-  </si>
-  <si>
-    <t>De talle superi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Las demás // A </t>
-  </si>
-  <si>
-    <t>De título super</t>
-  </si>
-  <si>
-    <t>Poliamida-6 ó p</t>
-  </si>
-  <si>
-    <t>-Acrílicos o mo</t>
-  </si>
-  <si>
-    <t>De título infer</t>
-  </si>
-  <si>
-    <t>Tabaco picado o</t>
-  </si>
-  <si>
-    <t>De acetato de c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cilindros para </t>
-  </si>
-  <si>
-    <t>-En bobinas (ro</t>
-  </si>
-  <si>
-    <t>--Tabaco &lt;&lt;homo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En hojas secas </t>
-  </si>
-  <si>
-    <t>En librillos //</t>
-  </si>
-  <si>
-    <t>Manteca de caca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CACAO EN POLVO </t>
-  </si>
-  <si>
-    <t>Salmones del At</t>
   </si>
   <si>
     <t>De cilindrada s</t>
@@ -3834,7 +3837,7 @@
         <v>840</v>
       </c>
       <c r="K2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -3869,7 +3872,7 @@
         <v>841</v>
       </c>
       <c r="K3" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -3904,7 +3907,7 @@
         <v>842</v>
       </c>
       <c r="K4" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -3939,7 +3942,7 @@
         <v>843</v>
       </c>
       <c r="K5" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -3974,7 +3977,7 @@
         <v>844</v>
       </c>
       <c r="K6" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -4009,7 +4012,7 @@
         <v>845</v>
       </c>
       <c r="K7" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -4044,7 +4047,7 @@
         <v>846</v>
       </c>
       <c r="K8" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -4079,7 +4082,7 @@
         <v>844</v>
       </c>
       <c r="K9" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -4114,7 +4117,7 @@
         <v>847</v>
       </c>
       <c r="K10" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -4149,7 +4152,7 @@
         <v>846</v>
       </c>
       <c r="K11" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -4184,7 +4187,7 @@
         <v>848</v>
       </c>
       <c r="K12" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -4219,7 +4222,7 @@
         <v>849</v>
       </c>
       <c r="K13" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -4254,7 +4257,7 @@
         <v>850</v>
       </c>
       <c r="K14" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -4289,7 +4292,7 @@
         <v>851</v>
       </c>
       <c r="K15" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -4324,7 +4327,7 @@
         <v>852</v>
       </c>
       <c r="K16" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4359,7 +4362,7 @@
         <v>853</v>
       </c>
       <c r="K17" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -4394,7 +4397,7 @@
         <v>854</v>
       </c>
       <c r="K18" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -4429,7 +4432,7 @@
         <v>855</v>
       </c>
       <c r="K19" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -4464,7 +4467,7 @@
         <v>844</v>
       </c>
       <c r="K20" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -4499,7 +4502,7 @@
         <v>856</v>
       </c>
       <c r="K21" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -4534,7 +4537,7 @@
         <v>857</v>
       </c>
       <c r="K22" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4569,7 +4572,7 @@
         <v>858</v>
       </c>
       <c r="K23" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -4604,7 +4607,7 @@
         <v>848</v>
       </c>
       <c r="K24" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -4639,7 +4642,7 @@
         <v>859</v>
       </c>
       <c r="K25" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -4674,7 +4677,7 @@
         <v>846</v>
       </c>
       <c r="K26" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -4709,7 +4712,7 @@
         <v>860</v>
       </c>
       <c r="K27" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -4744,7 +4747,7 @@
         <v>861</v>
       </c>
       <c r="K28" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -4779,7 +4782,7 @@
         <v>862</v>
       </c>
       <c r="K29" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -4814,7 +4817,7 @@
         <v>852</v>
       </c>
       <c r="K30" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -4849,7 +4852,7 @@
         <v>863</v>
       </c>
       <c r="K31" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -4872,19 +4875,19 @@
         <v>478</v>
       </c>
       <c r="G32">
-        <v>433298672.1094878</v>
+        <v>430269180.2334659</v>
       </c>
       <c r="H32" t="s">
         <v>403</v>
       </c>
       <c r="I32">
-        <v>0.3586367170431461</v>
+        <v>0.361161850310037</v>
       </c>
       <c r="J32" t="s">
         <v>864</v>
       </c>
       <c r="K32" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -4907,19 +4910,19 @@
         <v>479</v>
       </c>
       <c r="G33">
-        <v>433298672.1094878</v>
+        <v>430269180.2334659</v>
       </c>
       <c r="H33" t="s">
         <v>403</v>
       </c>
       <c r="I33">
-        <v>0.1412198527109893</v>
+        <v>0.1422141707243986</v>
       </c>
       <c r="J33" t="s">
         <v>852</v>
       </c>
       <c r="K33" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -4942,19 +4945,19 @@
         <v>480</v>
       </c>
       <c r="G34">
-        <v>433298672.1094878</v>
+        <v>430269180.2334659</v>
       </c>
       <c r="H34" t="s">
         <v>403</v>
       </c>
       <c r="I34">
-        <v>0.1116408326875905</v>
+        <v>0.1124268871186234</v>
       </c>
       <c r="J34" t="s">
         <v>855</v>
       </c>
       <c r="K34" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -4977,19 +4980,19 @@
         <v>481</v>
       </c>
       <c r="G35">
-        <v>433298672.1094878</v>
+        <v>430269180.2334659</v>
       </c>
       <c r="H35" t="s">
         <v>403</v>
       </c>
       <c r="I35">
-        <v>0.02879292388311406</v>
+        <v>0.02899565262362826</v>
       </c>
       <c r="J35" t="s">
         <v>865</v>
       </c>
       <c r="K35" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -5012,19 +5015,19 @@
         <v>482</v>
       </c>
       <c r="G36">
-        <v>433298672.1094878</v>
+        <v>430269180.2334659</v>
       </c>
       <c r="H36" t="s">
         <v>403</v>
       </c>
       <c r="I36">
-        <v>0.02781595375822317</v>
+        <v>0.02801180372797609</v>
       </c>
       <c r="J36" t="s">
         <v>866</v>
       </c>
       <c r="K36" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -5047,19 +5050,19 @@
         <v>483</v>
       </c>
       <c r="G37">
-        <v>433298672.1094878</v>
+        <v>430269180.2334659</v>
       </c>
       <c r="H37" t="s">
         <v>403</v>
       </c>
       <c r="I37">
-        <v>0.02214497520073756</v>
+        <v>0.02230089625097159</v>
       </c>
       <c r="J37" t="s">
         <v>852</v>
       </c>
       <c r="K37" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -5082,19 +5085,19 @@
         <v>484</v>
       </c>
       <c r="G38">
-        <v>433298672.1094878</v>
+        <v>430269180.2334659</v>
       </c>
       <c r="H38" t="s">
         <v>403</v>
       </c>
       <c r="I38">
-        <v>0.01940136216912318</v>
+        <v>0.01953796565311714</v>
       </c>
       <c r="J38" t="s">
         <v>852</v>
       </c>
       <c r="K38" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -5117,19 +5120,19 @@
         <v>485</v>
       </c>
       <c r="G39">
-        <v>433298672.1094878</v>
+        <v>430269180.2334659</v>
       </c>
       <c r="H39" t="s">
         <v>403</v>
       </c>
       <c r="I39">
-        <v>0.01470687398823772</v>
+        <v>0.01481042394560364</v>
       </c>
       <c r="J39" t="s">
         <v>867</v>
       </c>
       <c r="K39" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -5152,19 +5155,19 @@
         <v>486</v>
       </c>
       <c r="G40">
-        <v>433298672.1094878</v>
+        <v>430269180.2334659</v>
       </c>
       <c r="H40" t="s">
         <v>403</v>
       </c>
       <c r="I40">
-        <v>0.01459188884475133</v>
+        <v>0.01469462920065366</v>
       </c>
       <c r="J40" t="s">
         <v>868</v>
       </c>
       <c r="K40" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -5187,19 +5190,19 @@
         <v>487</v>
       </c>
       <c r="G41">
-        <v>433298672.1094878</v>
+        <v>430269180.2334659</v>
       </c>
       <c r="H41" t="s">
         <v>403</v>
       </c>
       <c r="I41">
-        <v>0.01384998110000643</v>
+        <v>0.01394749774110715</v>
       </c>
       <c r="J41" t="s">
         <v>869</v>
       </c>
       <c r="K41" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -5234,7 +5237,7 @@
         <v>852</v>
       </c>
       <c r="K42" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -5269,7 +5272,7 @@
         <v>870</v>
       </c>
       <c r="K43" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -5304,7 +5307,7 @@
         <v>871</v>
       </c>
       <c r="K44" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -5339,7 +5342,7 @@
         <v>872</v>
       </c>
       <c r="K45" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -5374,7 +5377,7 @@
         <v>873</v>
       </c>
       <c r="K46" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -5409,7 +5412,7 @@
         <v>856</v>
       </c>
       <c r="K47" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -5444,7 +5447,7 @@
         <v>874</v>
       </c>
       <c r="K48" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -5479,7 +5482,7 @@
         <v>875</v>
       </c>
       <c r="K49" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -5514,7 +5517,7 @@
         <v>876</v>
       </c>
       <c r="K50" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -5549,7 +5552,7 @@
         <v>852</v>
       </c>
       <c r="K51" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -5584,7 +5587,7 @@
         <v>877</v>
       </c>
       <c r="K52" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -5619,7 +5622,7 @@
         <v>878</v>
       </c>
       <c r="K53" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -5654,7 +5657,7 @@
         <v>879</v>
       </c>
       <c r="K54" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -5689,7 +5692,7 @@
         <v>880</v>
       </c>
       <c r="K55" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -5724,7 +5727,7 @@
         <v>881</v>
       </c>
       <c r="K56" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -5759,7 +5762,7 @@
         <v>882</v>
       </c>
       <c r="K57" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -5794,7 +5797,7 @@
         <v>883</v>
       </c>
       <c r="K58" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -5829,7 +5832,7 @@
         <v>884</v>
       </c>
       <c r="K59" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -5864,7 +5867,7 @@
         <v>885</v>
       </c>
       <c r="K60" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -5899,7 +5902,7 @@
         <v>854</v>
       </c>
       <c r="K61" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -5934,7 +5937,7 @@
         <v>886</v>
       </c>
       <c r="K62" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -5969,7 +5972,7 @@
         <v>887</v>
       </c>
       <c r="K63" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -6004,7 +6007,7 @@
         <v>888</v>
       </c>
       <c r="K64" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -6039,7 +6042,7 @@
         <v>889</v>
       </c>
       <c r="K65" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -6074,7 +6077,7 @@
         <v>890</v>
       </c>
       <c r="K66" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -6109,7 +6112,7 @@
         <v>854</v>
       </c>
       <c r="K67" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -6144,7 +6147,7 @@
         <v>891</v>
       </c>
       <c r="K68" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -6179,7 +6182,7 @@
         <v>852</v>
       </c>
       <c r="K69" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -6214,7 +6217,7 @@
         <v>892</v>
       </c>
       <c r="K70" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -6249,7 +6252,7 @@
         <v>893</v>
       </c>
       <c r="K71" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -6272,19 +6275,19 @@
         <v>518</v>
       </c>
       <c r="G72">
-        <v>4756680332.480858</v>
+        <v>4753903084.310494</v>
       </c>
       <c r="H72" t="s">
         <v>407</v>
       </c>
       <c r="I72">
-        <v>0.2735352743078697</v>
+        <v>0.2736950746501629</v>
       </c>
       <c r="J72" t="s">
         <v>894</v>
       </c>
       <c r="K72" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -6307,19 +6310,19 @@
         <v>519</v>
       </c>
       <c r="G73">
-        <v>4756680332.480858</v>
+        <v>4753903084.310494</v>
       </c>
       <c r="H73" t="s">
         <v>407</v>
       </c>
       <c r="I73">
-        <v>0.1308677158191394</v>
+        <v>0.1309441692339172</v>
       </c>
       <c r="J73" t="s">
         <v>895</v>
       </c>
       <c r="K73" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -6342,19 +6345,19 @@
         <v>479</v>
       </c>
       <c r="G74">
-        <v>4756680332.480858</v>
+        <v>4753903084.310494</v>
       </c>
       <c r="H74" t="s">
         <v>407</v>
       </c>
       <c r="I74">
-        <v>0.01874766913526344</v>
+        <v>0.01875862159451241</v>
       </c>
       <c r="J74" t="s">
         <v>852</v>
       </c>
       <c r="K74" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -6377,19 +6380,19 @@
         <v>520</v>
       </c>
       <c r="G75">
-        <v>4756680332.480858</v>
+        <v>4753903084.310494</v>
       </c>
       <c r="H75" t="s">
         <v>407</v>
       </c>
       <c r="I75">
-        <v>0.01620262615769925</v>
+        <v>0.01621209179321043</v>
       </c>
       <c r="J75" t="s">
         <v>852</v>
       </c>
       <c r="K75" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -6412,19 +6415,19 @@
         <v>521</v>
       </c>
       <c r="G76">
-        <v>4756680332.480858</v>
+        <v>4753903084.310494</v>
       </c>
       <c r="H76" t="s">
         <v>407</v>
       </c>
       <c r="I76">
-        <v>0.01027139621120758</v>
+        <v>0.01027739679974057</v>
       </c>
       <c r="J76" t="s">
         <v>896</v>
       </c>
       <c r="K76" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -6447,19 +6450,19 @@
         <v>522</v>
       </c>
       <c r="G77">
-        <v>4756680332.480858</v>
+        <v>4753903084.310494</v>
       </c>
       <c r="H77" t="s">
         <v>407</v>
       </c>
       <c r="I77">
-        <v>0.009231818724106614</v>
+        <v>0.009237211987537935</v>
       </c>
       <c r="J77" t="s">
         <v>897</v>
       </c>
       <c r="K77" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -6482,19 +6485,19 @@
         <v>523</v>
       </c>
       <c r="G78">
-        <v>4756680332.480858</v>
+        <v>4753903084.310494</v>
       </c>
       <c r="H78" t="s">
         <v>407</v>
       </c>
       <c r="I78">
-        <v>0.007943347905720157</v>
+        <v>0.007947988439623873</v>
       </c>
       <c r="J78" t="s">
         <v>898</v>
       </c>
       <c r="K78" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -6517,19 +6520,19 @@
         <v>524</v>
       </c>
       <c r="G79">
-        <v>4756680332.480858</v>
+        <v>4753903084.310494</v>
       </c>
       <c r="H79" t="s">
         <v>407</v>
       </c>
       <c r="I79">
-        <v>0.007910233430645029</v>
+        <v>0.007914854618947103</v>
       </c>
       <c r="J79" t="s">
         <v>899</v>
       </c>
       <c r="K79" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -6552,19 +6555,19 @@
         <v>525</v>
       </c>
       <c r="G80">
-        <v>4756680332.480858</v>
+        <v>4753903084.310494</v>
       </c>
       <c r="H80" t="s">
         <v>407</v>
       </c>
       <c r="I80">
-        <v>0.007714388360007716</v>
+        <v>0.007718895134878456</v>
       </c>
       <c r="J80" t="s">
         <v>900</v>
       </c>
       <c r="K80" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -6587,19 +6590,19 @@
         <v>526</v>
       </c>
       <c r="G81">
-        <v>4756680332.480858</v>
+        <v>4753903084.310494</v>
       </c>
       <c r="H81" t="s">
         <v>407</v>
       </c>
       <c r="I81">
-        <v>0.006492650129684324</v>
+        <v>0.006496443160457918</v>
       </c>
       <c r="J81" t="s">
         <v>852</v>
       </c>
       <c r="K81" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -6634,7 +6637,7 @@
         <v>852</v>
       </c>
       <c r="K82" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -6669,7 +6672,7 @@
         <v>852</v>
       </c>
       <c r="K83" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -6704,7 +6707,7 @@
         <v>852</v>
       </c>
       <c r="K84" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -6739,7 +6742,7 @@
         <v>852</v>
       </c>
       <c r="K85" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -6774,7 +6777,7 @@
         <v>852</v>
       </c>
       <c r="K86" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -6809,7 +6812,7 @@
         <v>852</v>
       </c>
       <c r="K87" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -6844,7 +6847,7 @@
         <v>901</v>
       </c>
       <c r="K88" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -6879,7 +6882,7 @@
         <v>902</v>
       </c>
       <c r="K89" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -6914,7 +6917,7 @@
         <v>856</v>
       </c>
       <c r="K90" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -6949,7 +6952,7 @@
         <v>852</v>
       </c>
       <c r="K91" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -6972,19 +6975,19 @@
         <v>533</v>
       </c>
       <c r="G92">
-        <v>205713757.5011951</v>
+        <v>205085499.2161951</v>
       </c>
       <c r="H92" t="s">
         <v>409</v>
       </c>
       <c r="I92">
-        <v>0.03233096564697412</v>
+        <v>0.03243000822729984</v>
       </c>
       <c r="J92" t="s">
         <v>843</v>
       </c>
       <c r="K92" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -7007,19 +7010,19 @@
         <v>534</v>
       </c>
       <c r="G93">
-        <v>205713757.5011951</v>
+        <v>205085499.2161951</v>
       </c>
       <c r="H93" t="s">
         <v>409</v>
       </c>
       <c r="I93">
-        <v>0.03231988997333731</v>
+        <v>0.03241889862447862</v>
       </c>
       <c r="J93" t="s">
         <v>903</v>
       </c>
       <c r="K93" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -7042,19 +7045,19 @@
         <v>535</v>
       </c>
       <c r="G94">
-        <v>205713757.5011951</v>
+        <v>205085499.2161951</v>
       </c>
       <c r="H94" t="s">
         <v>409</v>
       </c>
       <c r="I94">
-        <v>0.0296457669691634</v>
+        <v>0.02973658372015134</v>
       </c>
       <c r="J94" t="s">
         <v>878</v>
       </c>
       <c r="K94" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -7077,19 +7080,19 @@
         <v>480</v>
       </c>
       <c r="G95">
-        <v>205713757.5011951</v>
+        <v>205085499.2161951</v>
       </c>
       <c r="H95" t="s">
         <v>409</v>
       </c>
       <c r="I95">
-        <v>0.02731595095173688</v>
+        <v>0.02739963055153146</v>
       </c>
       <c r="J95" t="s">
         <v>855</v>
       </c>
       <c r="K95" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -7112,19 +7115,19 @@
         <v>536</v>
       </c>
       <c r="G96">
-        <v>205713757.5011951</v>
+        <v>205085499.2161951</v>
       </c>
       <c r="H96" t="s">
         <v>409</v>
       </c>
       <c r="I96">
-        <v>0.02670371736231687</v>
+        <v>0.02678552144762418</v>
       </c>
       <c r="J96" t="s">
         <v>904</v>
       </c>
       <c r="K96" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -7147,19 +7150,19 @@
         <v>537</v>
       </c>
       <c r="G97">
-        <v>205713757.5011951</v>
+        <v>205085499.2161951</v>
       </c>
       <c r="H97" t="s">
         <v>409</v>
       </c>
       <c r="I97">
-        <v>0.0243472912905805</v>
+        <v>0.02442187670753624</v>
       </c>
       <c r="J97" t="s">
         <v>878</v>
       </c>
       <c r="K97" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -7182,19 +7185,19 @@
         <v>538</v>
       </c>
       <c r="G98">
-        <v>205713757.5011951</v>
+        <v>205085499.2161951</v>
       </c>
       <c r="H98" t="s">
         <v>409</v>
       </c>
       <c r="I98">
-        <v>0.0218145144802325</v>
+        <v>0.02188134099652856</v>
       </c>
       <c r="J98" t="s">
         <v>852</v>
       </c>
       <c r="K98" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -7217,19 +7220,19 @@
         <v>539</v>
       </c>
       <c r="G99">
-        <v>205713757.5011951</v>
+        <v>205085499.2161951</v>
       </c>
       <c r="H99" t="s">
         <v>409</v>
       </c>
       <c r="I99">
-        <v>0.02062069215488824</v>
+        <v>0.02068386151955934</v>
       </c>
       <c r="J99" t="s">
         <v>905</v>
       </c>
       <c r="K99" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -7252,19 +7255,19 @@
         <v>460</v>
       </c>
       <c r="G100">
-        <v>205713757.5011951</v>
+        <v>205085499.2161951</v>
       </c>
       <c r="H100" t="s">
         <v>409</v>
       </c>
       <c r="I100">
-        <v>0.0188455964380316</v>
+        <v>0.01890332797996514</v>
       </c>
       <c r="J100" t="s">
         <v>848</v>
       </c>
       <c r="K100" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -7287,19 +7290,19 @@
         <v>540</v>
       </c>
       <c r="G101">
-        <v>205713757.5011951</v>
+        <v>205085499.2161951</v>
       </c>
       <c r="H101" t="s">
         <v>409</v>
       </c>
       <c r="I101">
-        <v>0.01771749655341866</v>
+        <v>0.01777177227764922</v>
       </c>
       <c r="J101" t="s">
         <v>906</v>
       </c>
       <c r="K101" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -7334,7 +7337,7 @@
         <v>846</v>
       </c>
       <c r="K102" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -7369,7 +7372,7 @@
         <v>907</v>
       </c>
       <c r="K103" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -7404,7 +7407,7 @@
         <v>908</v>
       </c>
       <c r="K104" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -7439,7 +7442,7 @@
         <v>855</v>
       </c>
       <c r="K105" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -7474,7 +7477,7 @@
         <v>846</v>
       </c>
       <c r="K106" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -7509,7 +7512,7 @@
         <v>852</v>
       </c>
       <c r="K107" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="108" spans="1:11">
@@ -7544,7 +7547,7 @@
         <v>909</v>
       </c>
       <c r="K108" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="109" spans="1:11">
@@ -7579,7 +7582,7 @@
         <v>908</v>
       </c>
       <c r="K109" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="110" spans="1:11">
@@ -7614,7 +7617,7 @@
         <v>910</v>
       </c>
       <c r="K110" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="111" spans="1:11">
@@ -7649,7 +7652,7 @@
         <v>852</v>
       </c>
       <c r="K111" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="112" spans="1:11">
@@ -7672,19 +7675,19 @@
         <v>521</v>
       </c>
       <c r="G112">
-        <v>3331667262.004273</v>
+        <v>3331596017.915966</v>
       </c>
       <c r="H112" t="s">
         <v>411</v>
       </c>
       <c r="I112">
-        <v>0.04830022515833028</v>
+        <v>0.04830125802830851</v>
       </c>
       <c r="J112" t="s">
         <v>896</v>
       </c>
       <c r="K112" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="113" spans="1:11">
@@ -7707,19 +7710,19 @@
         <v>524</v>
       </c>
       <c r="G113">
-        <v>3331667262.004273</v>
+        <v>3331596017.915966</v>
       </c>
       <c r="H113" t="s">
         <v>411</v>
       </c>
       <c r="I113">
-        <v>0.04385935757716002</v>
+        <v>0.04386029548197428</v>
       </c>
       <c r="J113" t="s">
         <v>899</v>
       </c>
       <c r="K113" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="114" spans="1:11">
@@ -7742,19 +7745,19 @@
         <v>519</v>
       </c>
       <c r="G114">
-        <v>3331667262.004273</v>
+        <v>3331596017.915966</v>
       </c>
       <c r="H114" t="s">
         <v>411</v>
       </c>
       <c r="I114">
-        <v>0.04253430208278087</v>
+        <v>0.04253521165211563</v>
       </c>
       <c r="J114" t="s">
         <v>895</v>
       </c>
       <c r="K114" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="115" spans="1:11">
@@ -7777,19 +7780,19 @@
         <v>549</v>
       </c>
       <c r="G115">
-        <v>3331667262.004273</v>
+        <v>3331596017.915966</v>
       </c>
       <c r="H115" t="s">
         <v>411</v>
       </c>
       <c r="I115">
-        <v>0.02822215318934643</v>
+        <v>0.02822275670236639</v>
       </c>
       <c r="J115" t="s">
         <v>911</v>
       </c>
       <c r="K115" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="116" spans="1:11">
@@ -7812,19 +7815,19 @@
         <v>550</v>
       </c>
       <c r="G116">
-        <v>3331667262.004273</v>
+        <v>3331596017.915966</v>
       </c>
       <c r="H116" t="s">
         <v>411</v>
       </c>
       <c r="I116">
-        <v>0.02155383144601374</v>
+        <v>0.02155429236116151</v>
       </c>
       <c r="J116" t="s">
         <v>912</v>
       </c>
       <c r="K116" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="117" spans="1:11">
@@ -7847,19 +7850,19 @@
         <v>551</v>
       </c>
       <c r="G117">
-        <v>3331667262.004273</v>
+        <v>3331596017.915966</v>
       </c>
       <c r="H117" t="s">
         <v>411</v>
       </c>
       <c r="I117">
-        <v>0.0210980513500679</v>
+        <v>0.02109850251864459</v>
       </c>
       <c r="J117" t="s">
         <v>896</v>
       </c>
       <c r="K117" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="118" spans="1:11">
@@ -7882,19 +7885,19 @@
         <v>552</v>
       </c>
       <c r="G118">
-        <v>3331667262.004273</v>
+        <v>3331596017.915966</v>
       </c>
       <c r="H118" t="s">
         <v>411</v>
       </c>
       <c r="I118">
-        <v>0.01931039577479058</v>
+        <v>0.0193108087154756</v>
       </c>
       <c r="J118" t="s">
         <v>855</v>
       </c>
       <c r="K118" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="119" spans="1:11">
@@ -7917,19 +7920,19 @@
         <v>553</v>
       </c>
       <c r="G119">
-        <v>3331667262.004273</v>
+        <v>3331596017.915966</v>
       </c>
       <c r="H119" t="s">
         <v>411</v>
       </c>
       <c r="I119">
-        <v>0.01901166327259037</v>
+        <v>0.01901206982506846</v>
       </c>
       <c r="J119" t="s">
         <v>913</v>
       </c>
       <c r="K119" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="120" spans="1:11">
@@ -7952,19 +7955,19 @@
         <v>554</v>
       </c>
       <c r="G120">
-        <v>3331667262.004273</v>
+        <v>3331596017.915966</v>
       </c>
       <c r="H120" t="s">
         <v>411</v>
       </c>
       <c r="I120">
-        <v>0.01712034504375334</v>
+        <v>0.01712071115157901</v>
       </c>
       <c r="J120" t="s">
         <v>855</v>
       </c>
       <c r="K120" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="121" spans="1:11">
@@ -7987,19 +7990,19 @@
         <v>555</v>
       </c>
       <c r="G121">
-        <v>3331667262.004273</v>
+        <v>3331596017.915966</v>
       </c>
       <c r="H121" t="s">
         <v>411</v>
       </c>
       <c r="I121">
-        <v>0.01406379646448494</v>
+        <v>0.01406409720993903</v>
       </c>
       <c r="J121" t="s">
         <v>914</v>
       </c>
       <c r="K121" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="122" spans="1:11">
@@ -8034,7 +8037,7 @@
         <v>915</v>
       </c>
       <c r="K122" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="123" spans="1:11">
@@ -8069,7 +8072,7 @@
         <v>852</v>
       </c>
       <c r="K123" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="124" spans="1:11">
@@ -8104,7 +8107,7 @@
         <v>916</v>
       </c>
       <c r="K124" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="125" spans="1:11">
@@ -8139,7 +8142,7 @@
         <v>917</v>
       </c>
       <c r="K125" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="126" spans="1:11">
@@ -8174,7 +8177,7 @@
         <v>918</v>
       </c>
       <c r="K126" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="127" spans="1:11">
@@ -8209,7 +8212,7 @@
         <v>919</v>
       </c>
       <c r="K127" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="128" spans="1:11">
@@ -8244,7 +8247,7 @@
         <v>920</v>
       </c>
       <c r="K128" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="129" spans="1:11">
@@ -8279,7 +8282,7 @@
         <v>921</v>
       </c>
       <c r="K129" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="130" spans="1:11">
@@ -8314,7 +8317,7 @@
         <v>878</v>
       </c>
       <c r="K130" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="131" spans="1:11">
@@ -8349,7 +8352,7 @@
         <v>910</v>
       </c>
       <c r="K131" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="132" spans="1:11">
@@ -8384,7 +8387,7 @@
         <v>922</v>
       </c>
       <c r="K132" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="133" spans="1:11">
@@ -8419,7 +8422,7 @@
         <v>923</v>
       </c>
       <c r="K133" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="134" spans="1:11">
@@ -8454,7 +8457,7 @@
         <v>882</v>
       </c>
       <c r="K134" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="135" spans="1:11">
@@ -8489,7 +8492,7 @@
         <v>924</v>
       </c>
       <c r="K135" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="136" spans="1:11">
@@ -8524,7 +8527,7 @@
         <v>852</v>
       </c>
       <c r="K136" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="137" spans="1:11">
@@ -8559,7 +8562,7 @@
         <v>925</v>
       </c>
       <c r="K137" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="138" spans="1:11">
@@ -8594,7 +8597,7 @@
         <v>850</v>
       </c>
       <c r="K138" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="139" spans="1:11">
@@ -8629,7 +8632,7 @@
         <v>854</v>
       </c>
       <c r="K139" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="140" spans="1:11">
@@ -8664,7 +8667,7 @@
         <v>852</v>
       </c>
       <c r="K140" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="141" spans="1:11">
@@ -8699,7 +8702,7 @@
         <v>926</v>
       </c>
       <c r="K141" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="142" spans="1:11">
@@ -8722,19 +8725,19 @@
         <v>574</v>
       </c>
       <c r="G142">
-        <v>716543301.6410067</v>
+        <v>716530078.6346823</v>
       </c>
       <c r="H142" t="s">
         <v>414</v>
       </c>
       <c r="I142">
-        <v>0.130288342792677</v>
+        <v>0.1302907471628941</v>
       </c>
       <c r="J142" t="s">
         <v>927</v>
       </c>
       <c r="K142" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="143" spans="1:11">
@@ -8757,19 +8760,19 @@
         <v>575</v>
       </c>
       <c r="G143">
-        <v>716543301.6410067</v>
+        <v>716530078.6346823</v>
       </c>
       <c r="H143" t="s">
         <v>414</v>
       </c>
       <c r="I143">
-        <v>0.05509618342761378</v>
+        <v>0.05509720018490512</v>
       </c>
       <c r="J143" t="s">
         <v>928</v>
       </c>
       <c r="K143" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="144" spans="1:11">
@@ -8792,19 +8795,19 @@
         <v>576</v>
       </c>
       <c r="G144">
-        <v>716543301.6410067</v>
+        <v>716530078.6346823</v>
       </c>
       <c r="H144" t="s">
         <v>414</v>
       </c>
       <c r="I144">
-        <v>0.05508592593722891</v>
+        <v>0.05508694250522622</v>
       </c>
       <c r="J144" t="s">
         <v>929</v>
       </c>
       <c r="K144" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="145" spans="1:11">
@@ -8827,19 +8830,19 @@
         <v>541</v>
       </c>
       <c r="G145">
-        <v>716543301.6410067</v>
+        <v>716530078.6346823</v>
       </c>
       <c r="H145" t="s">
         <v>414</v>
       </c>
       <c r="I145">
-        <v>0.05181603274537918</v>
+        <v>0.05181698897003622</v>
       </c>
       <c r="J145" t="s">
         <v>846</v>
       </c>
       <c r="K145" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="146" spans="1:11">
@@ -8862,19 +8865,19 @@
         <v>519</v>
       </c>
       <c r="G146">
-        <v>716543301.6410067</v>
+        <v>716530078.6346823</v>
       </c>
       <c r="H146" t="s">
         <v>414</v>
       </c>
       <c r="I146">
-        <v>0.0411742376293231</v>
+        <v>0.041174997467913</v>
       </c>
       <c r="J146" t="s">
         <v>895</v>
       </c>
       <c r="K146" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="147" spans="1:11">
@@ -8897,19 +8900,19 @@
         <v>577</v>
       </c>
       <c r="G147">
-        <v>716543301.6410067</v>
+        <v>716530078.6346823</v>
       </c>
       <c r="H147" t="s">
         <v>414</v>
       </c>
       <c r="I147">
-        <v>0.03696693747084286</v>
+        <v>0.03696761966697467</v>
       </c>
       <c r="J147" t="s">
         <v>930</v>
       </c>
       <c r="K147" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="148" spans="1:11">
@@ -8932,19 +8935,19 @@
         <v>578</v>
       </c>
       <c r="G148">
-        <v>716543301.6410067</v>
+        <v>716530078.6346823</v>
       </c>
       <c r="H148" t="s">
         <v>414</v>
       </c>
       <c r="I148">
-        <v>0.02991020969736653</v>
+        <v>0.02991076166706576</v>
       </c>
       <c r="J148" t="s">
         <v>931</v>
       </c>
       <c r="K148" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="149" spans="1:11">
@@ -8967,19 +8970,19 @@
         <v>579</v>
       </c>
       <c r="G149">
-        <v>716543301.6410067</v>
+        <v>716530078.6346823</v>
       </c>
       <c r="H149" t="s">
         <v>414</v>
       </c>
       <c r="I149">
-        <v>0.02620805257311504</v>
+        <v>0.0262085362223787</v>
       </c>
       <c r="J149" t="s">
         <v>932</v>
       </c>
       <c r="K149" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="150" spans="1:11">
@@ -9002,19 +9005,19 @@
         <v>580</v>
       </c>
       <c r="G150">
-        <v>716543301.6410067</v>
+        <v>716530078.6346823</v>
       </c>
       <c r="H150" t="s">
         <v>414</v>
       </c>
       <c r="I150">
-        <v>0.02138715384179627</v>
+        <v>0.02138754852511655</v>
       </c>
       <c r="J150" t="s">
         <v>933</v>
       </c>
       <c r="K150" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="151" spans="1:11">
@@ -9037,19 +9040,19 @@
         <v>581</v>
       </c>
       <c r="G151">
-        <v>716543301.6410067</v>
+        <v>716530078.6346823</v>
       </c>
       <c r="H151" t="s">
         <v>414</v>
       </c>
       <c r="I151">
-        <v>0.01467173620363686</v>
+        <v>0.01467200695913812</v>
       </c>
       <c r="J151" t="s">
         <v>843</v>
       </c>
       <c r="K151" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="152" spans="1:11">
@@ -9072,19 +9075,19 @@
         <v>582</v>
       </c>
       <c r="G152">
-        <v>13733165.7410129</v>
+        <v>13361725.3510129</v>
       </c>
       <c r="H152" t="s">
         <v>415</v>
       </c>
       <c r="I152">
-        <v>0.2311990942130594</v>
+        <v>0.2376261595407893</v>
       </c>
       <c r="J152" t="s">
         <v>934</v>
       </c>
       <c r="K152" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="153" spans="1:11">
@@ -9107,19 +9110,19 @@
         <v>583</v>
       </c>
       <c r="G153">
-        <v>13733165.7410129</v>
+        <v>13361725.3510129</v>
       </c>
       <c r="H153" t="s">
         <v>415</v>
       </c>
       <c r="I153">
-        <v>0.1136895628696586</v>
+        <v>0.1168500001980635</v>
       </c>
       <c r="J153" t="s">
         <v>935</v>
       </c>
       <c r="K153" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="154" spans="1:11">
@@ -9142,19 +9145,19 @@
         <v>584</v>
       </c>
       <c r="G154">
-        <v>13733165.7410129</v>
+        <v>13361725.3510129</v>
       </c>
       <c r="H154" t="s">
         <v>415</v>
       </c>
       <c r="I154">
-        <v>0.08648406510183139</v>
+        <v>0.08888822130369303</v>
       </c>
       <c r="J154" t="s">
         <v>852</v>
       </c>
       <c r="K154" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="155" spans="1:11">
@@ -9177,19 +9180,19 @@
         <v>585</v>
       </c>
       <c r="G155">
-        <v>13733165.7410129</v>
+        <v>13361725.3510129</v>
       </c>
       <c r="H155" t="s">
         <v>415</v>
       </c>
       <c r="I155">
-        <v>0.05017786670571231</v>
+        <v>0.05157275291156632</v>
       </c>
       <c r="J155" t="s">
         <v>936</v>
       </c>
       <c r="K155" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="156" spans="1:11">
@@ -9212,19 +9215,19 @@
         <v>586</v>
       </c>
       <c r="G156">
-        <v>13733165.7410129</v>
+        <v>13361725.3510129</v>
       </c>
       <c r="H156" t="s">
         <v>415</v>
       </c>
       <c r="I156">
-        <v>0.04813918551713641</v>
+        <v>0.04947739876228532</v>
       </c>
       <c r="J156" t="s">
         <v>937</v>
       </c>
       <c r="K156" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="157" spans="1:11">
@@ -9247,19 +9250,19 @@
         <v>587</v>
       </c>
       <c r="G157">
-        <v>13733165.7410129</v>
+        <v>13361725.3510129</v>
       </c>
       <c r="H157" t="s">
         <v>415</v>
       </c>
       <c r="I157">
-        <v>0.04531507605282134</v>
+        <v>0.04657478234671426</v>
       </c>
       <c r="J157" t="s">
         <v>938</v>
       </c>
       <c r="K157" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="158" spans="1:11">
@@ -9282,19 +9285,19 @@
         <v>588</v>
       </c>
       <c r="G158">
-        <v>13733165.7410129</v>
+        <v>13361725.3510129</v>
       </c>
       <c r="H158" t="s">
         <v>415</v>
       </c>
       <c r="I158">
-        <v>0.02703662556777784</v>
+        <v>0.02778821224400136</v>
       </c>
       <c r="J158" t="s">
         <v>939</v>
       </c>
       <c r="K158" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="159" spans="1:11">
@@ -9317,19 +9320,19 @@
         <v>589</v>
       </c>
       <c r="G159">
-        <v>13733165.7410129</v>
+        <v>13361725.3510129</v>
       </c>
       <c r="H159" t="s">
         <v>415</v>
       </c>
       <c r="I159">
-        <v>0.02285863391165732</v>
+        <v>0.02349407728981129</v>
       </c>
       <c r="J159" t="s">
         <v>940</v>
       </c>
       <c r="K159" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="160" spans="1:11">
@@ -9352,19 +9355,19 @@
         <v>590</v>
       </c>
       <c r="G160">
-        <v>13733165.7410129</v>
+        <v>13361725.3510129</v>
       </c>
       <c r="H160" t="s">
         <v>415</v>
       </c>
       <c r="I160">
-        <v>0.01870228356983745</v>
+        <v>0.01922218525323377</v>
       </c>
       <c r="J160" t="s">
         <v>941</v>
       </c>
       <c r="K160" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="161" spans="1:11">
@@ -9387,19 +9390,19 @@
         <v>591</v>
       </c>
       <c r="G161">
-        <v>13733165.7410129</v>
+        <v>13361725.3510129</v>
       </c>
       <c r="H161" t="s">
         <v>415</v>
       </c>
       <c r="I161">
-        <v>0.01545682503241556</v>
+        <v>0.01588650675145845</v>
       </c>
       <c r="J161" t="s">
         <v>942</v>
       </c>
       <c r="K161" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="162" spans="1:11">
@@ -9434,7 +9437,7 @@
         <v>943</v>
       </c>
       <c r="K162" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="163" spans="1:11">
@@ -9469,7 +9472,7 @@
         <v>944</v>
       </c>
       <c r="K163" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="164" spans="1:11">
@@ -9504,7 +9507,7 @@
         <v>944</v>
       </c>
       <c r="K164" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="165" spans="1:11">
@@ -9539,7 +9542,7 @@
         <v>945</v>
       </c>
       <c r="K165" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="166" spans="1:11">
@@ -9574,7 +9577,7 @@
         <v>859</v>
       </c>
       <c r="K166" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="167" spans="1:11">
@@ -9609,7 +9612,7 @@
         <v>944</v>
       </c>
       <c r="K167" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="168" spans="1:11">
@@ -9644,7 +9647,7 @@
         <v>946</v>
       </c>
       <c r="K168" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="169" spans="1:11">
@@ -9679,7 +9682,7 @@
         <v>947</v>
       </c>
       <c r="K169" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="170" spans="1:11">
@@ -9714,7 +9717,7 @@
         <v>851</v>
       </c>
       <c r="K170" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="171" spans="1:11">
@@ -9749,7 +9752,7 @@
         <v>948</v>
       </c>
       <c r="K171" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="172" spans="1:11">
@@ -9784,7 +9787,7 @@
         <v>943</v>
       </c>
       <c r="K172" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="173" spans="1:11">
@@ -9819,7 +9822,7 @@
         <v>949</v>
       </c>
       <c r="K173" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -9854,7 +9857,7 @@
         <v>950</v>
       </c>
       <c r="K174" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -9889,7 +9892,7 @@
         <v>951</v>
       </c>
       <c r="K175" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -9924,7 +9927,7 @@
         <v>952</v>
       </c>
       <c r="K176" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -9959,7 +9962,7 @@
         <v>952</v>
       </c>
       <c r="K177" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="178" spans="1:11">
@@ -9994,7 +9997,7 @@
         <v>938</v>
       </c>
       <c r="K178" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="179" spans="1:11">
@@ -10029,7 +10032,7 @@
         <v>885</v>
       </c>
       <c r="K179" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="180" spans="1:11">
@@ -10064,7 +10067,7 @@
         <v>843</v>
       </c>
       <c r="K180" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="181" spans="1:11">
@@ -10099,7 +10102,7 @@
         <v>878</v>
       </c>
       <c r="K181" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="182" spans="1:11">
@@ -10134,7 +10137,7 @@
         <v>953</v>
       </c>
       <c r="K182" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="183" spans="1:11">
@@ -10169,7 +10172,7 @@
         <v>954</v>
       </c>
       <c r="K183" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="184" spans="1:11">
@@ -10204,7 +10207,7 @@
         <v>852</v>
       </c>
       <c r="K184" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="185" spans="1:11">
@@ -10239,7 +10242,7 @@
         <v>852</v>
       </c>
       <c r="K185" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="186" spans="1:11">
@@ -10274,7 +10277,7 @@
         <v>955</v>
       </c>
       <c r="K186" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="187" spans="1:11">
@@ -10309,7 +10312,7 @@
         <v>956</v>
       </c>
       <c r="K187" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="188" spans="1:11">
@@ -10344,7 +10347,7 @@
         <v>852</v>
       </c>
       <c r="K188" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="189" spans="1:11">
@@ -10379,7 +10382,7 @@
         <v>957</v>
       </c>
       <c r="K189" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="190" spans="1:11">
@@ -10414,7 +10417,7 @@
         <v>958</v>
       </c>
       <c r="K190" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="191" spans="1:11">
@@ -10449,7 +10452,7 @@
         <v>855</v>
       </c>
       <c r="K191" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="192" spans="1:11">
@@ -10484,7 +10487,7 @@
         <v>868</v>
       </c>
       <c r="K192" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="193" spans="1:11">
@@ -10519,7 +10522,7 @@
         <v>959</v>
       </c>
       <c r="K193" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="194" spans="1:11">
@@ -10554,7 +10557,7 @@
         <v>960</v>
       </c>
       <c r="K194" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="195" spans="1:11">
@@ -10589,7 +10592,7 @@
         <v>961</v>
       </c>
       <c r="K195" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="196" spans="1:11">
@@ -10624,7 +10627,7 @@
         <v>854</v>
       </c>
       <c r="K196" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -10659,7 +10662,7 @@
         <v>962</v>
       </c>
       <c r="K197" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="198" spans="1:11">
@@ -10694,7 +10697,7 @@
         <v>963</v>
       </c>
       <c r="K198" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="199" spans="1:11">
@@ -10729,7 +10732,7 @@
         <v>964</v>
       </c>
       <c r="K199" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="200" spans="1:11">
@@ -10764,7 +10767,7 @@
         <v>965</v>
       </c>
       <c r="K200" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="201" spans="1:11">
@@ -10799,7 +10802,7 @@
         <v>966</v>
       </c>
       <c r="K201" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="202" spans="1:11">
@@ -10822,19 +10825,19 @@
         <v>628</v>
       </c>
       <c r="G202">
-        <v>421863688.4588152</v>
+        <v>420767274.4088152</v>
       </c>
       <c r="H202" t="s">
         <v>420</v>
       </c>
       <c r="I202">
-        <v>0.02993215343057705</v>
+        <v>0.0300101491197954</v>
       </c>
       <c r="J202" t="s">
         <v>967</v>
       </c>
       <c r="K202" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="203" spans="1:11">
@@ -10857,19 +10860,19 @@
         <v>629</v>
       </c>
       <c r="G203">
-        <v>421863688.4588152</v>
+        <v>420767274.4088152</v>
       </c>
       <c r="H203" t="s">
         <v>420</v>
       </c>
       <c r="I203">
-        <v>0.02025488395136915</v>
+        <v>0.02030766310197349</v>
       </c>
       <c r="J203" t="s">
         <v>852</v>
       </c>
       <c r="K203" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="204" spans="1:11">
@@ -10892,19 +10895,19 @@
         <v>630</v>
       </c>
       <c r="G204">
-        <v>421863688.4588152</v>
+        <v>420767274.4088152</v>
       </c>
       <c r="H204" t="s">
         <v>420</v>
       </c>
       <c r="I204">
-        <v>0.01937738628064383</v>
+        <v>0.01942787889226679</v>
       </c>
       <c r="J204" t="s">
         <v>846</v>
       </c>
       <c r="K204" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="205" spans="1:11">
@@ -10927,19 +10930,19 @@
         <v>631</v>
       </c>
       <c r="G205">
-        <v>421863688.4588152</v>
+        <v>420767274.4088152</v>
       </c>
       <c r="H205" t="s">
         <v>420</v>
       </c>
       <c r="I205">
-        <v>0.01891404834853183</v>
+        <v>0.01896333361764133</v>
       </c>
       <c r="J205" t="s">
         <v>968</v>
       </c>
       <c r="K205" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="206" spans="1:11">
@@ -10962,19 +10965,19 @@
         <v>492</v>
       </c>
       <c r="G206">
-        <v>421863688.4588152</v>
+        <v>420767274.4088152</v>
       </c>
       <c r="H206" t="s">
         <v>420</v>
       </c>
       <c r="I206">
-        <v>0.01568119978319923</v>
+        <v>0.01572206105927473</v>
       </c>
       <c r="J206" t="s">
         <v>873</v>
       </c>
       <c r="K206" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="207" spans="1:11">
@@ -10997,19 +11000,19 @@
         <v>486</v>
       </c>
       <c r="G207">
-        <v>421863688.4588152</v>
+        <v>420767274.4088152</v>
       </c>
       <c r="H207" t="s">
         <v>420</v>
       </c>
       <c r="I207">
-        <v>0.01560101299545151</v>
+        <v>0.01564166532485731</v>
       </c>
       <c r="J207" t="s">
         <v>868</v>
       </c>
       <c r="K207" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="208" spans="1:11">
@@ -11032,19 +11035,19 @@
         <v>632</v>
       </c>
       <c r="G208">
-        <v>421863688.4588152</v>
+        <v>420767274.4088152</v>
       </c>
       <c r="H208" t="s">
         <v>420</v>
       </c>
       <c r="I208">
-        <v>0.01470604173747385</v>
+        <v>0.01474436199610971</v>
       </c>
       <c r="J208" t="s">
         <v>969</v>
       </c>
       <c r="K208" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="209" spans="1:11">
@@ -11067,19 +11070,19 @@
         <v>633</v>
       </c>
       <c r="G209">
-        <v>421863688.4588152</v>
+        <v>420767274.4088152</v>
       </c>
       <c r="H209" t="s">
         <v>420</v>
       </c>
       <c r="I209">
-        <v>0.01247736197502894</v>
+        <v>0.01250987485283195</v>
       </c>
       <c r="J209" t="s">
         <v>970</v>
       </c>
       <c r="K209" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="210" spans="1:11">
@@ -11102,19 +11105,19 @@
         <v>634</v>
       </c>
       <c r="G210">
-        <v>421863688.4588152</v>
+        <v>420767274.4088152</v>
       </c>
       <c r="H210" t="s">
         <v>420</v>
       </c>
       <c r="I210">
-        <v>0.01177780777518866</v>
+        <v>0.01180849779009312</v>
       </c>
       <c r="J210" t="s">
         <v>971</v>
       </c>
       <c r="K210" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="211" spans="1:11">
@@ -11137,19 +11140,19 @@
         <v>635</v>
       </c>
       <c r="G211">
-        <v>421863688.4588152</v>
+        <v>420767274.4088152</v>
       </c>
       <c r="H211" t="s">
         <v>420</v>
       </c>
       <c r="I211">
-        <v>0.01129274000112807</v>
+        <v>0.01132216605099763</v>
       </c>
       <c r="J211" t="s">
         <v>972</v>
       </c>
       <c r="K211" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="212" spans="1:11">
@@ -11184,7 +11187,7 @@
         <v>950</v>
       </c>
       <c r="K212" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="213" spans="1:11">
@@ -11219,7 +11222,7 @@
         <v>950</v>
       </c>
       <c r="K213" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="214" spans="1:11">
@@ -11254,7 +11257,7 @@
         <v>900</v>
       </c>
       <c r="K214" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="215" spans="1:11">
@@ -11289,7 +11292,7 @@
         <v>914</v>
       </c>
       <c r="K215" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="216" spans="1:11">
@@ -11324,7 +11327,7 @@
         <v>973</v>
       </c>
       <c r="K216" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="217" spans="1:11">
@@ -11359,7 +11362,7 @@
         <v>855</v>
       </c>
       <c r="K217" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="218" spans="1:11">
@@ -11394,7 +11397,7 @@
         <v>895</v>
       </c>
       <c r="K218" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="219" spans="1:11">
@@ -11429,7 +11432,7 @@
         <v>974</v>
       </c>
       <c r="K219" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="220" spans="1:11">
@@ -11464,7 +11467,7 @@
         <v>975</v>
       </c>
       <c r="K220" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="221" spans="1:11">
@@ -11499,7 +11502,7 @@
         <v>943</v>
       </c>
       <c r="K221" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="222" spans="1:11">
@@ -11534,7 +11537,7 @@
         <v>900</v>
       </c>
       <c r="K222" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="223" spans="1:11">
@@ -11569,7 +11572,7 @@
         <v>976</v>
       </c>
       <c r="K223" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="224" spans="1:11">
@@ -11604,7 +11607,7 @@
         <v>852</v>
       </c>
       <c r="K224" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="225" spans="1:11">
@@ -11639,7 +11642,7 @@
         <v>977</v>
       </c>
       <c r="K225" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="226" spans="1:11">
@@ -11674,7 +11677,7 @@
         <v>971</v>
       </c>
       <c r="K226" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="227" spans="1:11">
@@ -11709,7 +11712,7 @@
         <v>856</v>
       </c>
       <c r="K227" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="228" spans="1:11">
@@ -11744,7 +11747,7 @@
         <v>843</v>
       </c>
       <c r="K228" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="229" spans="1:11">
@@ -11779,7 +11782,7 @@
         <v>976</v>
       </c>
       <c r="K229" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="230" spans="1:11">
@@ -11814,7 +11817,7 @@
         <v>910</v>
       </c>
       <c r="K230" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="231" spans="1:11">
@@ -11849,7 +11852,7 @@
         <v>878</v>
       </c>
       <c r="K231" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="232" spans="1:11">
@@ -11872,19 +11875,19 @@
         <v>541</v>
       </c>
       <c r="G232">
-        <v>353122470.0818316</v>
+        <v>352620331.0518316</v>
       </c>
       <c r="H232" t="s">
         <v>423</v>
       </c>
       <c r="I232">
-        <v>0.02045933309858696</v>
+        <v>0.02048846763443725</v>
       </c>
       <c r="J232" t="s">
         <v>846</v>
       </c>
       <c r="K232" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="233" spans="1:11">
@@ -11907,19 +11910,19 @@
         <v>460</v>
       </c>
       <c r="G233">
-        <v>353122470.0818316</v>
+        <v>352620331.0518316</v>
       </c>
       <c r="H233" t="s">
         <v>423</v>
       </c>
       <c r="I233">
-        <v>0.01863045786487699</v>
+        <v>0.0186569880425693</v>
       </c>
       <c r="J233" t="s">
         <v>848</v>
       </c>
       <c r="K233" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="234" spans="1:11">
@@ -11942,19 +11945,19 @@
         <v>476</v>
       </c>
       <c r="G234">
-        <v>353122470.0818316</v>
+        <v>352620331.0518316</v>
       </c>
       <c r="H234" t="s">
         <v>423</v>
       </c>
       <c r="I234">
-        <v>0.01493405480832971</v>
+        <v>0.01495532122757744</v>
       </c>
       <c r="J234" t="s">
         <v>852</v>
       </c>
       <c r="K234" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="235" spans="1:11">
@@ -11977,19 +11980,19 @@
         <v>452</v>
       </c>
       <c r="G235">
-        <v>353122470.0818316</v>
+        <v>352620331.0518316</v>
       </c>
       <c r="H235" t="s">
         <v>423</v>
       </c>
       <c r="I235">
-        <v>0.01254894713715931</v>
+        <v>0.01256681711114572</v>
       </c>
       <c r="J235" t="s">
         <v>842</v>
       </c>
       <c r="K235" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="236" spans="1:11">
@@ -12012,19 +12015,19 @@
         <v>646</v>
       </c>
       <c r="G236">
-        <v>353122470.0818316</v>
+        <v>352620331.0518316</v>
       </c>
       <c r="H236" t="s">
         <v>423</v>
       </c>
       <c r="I236">
-        <v>0.01073037734439462</v>
+        <v>0.01074565763539535</v>
       </c>
       <c r="J236" t="s">
         <v>843</v>
       </c>
       <c r="K236" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="237" spans="1:11">
@@ -12047,19 +12050,19 @@
         <v>647</v>
       </c>
       <c r="G237">
-        <v>353122470.0818316</v>
+        <v>352620331.0518316</v>
       </c>
       <c r="H237" t="s">
         <v>423</v>
       </c>
       <c r="I237">
-        <v>0.008570029248848155</v>
+        <v>0.008582233157117572</v>
       </c>
       <c r="J237" t="s">
         <v>978</v>
       </c>
       <c r="K237" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="238" spans="1:11">
@@ -12082,19 +12085,19 @@
         <v>648</v>
       </c>
       <c r="G238">
-        <v>353122470.0818316</v>
+        <v>352620331.0518316</v>
       </c>
       <c r="H238" t="s">
         <v>423</v>
       </c>
       <c r="I238">
-        <v>0.008209257748693168</v>
+        <v>0.008220947910490283</v>
       </c>
       <c r="J238" t="s">
         <v>843</v>
       </c>
       <c r="K238" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="239" spans="1:11">
@@ -12117,19 +12120,19 @@
         <v>649</v>
       </c>
       <c r="G239">
-        <v>353122470.0818316</v>
+        <v>352620331.0518316</v>
       </c>
       <c r="H239" t="s">
         <v>423</v>
       </c>
       <c r="I239">
-        <v>0.007903683839074952</v>
+        <v>0.007914938856970661</v>
       </c>
       <c r="J239" t="s">
         <v>851</v>
       </c>
       <c r="K239" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="240" spans="1:11">
@@ -12152,19 +12155,19 @@
         <v>650</v>
       </c>
       <c r="G240">
-        <v>353122470.0818316</v>
+        <v>352620331.0518316</v>
       </c>
       <c r="H240" t="s">
         <v>423</v>
       </c>
       <c r="I240">
-        <v>0.007848686388395726</v>
+        <v>0.007859863088724056</v>
       </c>
       <c r="J240" t="s">
         <v>843</v>
       </c>
       <c r="K240" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="241" spans="1:11">
@@ -12187,19 +12190,19 @@
         <v>611</v>
       </c>
       <c r="G241">
-        <v>353122470.0818316</v>
+        <v>352620331.0518316</v>
       </c>
       <c r="H241" t="s">
         <v>423</v>
       </c>
       <c r="I241">
-        <v>0.00780902819716958</v>
+        <v>0.007820148423370017</v>
       </c>
       <c r="J241" t="s">
         <v>852</v>
       </c>
       <c r="K241" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="242" spans="1:11">
@@ -12234,7 +12237,7 @@
         <v>979</v>
       </c>
       <c r="K242" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="243" spans="1:11">
@@ -12269,7 +12272,7 @@
         <v>979</v>
       </c>
       <c r="K243" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="244" spans="1:11">
@@ -12304,7 +12307,7 @@
         <v>979</v>
       </c>
       <c r="K244" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="245" spans="1:11">
@@ -12339,7 +12342,7 @@
         <v>980</v>
       </c>
       <c r="K245" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="246" spans="1:11">
@@ -12374,7 +12377,7 @@
         <v>979</v>
       </c>
       <c r="K246" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="247" spans="1:11">
@@ -12409,7 +12412,7 @@
         <v>947</v>
       </c>
       <c r="K247" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="248" spans="1:11">
@@ -12444,7 +12447,7 @@
         <v>979</v>
       </c>
       <c r="K248" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="249" spans="1:11">
@@ -12479,7 +12482,7 @@
         <v>981</v>
       </c>
       <c r="K249" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="250" spans="1:11">
@@ -12514,7 +12517,7 @@
         <v>980</v>
       </c>
       <c r="K250" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="251" spans="1:11">
@@ -12549,7 +12552,7 @@
         <v>954</v>
       </c>
       <c r="K251" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="252" spans="1:11">
@@ -12584,7 +12587,7 @@
         <v>911</v>
       </c>
       <c r="K252" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="253" spans="1:11">
@@ -12619,7 +12622,7 @@
         <v>982</v>
       </c>
       <c r="K253" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="254" spans="1:11">
@@ -12654,7 +12657,7 @@
         <v>983</v>
       </c>
       <c r="K254" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="255" spans="1:11">
@@ -12689,7 +12692,7 @@
         <v>843</v>
       </c>
       <c r="K255" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="256" spans="1:11">
@@ -12724,7 +12727,7 @@
         <v>984</v>
       </c>
       <c r="K256" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="257" spans="1:11">
@@ -12759,7 +12762,7 @@
         <v>855</v>
       </c>
       <c r="K257" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="258" spans="1:11">
@@ -12794,7 +12797,7 @@
         <v>855</v>
       </c>
       <c r="K258" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="259" spans="1:11">
@@ -12829,7 +12832,7 @@
         <v>878</v>
       </c>
       <c r="K259" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="260" spans="1:11">
@@ -12864,7 +12867,7 @@
         <v>985</v>
       </c>
       <c r="K260" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="261" spans="1:11">
@@ -12899,7 +12902,7 @@
         <v>878</v>
       </c>
       <c r="K261" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="262" spans="1:11">
@@ -12907,34 +12910,34 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="C262" t="s">
         <v>426</v>
       </c>
       <c r="D262">
-        <v>4563239.15</v>
+        <v>3755177.620000001</v>
       </c>
       <c r="E262">
-        <v>902131</v>
+        <v>80390</v>
       </c>
       <c r="F262" t="s">
-        <v>669</v>
+        <v>541</v>
       </c>
       <c r="G262">
-        <v>124495257.3748615</v>
+        <v>117618850.4906553</v>
       </c>
       <c r="H262" t="s">
         <v>426</v>
       </c>
       <c r="I262">
-        <v>0.03665391956466147</v>
+        <v>0.03192666485291273</v>
       </c>
       <c r="J262" t="s">
-        <v>986</v>
+        <v>846</v>
       </c>
       <c r="K262" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="263" spans="1:11">
@@ -12942,34 +12945,34 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>101</v>
+        <v>229</v>
       </c>
       <c r="C263" t="s">
         <v>426</v>
       </c>
       <c r="D263">
-        <v>3755177.620000001</v>
+        <v>3345071.001483851</v>
       </c>
       <c r="E263">
-        <v>80390</v>
+        <v>871310</v>
       </c>
       <c r="F263" t="s">
-        <v>541</v>
+        <v>669</v>
       </c>
       <c r="G263">
-        <v>124495257.3748615</v>
+        <v>117618850.4906553</v>
       </c>
       <c r="H263" t="s">
         <v>426</v>
       </c>
       <c r="I263">
-        <v>0.03016321825572015</v>
+        <v>0.02843992257643781</v>
       </c>
       <c r="J263" t="s">
-        <v>846</v>
+        <v>986</v>
       </c>
       <c r="K263" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="264" spans="1:11">
@@ -12977,34 +12980,34 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>230</v>
+        <v>36</v>
       </c>
       <c r="C264" t="s">
         <v>426</v>
       </c>
       <c r="D264">
-        <v>3345071.001483851</v>
+        <v>2835722.526659213</v>
       </c>
       <c r="E264">
-        <v>871310</v>
+        <v>901839</v>
       </c>
       <c r="F264" t="s">
-        <v>670</v>
+        <v>476</v>
       </c>
       <c r="G264">
-        <v>124495257.3748615</v>
+        <v>117618850.4906553</v>
       </c>
       <c r="H264" t="s">
         <v>426</v>
       </c>
       <c r="I264">
-        <v>0.02686906370587012</v>
+        <v>0.02410942221276435</v>
       </c>
       <c r="J264" t="s">
-        <v>987</v>
+        <v>852</v>
       </c>
       <c r="K264" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="265" spans="1:11">
@@ -13012,34 +13015,34 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>36</v>
+        <v>230</v>
       </c>
       <c r="C265" t="s">
         <v>426</v>
       </c>
       <c r="D265">
-        <v>2835722.526659213</v>
+        <v>2716015.67</v>
       </c>
       <c r="E265">
-        <v>901839</v>
+        <v>761510</v>
       </c>
       <c r="F265" t="s">
-        <v>476</v>
+        <v>670</v>
       </c>
       <c r="G265">
-        <v>124495257.3748615</v>
+        <v>117618850.4906553</v>
       </c>
       <c r="H265" t="s">
         <v>426</v>
       </c>
       <c r="I265">
-        <v>0.02277775544590193</v>
+        <v>0.02309166990384577</v>
       </c>
       <c r="J265" t="s">
-        <v>852</v>
+        <v>987</v>
       </c>
       <c r="K265" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="266" spans="1:11">
@@ -13053,28 +13056,28 @@
         <v>426</v>
       </c>
       <c r="D266">
-        <v>2716015.67</v>
+        <v>2645132.314618741</v>
       </c>
       <c r="E266">
-        <v>761510</v>
+        <v>902890</v>
       </c>
       <c r="F266" t="s">
         <v>671</v>
       </c>
       <c r="G266">
-        <v>124495257.3748615</v>
+        <v>117618850.4906553</v>
       </c>
       <c r="H266" t="s">
         <v>426</v>
       </c>
       <c r="I266">
-        <v>0.02181621796099381</v>
+        <v>0.02248901688449076</v>
       </c>
       <c r="J266" t="s">
         <v>988</v>
       </c>
       <c r="K266" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="267" spans="1:11">
@@ -13088,28 +13091,28 @@
         <v>426</v>
       </c>
       <c r="D267">
-        <v>2645132.314618741</v>
+        <v>2523144.13</v>
       </c>
       <c r="E267">
-        <v>902890</v>
+        <v>901839</v>
       </c>
       <c r="F267" t="s">
         <v>672</v>
       </c>
       <c r="G267">
-        <v>124495257.3748615</v>
+        <v>117618850.4906553</v>
       </c>
       <c r="H267" t="s">
         <v>426</v>
       </c>
       <c r="I267">
-        <v>0.02124685205199516</v>
+        <v>0.021451868637336</v>
       </c>
       <c r="J267" t="s">
         <v>989</v>
       </c>
       <c r="K267" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="268" spans="1:11">
@@ -13123,28 +13126,28 @@
         <v>426</v>
       </c>
       <c r="D268">
-        <v>2523144.13</v>
+        <v>1947115.912899214</v>
       </c>
       <c r="E268">
-        <v>901839</v>
+        <v>900390</v>
       </c>
       <c r="F268" t="s">
         <v>673</v>
       </c>
       <c r="G268">
-        <v>124495257.3748615</v>
+        <v>117618850.4906553</v>
       </c>
       <c r="H268" t="s">
         <v>426</v>
       </c>
       <c r="I268">
-        <v>0.02026698994968689</v>
+        <v>0.01655445453493792</v>
       </c>
       <c r="J268" t="s">
-        <v>990</v>
+        <v>910</v>
       </c>
       <c r="K268" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="269" spans="1:11">
@@ -13158,28 +13161,28 @@
         <v>426</v>
       </c>
       <c r="D269">
-        <v>1947115.912899214</v>
+        <v>1759615.139590635</v>
       </c>
       <c r="E269">
-        <v>900390</v>
+        <v>901832</v>
       </c>
       <c r="F269" t="s">
         <v>674</v>
       </c>
       <c r="G269">
-        <v>124495257.3748615</v>
+        <v>117618850.4906553</v>
       </c>
       <c r="H269" t="s">
         <v>426</v>
       </c>
       <c r="I269">
-        <v>0.01564008102763585</v>
+        <v>0.01496031573383243</v>
       </c>
       <c r="J269" t="s">
-        <v>910</v>
+        <v>990</v>
       </c>
       <c r="K269" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="270" spans="1:11">
@@ -13193,28 +13196,28 @@
         <v>426</v>
       </c>
       <c r="D270">
-        <v>1759615.139590635</v>
+        <v>1757425.07336063</v>
       </c>
       <c r="E270">
-        <v>901832</v>
+        <v>382200</v>
       </c>
       <c r="F270" t="s">
         <v>675</v>
       </c>
       <c r="G270">
-        <v>124495257.3748615</v>
+        <v>117618850.4906553</v>
       </c>
       <c r="H270" t="s">
         <v>426</v>
       </c>
       <c r="I270">
-        <v>0.01413399334797425</v>
+        <v>0.01494169570633796</v>
       </c>
       <c r="J270" t="s">
         <v>991</v>
       </c>
       <c r="K270" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="271" spans="1:11">
@@ -13228,28 +13231,28 @@
         <v>426</v>
       </c>
       <c r="D271">
-        <v>1757425.07336063</v>
+        <v>1748092.39</v>
       </c>
       <c r="E271">
-        <v>382200</v>
+        <v>382100</v>
       </c>
       <c r="F271" t="s">
         <v>676</v>
       </c>
       <c r="G271">
-        <v>124495257.3748615</v>
+        <v>117618850.4906553</v>
       </c>
       <c r="H271" t="s">
         <v>426</v>
       </c>
       <c r="I271">
-        <v>0.01411640178443854</v>
+        <v>0.01486234887271649</v>
       </c>
       <c r="J271" t="s">
         <v>992</v>
       </c>
       <c r="K271" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="272" spans="1:11">
@@ -13272,19 +13275,19 @@
         <v>628</v>
       </c>
       <c r="G272">
-        <v>1196117914.503044</v>
+        <v>1196115717.978551</v>
       </c>
       <c r="H272" t="s">
         <v>427</v>
       </c>
       <c r="I272">
-        <v>0.3708986040253926</v>
+        <v>0.3708992851366395</v>
       </c>
       <c r="J272" t="s">
         <v>967</v>
       </c>
       <c r="K272" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="273" spans="1:11">
@@ -13307,19 +13310,19 @@
         <v>677</v>
       </c>
       <c r="G273">
-        <v>1196117914.503044</v>
+        <v>1196115717.978551</v>
       </c>
       <c r="H273" t="s">
         <v>427</v>
       </c>
       <c r="I273">
-        <v>0.3361103787863019</v>
+        <v>0.3361109960131038</v>
       </c>
       <c r="J273" t="s">
         <v>878</v>
       </c>
       <c r="K273" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="274" spans="1:11">
@@ -13342,19 +13345,19 @@
         <v>678</v>
       </c>
       <c r="G274">
-        <v>1196117914.503044</v>
+        <v>1196115717.978551</v>
       </c>
       <c r="H274" t="s">
         <v>427</v>
       </c>
       <c r="I274">
-        <v>0.02644396840568645</v>
+        <v>0.02644401696689454</v>
       </c>
       <c r="J274" t="s">
         <v>993</v>
       </c>
       <c r="K274" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="275" spans="1:11">
@@ -13377,19 +13380,19 @@
         <v>679</v>
       </c>
       <c r="G275">
-        <v>1196117914.503044</v>
+        <v>1196115717.978551</v>
       </c>
       <c r="H275" t="s">
         <v>427</v>
       </c>
       <c r="I275">
-        <v>0.02004789059532974</v>
+        <v>0.02004792741090039</v>
       </c>
       <c r="J275" t="s">
         <v>854</v>
       </c>
       <c r="K275" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="276" spans="1:11">
@@ -13412,19 +13415,19 @@
         <v>680</v>
       </c>
       <c r="G276">
-        <v>1196117914.503044</v>
+        <v>1196115717.978551</v>
       </c>
       <c r="H276" t="s">
         <v>427</v>
       </c>
       <c r="I276">
-        <v>0.0198056316069021</v>
+        <v>0.01980566797759288</v>
       </c>
       <c r="J276" t="s">
         <v>994</v>
       </c>
       <c r="K276" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="277" spans="1:11">
@@ -13447,19 +13450,19 @@
         <v>681</v>
       </c>
       <c r="G277">
-        <v>1196117914.503044</v>
+        <v>1196115717.978551</v>
       </c>
       <c r="H277" t="s">
         <v>427</v>
       </c>
       <c r="I277">
-        <v>0.01182561914303415</v>
+        <v>0.01182564085937956</v>
       </c>
       <c r="J277" t="s">
         <v>995</v>
       </c>
       <c r="K277" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="278" spans="1:11">
@@ -13482,19 +13485,19 @@
         <v>682</v>
       </c>
       <c r="G278">
-        <v>1196117914.503044</v>
+        <v>1196115717.978551</v>
       </c>
       <c r="H278" t="s">
         <v>427</v>
       </c>
       <c r="I278">
-        <v>0.009041997800870198</v>
+        <v>0.009042014405425538</v>
       </c>
       <c r="J278" t="s">
         <v>996</v>
       </c>
       <c r="K278" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="279" spans="1:11">
@@ -13517,19 +13520,19 @@
         <v>683</v>
       </c>
       <c r="G279">
-        <v>1196117914.503044</v>
+        <v>1196115717.978551</v>
       </c>
       <c r="H279" t="s">
         <v>427</v>
       </c>
       <c r="I279">
-        <v>0.008863905846656783</v>
+        <v>0.008863922124167397</v>
       </c>
       <c r="J279" t="s">
         <v>852</v>
       </c>
       <c r="K279" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="280" spans="1:11">
@@ -13552,19 +13555,19 @@
         <v>684</v>
       </c>
       <c r="G280">
-        <v>1196117914.503044</v>
+        <v>1196115717.978551</v>
       </c>
       <c r="H280" t="s">
         <v>427</v>
       </c>
       <c r="I280">
-        <v>0.005772784718370484</v>
+        <v>0.005772795319404176</v>
       </c>
       <c r="J280" t="s">
         <v>851</v>
       </c>
       <c r="K280" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="281" spans="1:11">
@@ -13587,19 +13590,19 @@
         <v>685</v>
       </c>
       <c r="G281">
-        <v>1196117914.503044</v>
+        <v>1196115717.978551</v>
       </c>
       <c r="H281" t="s">
         <v>427</v>
       </c>
       <c r="I281">
-        <v>0.005358016871459512</v>
+        <v>0.005358026710821301</v>
       </c>
       <c r="J281" t="s">
         <v>997</v>
       </c>
       <c r="K281" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="282" spans="1:11">
@@ -13634,7 +13637,7 @@
         <v>998</v>
       </c>
       <c r="K282" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="283" spans="1:11">
@@ -13669,7 +13672,7 @@
         <v>999</v>
       </c>
       <c r="K283" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="284" spans="1:11">
@@ -13704,7 +13707,7 @@
         <v>1000</v>
       </c>
       <c r="K284" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="285" spans="1:11">
@@ -13739,7 +13742,7 @@
         <v>924</v>
       </c>
       <c r="K285" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="286" spans="1:11">
@@ -13774,7 +13777,7 @@
         <v>1001</v>
       </c>
       <c r="K286" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="287" spans="1:11">
@@ -13809,7 +13812,7 @@
         <v>852</v>
       </c>
       <c r="K287" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="288" spans="1:11">
@@ -13844,7 +13847,7 @@
         <v>1002</v>
       </c>
       <c r="K288" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="289" spans="1:11">
@@ -13879,7 +13882,7 @@
         <v>855</v>
       </c>
       <c r="K289" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="290" spans="1:11">
@@ -13914,7 +13917,7 @@
         <v>928</v>
       </c>
       <c r="K290" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="291" spans="1:11">
@@ -13949,7 +13952,7 @@
         <v>843</v>
       </c>
       <c r="K291" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="292" spans="1:11">
@@ -13972,19 +13975,19 @@
         <v>533</v>
       </c>
       <c r="G292">
-        <v>230822903.0007025</v>
+        <v>230765207.9607025</v>
       </c>
       <c r="H292" t="s">
         <v>429</v>
       </c>
       <c r="I292">
-        <v>0.2334272653820932</v>
+        <v>0.2334856259795695</v>
       </c>
       <c r="J292" t="s">
         <v>843</v>
       </c>
       <c r="K292" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="293" spans="1:11">
@@ -14007,19 +14010,19 @@
         <v>537</v>
       </c>
       <c r="G293">
-        <v>230822903.0007025</v>
+        <v>230765207.9607025</v>
       </c>
       <c r="H293" t="s">
         <v>429</v>
       </c>
       <c r="I293">
-        <v>0.1211500081744577</v>
+        <v>0.1211802976389285</v>
       </c>
       <c r="J293" t="s">
         <v>878</v>
       </c>
       <c r="K293" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="294" spans="1:11">
@@ -14042,19 +14045,19 @@
         <v>693</v>
       </c>
       <c r="G294">
-        <v>230822903.0007025</v>
+        <v>230765207.9607025</v>
       </c>
       <c r="H294" t="s">
         <v>429</v>
       </c>
       <c r="I294">
-        <v>0.06536754731108746</v>
+        <v>0.06538389025676</v>
       </c>
       <c r="J294" t="s">
         <v>1003</v>
       </c>
       <c r="K294" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="295" spans="1:11">
@@ -14077,19 +14080,19 @@
         <v>460</v>
       </c>
       <c r="G295">
-        <v>230822903.0007025</v>
+        <v>230765207.9607025</v>
       </c>
       <c r="H295" t="s">
         <v>429</v>
       </c>
       <c r="I295">
-        <v>0.05614340811345729</v>
+        <v>0.05615744487491482</v>
       </c>
       <c r="J295" t="s">
         <v>848</v>
       </c>
       <c r="K295" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="296" spans="1:11">
@@ -14112,19 +14115,19 @@
         <v>538</v>
       </c>
       <c r="G296">
-        <v>230822903.0007025</v>
+        <v>230765207.9607025</v>
       </c>
       <c r="H296" t="s">
         <v>429</v>
       </c>
       <c r="I296">
-        <v>0.04875359121691966</v>
+        <v>0.04876578040445041</v>
       </c>
       <c r="J296" t="s">
         <v>852</v>
       </c>
       <c r="K296" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="297" spans="1:11">
@@ -14147,19 +14150,19 @@
         <v>694</v>
       </c>
       <c r="G297">
-        <v>230822903.0007025</v>
+        <v>230765207.9607025</v>
       </c>
       <c r="H297" t="s">
         <v>429</v>
       </c>
       <c r="I297">
-        <v>0.02191757381267225</v>
+        <v>0.0219230535611534</v>
       </c>
       <c r="J297" t="s">
         <v>1004</v>
       </c>
       <c r="K297" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="298" spans="1:11">
@@ -14182,19 +14185,19 @@
         <v>695</v>
       </c>
       <c r="G298">
-        <v>230822903.0007025</v>
+        <v>230765207.9607025</v>
       </c>
       <c r="H298" t="s">
         <v>429</v>
       </c>
       <c r="I298">
-        <v>0.02058002773839581</v>
+        <v>0.02058517307869238</v>
       </c>
       <c r="J298" t="s">
         <v>1005</v>
       </c>
       <c r="K298" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="299" spans="1:11">
@@ -14217,19 +14220,19 @@
         <v>696</v>
       </c>
       <c r="G299">
-        <v>230822903.0007025</v>
+        <v>230765207.9607025</v>
       </c>
       <c r="H299" t="s">
         <v>429</v>
       </c>
       <c r="I299">
-        <v>0.01928338921669493</v>
+        <v>0.01928821037635771</v>
       </c>
       <c r="J299" t="s">
         <v>1006</v>
       </c>
       <c r="K299" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="300" spans="1:11">
@@ -14252,19 +14255,19 @@
         <v>697</v>
       </c>
       <c r="G300">
-        <v>230822903.0007025</v>
+        <v>230765207.9607025</v>
       </c>
       <c r="H300" t="s">
         <v>429</v>
       </c>
       <c r="I300">
-        <v>0.01894047197818316</v>
+        <v>0.01894520740298163</v>
       </c>
       <c r="J300" t="s">
         <v>1007</v>
       </c>
       <c r="K300" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="301" spans="1:11">
@@ -14287,19 +14290,19 @@
         <v>685</v>
       </c>
       <c r="G301">
-        <v>230822903.0007025</v>
+        <v>230765207.9607025</v>
       </c>
       <c r="H301" t="s">
         <v>429</v>
       </c>
       <c r="I301">
-        <v>0.01680367191177254</v>
+        <v>0.01680787310194182</v>
       </c>
       <c r="J301" t="s">
         <v>997</v>
       </c>
       <c r="K301" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="302" spans="1:11">
@@ -14672,19 +14675,19 @@
         <v>705</v>
       </c>
       <c r="G312">
-        <v>1208340623.833615</v>
+        <v>1208316659.813615</v>
       </c>
       <c r="H312" t="s">
         <v>431</v>
       </c>
       <c r="I312">
-        <v>0.1260207610802909</v>
+        <v>0.1260232603953623</v>
       </c>
       <c r="J312" t="s">
         <v>910</v>
       </c>
       <c r="K312" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -14707,19 +14710,19 @@
         <v>678</v>
       </c>
       <c r="G313">
-        <v>1208340623.833615</v>
+        <v>1208316659.813615</v>
       </c>
       <c r="H313" t="s">
         <v>431</v>
       </c>
       <c r="I313">
-        <v>0.0279119007004453</v>
+        <v>0.02791245426506032</v>
       </c>
       <c r="J313" t="s">
         <v>993</v>
       </c>
       <c r="K313" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -14742,19 +14745,19 @@
         <v>677</v>
       </c>
       <c r="G314">
-        <v>1208340623.833615</v>
+        <v>1208316659.813615</v>
       </c>
       <c r="H314" t="s">
         <v>431</v>
       </c>
       <c r="I314">
-        <v>0.02492716363983752</v>
+        <v>0.02492765800945757</v>
       </c>
       <c r="J314" t="s">
         <v>878</v>
       </c>
       <c r="K314" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -14777,19 +14780,19 @@
         <v>628</v>
       </c>
       <c r="G315">
-        <v>1208340623.833615</v>
+        <v>1208316659.813615</v>
       </c>
       <c r="H315" t="s">
         <v>431</v>
       </c>
       <c r="I315">
-        <v>0.02421640521591426</v>
+        <v>0.02421688548937089</v>
       </c>
       <c r="J315" t="s">
         <v>967</v>
       </c>
       <c r="K315" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -14812,19 +14815,19 @@
         <v>706</v>
       </c>
       <c r="G316">
-        <v>1208340623.833615</v>
+        <v>1208316659.813615</v>
       </c>
       <c r="H316" t="s">
         <v>431</v>
       </c>
       <c r="I316">
-        <v>0.02129599240112156</v>
+        <v>0.02129641475529807</v>
       </c>
       <c r="J316" t="s">
         <v>912</v>
       </c>
       <c r="K316" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -14847,19 +14850,19 @@
         <v>707</v>
       </c>
       <c r="G317">
-        <v>1208340623.833615</v>
+        <v>1208316659.813615</v>
       </c>
       <c r="H317" t="s">
         <v>431</v>
       </c>
       <c r="I317">
-        <v>0.02013334108191747</v>
+        <v>0.02013374037773486</v>
       </c>
       <c r="J317" t="s">
         <v>910</v>
       </c>
       <c r="K317" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -14882,19 +14885,19 @@
         <v>708</v>
       </c>
       <c r="G318">
-        <v>1208340623.833615</v>
+        <v>1208316659.813615</v>
       </c>
       <c r="H318" t="s">
         <v>431</v>
       </c>
       <c r="I318">
-        <v>0.01775604808149469</v>
+        <v>0.01775640022949157</v>
       </c>
       <c r="J318" t="s">
         <v>1011</v>
       </c>
       <c r="K318" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -14917,19 +14920,19 @@
         <v>709</v>
       </c>
       <c r="G319">
-        <v>1208340623.833615</v>
+        <v>1208316659.813615</v>
       </c>
       <c r="H319" t="s">
         <v>431</v>
       </c>
       <c r="I319">
-        <v>0.01609500442653503</v>
+        <v>0.01609532363177386</v>
       </c>
       <c r="J319" t="s">
         <v>1012</v>
       </c>
       <c r="K319" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -14952,19 +14955,19 @@
         <v>710</v>
       </c>
       <c r="G320">
-        <v>1208340623.833615</v>
+        <v>1208316659.813615</v>
       </c>
       <c r="H320" t="s">
         <v>431</v>
       </c>
       <c r="I320">
-        <v>0.01539545435044559</v>
+        <v>0.01539575968181131</v>
       </c>
       <c r="J320" t="s">
         <v>852</v>
       </c>
       <c r="K320" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -14987,19 +14990,19 @@
         <v>711</v>
       </c>
       <c r="G321">
-        <v>1208340623.833615</v>
+        <v>1208316659.813615</v>
       </c>
       <c r="H321" t="s">
         <v>431</v>
       </c>
       <c r="I321">
-        <v>0.01213841921549639</v>
+        <v>0.01213865995149757</v>
       </c>
       <c r="J321" t="s">
         <v>855</v>
       </c>
       <c r="K321" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -15034,7 +15037,7 @@
         <v>855</v>
       </c>
       <c r="K322" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -15069,7 +15072,7 @@
         <v>932</v>
       </c>
       <c r="K323" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -15104,7 +15107,7 @@
         <v>1013</v>
       </c>
       <c r="K324" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -15139,7 +15142,7 @@
         <v>878</v>
       </c>
       <c r="K325" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -15174,7 +15177,7 @@
         <v>878</v>
       </c>
       <c r="K326" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -15209,7 +15212,7 @@
         <v>855</v>
       </c>
       <c r="K327" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -15244,7 +15247,7 @@
         <v>995</v>
       </c>
       <c r="K328" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -15279,7 +15282,7 @@
         <v>855</v>
       </c>
       <c r="K329" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -15314,7 +15317,7 @@
         <v>1014</v>
       </c>
       <c r="K330" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -15349,7 +15352,7 @@
         <v>1015</v>
       </c>
       <c r="K331" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -15384,7 +15387,7 @@
         <v>896</v>
       </c>
       <c r="K332" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -15419,7 +15422,7 @@
         <v>1016</v>
       </c>
       <c r="K333" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -15454,7 +15457,7 @@
         <v>913</v>
       </c>
       <c r="K334" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -15489,7 +15492,7 @@
         <v>899</v>
       </c>
       <c r="K335" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -15524,7 +15527,7 @@
         <v>896</v>
       </c>
       <c r="K336" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -15559,7 +15562,7 @@
         <v>900</v>
       </c>
       <c r="K337" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -15594,7 +15597,7 @@
         <v>1013</v>
       </c>
       <c r="K338" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -15629,7 +15632,7 @@
         <v>1017</v>
       </c>
       <c r="K339" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -15664,7 +15667,7 @@
         <v>1017</v>
       </c>
       <c r="K340" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -15699,7 +15702,7 @@
         <v>1018</v>
       </c>
       <c r="K341" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -15734,7 +15737,7 @@
         <v>852</v>
       </c>
       <c r="K342" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -15769,7 +15772,7 @@
         <v>855</v>
       </c>
       <c r="K343" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -15804,7 +15807,7 @@
         <v>855</v>
       </c>
       <c r="K344" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -15839,7 +15842,7 @@
         <v>878</v>
       </c>
       <c r="K345" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -15874,7 +15877,7 @@
         <v>1019</v>
       </c>
       <c r="K346" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -15909,7 +15912,7 @@
         <v>1020</v>
       </c>
       <c r="K347" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -15944,7 +15947,7 @@
         <v>1021</v>
       </c>
       <c r="K348" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -15979,7 +15982,7 @@
         <v>1022</v>
       </c>
       <c r="K349" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -16014,7 +16017,7 @@
         <v>962</v>
       </c>
       <c r="K350" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -16049,7 +16052,7 @@
         <v>843</v>
       </c>
       <c r="K351" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -16072,19 +16075,19 @@
         <v>734</v>
       </c>
       <c r="G352">
-        <v>1409638444.684655</v>
+        <v>1409173586.052992</v>
       </c>
       <c r="H352" t="s">
         <v>435</v>
       </c>
       <c r="I352">
-        <v>0.04586825701995458</v>
+        <v>0.04588338805519827</v>
       </c>
       <c r="J352" t="s">
         <v>928</v>
       </c>
       <c r="K352" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -16107,19 +16110,19 @@
         <v>575</v>
       </c>
       <c r="G353">
-        <v>1409638444.684655</v>
+        <v>1409173586.052992</v>
       </c>
       <c r="H353" t="s">
         <v>435</v>
       </c>
       <c r="I353">
-        <v>0.04554059583937511</v>
+        <v>0.04555561878564414</v>
       </c>
       <c r="J353" t="s">
         <v>928</v>
       </c>
       <c r="K353" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -16142,19 +16145,19 @@
         <v>735</v>
       </c>
       <c r="G354">
-        <v>1409638444.684655</v>
+        <v>1409173586.052992</v>
       </c>
       <c r="H354" t="s">
         <v>435</v>
       </c>
       <c r="I354">
-        <v>0.04448583356766618</v>
+        <v>0.04450050856862087</v>
       </c>
       <c r="J354" t="s">
         <v>1023</v>
       </c>
       <c r="K354" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -16177,19 +16180,19 @@
         <v>736</v>
       </c>
       <c r="G355">
-        <v>1409638444.684655</v>
+        <v>1409173586.052992</v>
       </c>
       <c r="H355" t="s">
         <v>435</v>
       </c>
       <c r="I355">
-        <v>0.03591339824881678</v>
+        <v>0.0359252453720765</v>
       </c>
       <c r="J355" t="s">
         <v>1024</v>
       </c>
       <c r="K355" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -16212,19 +16215,19 @@
         <v>737</v>
       </c>
       <c r="G356">
-        <v>1409638444.684655</v>
+        <v>1409173586.052992</v>
       </c>
       <c r="H356" t="s">
         <v>435</v>
       </c>
       <c r="I356">
-        <v>0.03573320623569056</v>
+        <v>0.03574499391715156</v>
       </c>
       <c r="J356" t="s">
         <v>1025</v>
       </c>
       <c r="K356" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -16247,19 +16250,19 @@
         <v>738</v>
       </c>
       <c r="G357">
-        <v>1409638444.684655</v>
+        <v>1409173586.052992</v>
       </c>
       <c r="H357" t="s">
         <v>435</v>
       </c>
       <c r="I357">
-        <v>0.0299017185334354</v>
+        <v>0.02991158252187472</v>
       </c>
       <c r="J357" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="K357" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -16282,19 +16285,19 @@
         <v>577</v>
       </c>
       <c r="G358">
-        <v>1409638444.684655</v>
+        <v>1409173586.052992</v>
       </c>
       <c r="H358" t="s">
         <v>435</v>
       </c>
       <c r="I358">
-        <v>0.02925146522304274</v>
+        <v>0.0292611147057128</v>
       </c>
       <c r="J358" t="s">
         <v>930</v>
       </c>
       <c r="K358" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -16317,19 +16320,19 @@
         <v>739</v>
       </c>
       <c r="G359">
-        <v>1409638444.684655</v>
+        <v>1409173586.052992</v>
       </c>
       <c r="H359" t="s">
         <v>435</v>
       </c>
       <c r="I359">
-        <v>0.02529836428742095</v>
+        <v>0.02530670971989453</v>
       </c>
       <c r="J359" t="s">
         <v>1026</v>
       </c>
       <c r="K359" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -16352,19 +16355,19 @@
         <v>740</v>
       </c>
       <c r="G360">
-        <v>1409638444.684655</v>
+        <v>1409173586.052992</v>
       </c>
       <c r="H360" t="s">
         <v>435</v>
       </c>
       <c r="I360">
-        <v>0.02271027190888438</v>
+        <v>0.02271776358061931</v>
       </c>
       <c r="J360" t="s">
         <v>1027</v>
       </c>
       <c r="K360" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -16387,19 +16390,19 @@
         <v>543</v>
       </c>
       <c r="G361">
-        <v>1409638444.684655</v>
+        <v>1409173586.052992</v>
       </c>
       <c r="H361" t="s">
         <v>435</v>
       </c>
       <c r="I361">
-        <v>0.0193387937323602</v>
+        <v>0.0193451732197998</v>
       </c>
       <c r="J361" t="s">
         <v>908</v>
       </c>
       <c r="K361" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -16422,19 +16425,19 @@
         <v>484</v>
       </c>
       <c r="G362">
-        <v>5488551314.211918</v>
+        <v>5486763703.102934</v>
       </c>
       <c r="H362" t="s">
         <v>436</v>
       </c>
       <c r="I362">
-        <v>0.04065188859993728</v>
+        <v>0.04066513315931595</v>
       </c>
       <c r="J362" t="s">
         <v>852</v>
       </c>
       <c r="K362" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -16457,19 +16460,19 @@
         <v>526</v>
       </c>
       <c r="G363">
-        <v>5488551314.211918</v>
+        <v>5486763703.102934</v>
       </c>
       <c r="H363" t="s">
         <v>436</v>
       </c>
       <c r="I363">
-        <v>0.02552402476385775</v>
+        <v>0.02553234060042057</v>
       </c>
       <c r="J363" t="s">
         <v>852</v>
       </c>
       <c r="K363" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -16492,19 +16495,19 @@
         <v>578</v>
       </c>
       <c r="G364">
-        <v>5488551314.211918</v>
+        <v>5486763703.102934</v>
       </c>
       <c r="H364" t="s">
         <v>436</v>
       </c>
       <c r="I364">
-        <v>0.0251275061416548</v>
+        <v>0.02513569279075261</v>
       </c>
       <c r="J364" t="s">
         <v>931</v>
       </c>
       <c r="K364" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -16527,19 +16530,19 @@
         <v>741</v>
       </c>
       <c r="G365">
-        <v>5488551314.211918</v>
+        <v>5486763703.102934</v>
       </c>
       <c r="H365" t="s">
         <v>436</v>
       </c>
       <c r="I365">
-        <v>0.01900327474232555</v>
+        <v>0.01900946609060928</v>
       </c>
       <c r="J365" t="s">
         <v>1028</v>
       </c>
       <c r="K365" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -16562,19 +16565,19 @@
         <v>479</v>
       </c>
       <c r="G366">
-        <v>5488551314.211918</v>
+        <v>5486763703.102934</v>
       </c>
       <c r="H366" t="s">
         <v>436</v>
       </c>
       <c r="I366">
-        <v>0.01809955950482162</v>
+        <v>0.01810545641881124</v>
       </c>
       <c r="J366" t="s">
         <v>852</v>
       </c>
       <c r="K366" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -16597,19 +16600,19 @@
         <v>742</v>
       </c>
       <c r="G367">
-        <v>5488551314.211918</v>
+        <v>5486763703.102934</v>
       </c>
       <c r="H367" t="s">
         <v>436</v>
       </c>
       <c r="I367">
-        <v>0.01608810987940632</v>
+        <v>0.01609335145449488</v>
       </c>
       <c r="J367" t="s">
         <v>1029</v>
       </c>
       <c r="K367" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -16632,19 +16635,19 @@
         <v>483</v>
       </c>
       <c r="G368">
-        <v>5488551314.211918</v>
+        <v>5486763703.102934</v>
       </c>
       <c r="H368" t="s">
         <v>436</v>
       </c>
       <c r="I368">
-        <v>0.01529190115777121</v>
+        <v>0.01529688332464887</v>
       </c>
       <c r="J368" t="s">
         <v>852</v>
       </c>
       <c r="K368" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -16667,19 +16670,19 @@
         <v>743</v>
       </c>
       <c r="G369">
-        <v>5488551314.211918</v>
+        <v>5486763703.102934</v>
       </c>
       <c r="H369" t="s">
         <v>436</v>
       </c>
       <c r="I369">
-        <v>0.01493487520749667</v>
+        <v>0.01493974105379093</v>
       </c>
       <c r="J369" t="s">
         <v>1030</v>
       </c>
       <c r="K369" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -16702,19 +16705,19 @@
         <v>744</v>
       </c>
       <c r="G370">
-        <v>5488551314.211918</v>
+        <v>5486763703.102934</v>
       </c>
       <c r="H370" t="s">
         <v>436</v>
       </c>
       <c r="I370">
-        <v>0.01431863809263577</v>
+        <v>0.01432330316623926</v>
       </c>
       <c r="J370" t="s">
         <v>852</v>
       </c>
       <c r="K370" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -16737,19 +16740,19 @@
         <v>745</v>
       </c>
       <c r="G371">
-        <v>5488551314.211918</v>
+        <v>5486763703.102934</v>
       </c>
       <c r="H371" t="s">
         <v>436</v>
       </c>
       <c r="I371">
-        <v>0.009930699374896514</v>
+        <v>0.009933934839276456</v>
       </c>
       <c r="J371" t="s">
         <v>1031</v>
       </c>
       <c r="K371" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -16784,7 +16787,7 @@
         <v>895</v>
       </c>
       <c r="K372" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -16819,7 +16822,7 @@
         <v>855</v>
       </c>
       <c r="K373" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -16854,7 +16857,7 @@
         <v>1032</v>
       </c>
       <c r="K374" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -16889,7 +16892,7 @@
         <v>851</v>
       </c>
       <c r="K375" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -16924,7 +16927,7 @@
         <v>910</v>
       </c>
       <c r="K376" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -16959,7 +16962,7 @@
         <v>947</v>
       </c>
       <c r="K377" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -16994,7 +16997,7 @@
         <v>1033</v>
       </c>
       <c r="K378" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -17029,7 +17032,7 @@
         <v>1034</v>
       </c>
       <c r="K379" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -17064,7 +17067,7 @@
         <v>914</v>
       </c>
       <c r="K380" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -17099,7 +17102,7 @@
         <v>852</v>
       </c>
       <c r="K381" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -17122,19 +17125,19 @@
         <v>736</v>
       </c>
       <c r="G382">
-        <v>198343598.2887165</v>
+        <v>198338394.7599719</v>
       </c>
       <c r="H382" t="s">
         <v>438</v>
       </c>
       <c r="I382">
-        <v>0.07683003392056152</v>
+        <v>0.07683204960335677</v>
       </c>
       <c r="J382" t="s">
         <v>1024</v>
       </c>
       <c r="K382" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -17157,19 +17160,19 @@
         <v>753</v>
       </c>
       <c r="G383">
-        <v>198343598.2887165</v>
+        <v>198338394.7599719</v>
       </c>
       <c r="H383" t="s">
         <v>438</v>
       </c>
       <c r="I383">
-        <v>0.07509377665779302</v>
+        <v>0.0750957467888201</v>
       </c>
       <c r="J383" t="s">
         <v>1035</v>
       </c>
       <c r="K383" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -17192,19 +17195,19 @@
         <v>754</v>
       </c>
       <c r="G384">
-        <v>198343598.2887165</v>
+        <v>198338394.7599719</v>
       </c>
       <c r="H384" t="s">
         <v>438</v>
       </c>
       <c r="I384">
-        <v>0.06819596567295404</v>
+        <v>0.06819775483570327</v>
       </c>
       <c r="J384" t="s">
         <v>1035</v>
       </c>
       <c r="K384" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -17227,19 +17230,19 @@
         <v>719</v>
       </c>
       <c r="G385">
-        <v>198343598.2887165</v>
+        <v>198338394.7599719</v>
       </c>
       <c r="H385" t="s">
         <v>438</v>
       </c>
       <c r="I385">
-        <v>0.04864457155786549</v>
+        <v>0.04864584777786655</v>
       </c>
       <c r="J385" t="s">
         <v>1014</v>
       </c>
       <c r="K385" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -17262,19 +17265,19 @@
         <v>474</v>
       </c>
       <c r="G386">
-        <v>198343598.2887165</v>
+        <v>198338394.7599719</v>
       </c>
       <c r="H386" t="s">
         <v>438</v>
       </c>
       <c r="I386">
-        <v>0.04125729061489834</v>
+        <v>0.04125837302507867</v>
       </c>
       <c r="J386" t="s">
         <v>861</v>
       </c>
       <c r="K386" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -17297,19 +17300,19 @@
         <v>755</v>
       </c>
       <c r="G387">
-        <v>198343598.2887165</v>
+        <v>198338394.7599719</v>
       </c>
       <c r="H387" t="s">
         <v>438</v>
       </c>
       <c r="I387">
-        <v>0.0348888131528735</v>
+        <v>0.03488972848216375</v>
       </c>
       <c r="J387" t="s">
         <v>852</v>
       </c>
       <c r="K387" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -17332,19 +17335,19 @@
         <v>756</v>
       </c>
       <c r="G388">
-        <v>198343598.2887165</v>
+        <v>198338394.7599719</v>
       </c>
       <c r="H388" t="s">
         <v>438</v>
       </c>
       <c r="I388">
-        <v>0.02327253405034033</v>
+        <v>0.02327314461946406</v>
       </c>
       <c r="J388" t="s">
         <v>1035</v>
       </c>
       <c r="K388" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -17367,19 +17370,19 @@
         <v>757</v>
       </c>
       <c r="G389">
-        <v>198343598.2887165</v>
+        <v>198338394.7599719</v>
       </c>
       <c r="H389" t="s">
         <v>438</v>
       </c>
       <c r="I389">
-        <v>0.02105369343521914</v>
+        <v>0.02105424579170615</v>
       </c>
       <c r="J389" t="s">
         <v>843</v>
       </c>
       <c r="K389" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -17402,19 +17405,19 @@
         <v>758</v>
       </c>
       <c r="G390">
-        <v>198343598.2887165</v>
+        <v>198338394.7599719</v>
       </c>
       <c r="H390" t="s">
         <v>438</v>
       </c>
       <c r="I390">
-        <v>0.02091547817837165</v>
+        <v>0.0209160269086971</v>
       </c>
       <c r="J390" t="s">
         <v>1036</v>
       </c>
       <c r="K390" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -17437,19 +17440,19 @@
         <v>759</v>
       </c>
       <c r="G391">
-        <v>198343598.2887165</v>
+        <v>198338394.7599719</v>
       </c>
       <c r="H391" t="s">
         <v>438</v>
       </c>
       <c r="I391">
-        <v>0.01989804816813684</v>
+        <v>0.0198985702055655</v>
       </c>
       <c r="J391" t="s">
         <v>852</v>
       </c>
       <c r="K391" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -17484,7 +17487,7 @@
         <v>1037</v>
       </c>
       <c r="K392" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -17519,7 +17522,7 @@
         <v>1038</v>
       </c>
       <c r="K393" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -17554,7 +17557,7 @@
         <v>1039</v>
       </c>
       <c r="K394" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -17589,7 +17592,7 @@
         <v>870</v>
       </c>
       <c r="K395" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -17624,7 +17627,7 @@
         <v>1040</v>
       </c>
       <c r="K396" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -17659,7 +17662,7 @@
         <v>1041</v>
       </c>
       <c r="K397" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -17694,7 +17697,7 @@
         <v>1042</v>
       </c>
       <c r="K398" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -17729,7 +17732,7 @@
         <v>852</v>
       </c>
       <c r="K399" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -17764,7 +17767,7 @@
         <v>878</v>
       </c>
       <c r="K400" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -17799,7 +17802,7 @@
         <v>1043</v>
       </c>
       <c r="K401" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -17834,7 +17837,7 @@
         <v>852</v>
       </c>
       <c r="K402" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -17869,7 +17872,7 @@
         <v>1044</v>
       </c>
       <c r="K403" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -17904,7 +17907,7 @@
         <v>976</v>
       </c>
       <c r="K404" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -17939,7 +17942,7 @@
         <v>1045</v>
       </c>
       <c r="K405" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -17974,7 +17977,7 @@
         <v>852</v>
       </c>
       <c r="K406" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -18009,7 +18012,7 @@
         <v>1046</v>
       </c>
       <c r="K407" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -18044,7 +18047,7 @@
         <v>852</v>
       </c>
       <c r="K408" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -18079,7 +18082,7 @@
         <v>1047</v>
       </c>
       <c r="K409" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -18114,7 +18117,7 @@
         <v>861</v>
       </c>
       <c r="K410" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -18149,7 +18152,7 @@
         <v>855</v>
       </c>
       <c r="K411" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -18172,19 +18175,19 @@
         <v>776</v>
       </c>
       <c r="G412">
-        <v>487814811.6486213</v>
+        <v>487775928.6186212</v>
       </c>
       <c r="H412" t="s">
         <v>441</v>
       </c>
       <c r="I412">
-        <v>0.143440213789138</v>
+        <v>0.1434516481175022</v>
       </c>
       <c r="J412" t="s">
         <v>969</v>
       </c>
       <c r="K412" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -18207,19 +18210,19 @@
         <v>777</v>
       </c>
       <c r="G413">
-        <v>487814811.6486213</v>
+        <v>487775928.6186212</v>
       </c>
       <c r="H413" t="s">
         <v>441</v>
       </c>
       <c r="I413">
-        <v>0.03875175089221482</v>
+        <v>0.03875483998580082</v>
       </c>
       <c r="J413" t="s">
         <v>968</v>
       </c>
       <c r="K413" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -18242,19 +18245,19 @@
         <v>778</v>
       </c>
       <c r="G414">
-        <v>487814811.6486213</v>
+        <v>487775928.6186212</v>
       </c>
       <c r="H414" t="s">
         <v>441</v>
       </c>
       <c r="I414">
-        <v>0.03790579326128323</v>
+        <v>0.0379088149194055</v>
       </c>
       <c r="J414" t="s">
         <v>1048</v>
       </c>
       <c r="K414" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -18277,19 +18280,19 @@
         <v>779</v>
       </c>
       <c r="G415">
-        <v>487814811.6486213</v>
+        <v>487775928.6186212</v>
       </c>
       <c r="H415" t="s">
         <v>441</v>
       </c>
       <c r="I415">
-        <v>0.03759375361638761</v>
+        <v>0.03759675040028758</v>
       </c>
       <c r="J415" t="s">
         <v>969</v>
       </c>
       <c r="K415" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -18312,19 +18315,19 @@
         <v>632</v>
       </c>
       <c r="G416">
-        <v>487814811.6486213</v>
+        <v>487775928.6186212</v>
       </c>
       <c r="H416" t="s">
         <v>441</v>
       </c>
       <c r="I416">
-        <v>0.03261968365322546</v>
+        <v>0.03262228392942537</v>
       </c>
       <c r="J416" t="s">
         <v>969</v>
       </c>
       <c r="K416" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -18347,19 +18350,19 @@
         <v>780</v>
       </c>
       <c r="G417">
-        <v>487814811.6486213</v>
+        <v>487775928.6186212</v>
       </c>
       <c r="H417" t="s">
         <v>441</v>
       </c>
       <c r="I417">
-        <v>0.03070526138553829</v>
+        <v>0.03070770905367762</v>
       </c>
       <c r="J417" t="s">
         <v>1049</v>
       </c>
       <c r="K417" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -18382,19 +18385,19 @@
         <v>631</v>
       </c>
       <c r="G418">
-        <v>487814811.6486213</v>
+        <v>487775928.6186212</v>
       </c>
       <c r="H418" t="s">
         <v>441</v>
       </c>
       <c r="I418">
-        <v>0.03064733066951833</v>
+        <v>0.03064977371971398</v>
       </c>
       <c r="J418" t="s">
         <v>968</v>
       </c>
       <c r="K418" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -18417,19 +18420,19 @@
         <v>781</v>
       </c>
       <c r="G419">
-        <v>487814811.6486213</v>
+        <v>487775928.6186212</v>
       </c>
       <c r="H419" t="s">
         <v>441</v>
       </c>
       <c r="I419">
-        <v>0.02467493615937945</v>
+        <v>0.02467690312049139</v>
       </c>
       <c r="J419" t="s">
         <v>1049</v>
       </c>
       <c r="K419" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="420" spans="1:11">
@@ -18452,19 +18455,19 @@
         <v>782</v>
       </c>
       <c r="G420">
-        <v>487814811.6486213</v>
+        <v>487775928.6186212</v>
       </c>
       <c r="H420" t="s">
         <v>441</v>
       </c>
       <c r="I420">
-        <v>0.01674307573766852</v>
+        <v>0.0167444104109847</v>
       </c>
       <c r="J420" t="s">
         <v>1049</v>
       </c>
       <c r="K420" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="421" spans="1:11">
@@ -18487,19 +18490,19 @@
         <v>783</v>
       </c>
       <c r="G421">
-        <v>487814811.6486213</v>
+        <v>487775928.6186212</v>
       </c>
       <c r="H421" t="s">
         <v>441</v>
       </c>
       <c r="I421">
-        <v>0.01632096329110825</v>
+        <v>0.01632226431575511</v>
       </c>
       <c r="J421" t="s">
         <v>1050</v>
       </c>
       <c r="K421" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="422" spans="1:11">
@@ -18522,19 +18525,19 @@
         <v>734</v>
       </c>
       <c r="G422">
-        <v>329578188.6987973</v>
+        <v>328941148.022133</v>
       </c>
       <c r="H422" t="s">
         <v>442</v>
       </c>
       <c r="I422">
-        <v>0.1166962296317164</v>
+        <v>0.116922228250423</v>
       </c>
       <c r="J422" t="s">
         <v>928</v>
       </c>
       <c r="K422" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="423" spans="1:11">
@@ -18557,19 +18560,19 @@
         <v>740</v>
       </c>
       <c r="G423">
-        <v>329578188.6987973</v>
+        <v>328941148.022133</v>
       </c>
       <c r="H423" t="s">
         <v>442</v>
       </c>
       <c r="I423">
-        <v>0.06847692260553513</v>
+        <v>0.06860953777203167</v>
       </c>
       <c r="J423" t="s">
         <v>1027</v>
       </c>
       <c r="K423" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="424" spans="1:11">
@@ -18592,19 +18595,19 @@
         <v>577</v>
       </c>
       <c r="G424">
-        <v>329578188.6987973</v>
+        <v>328941148.022133</v>
       </c>
       <c r="H424" t="s">
         <v>442</v>
       </c>
       <c r="I424">
-        <v>0.06523085825211483</v>
+        <v>0.06535718695963647</v>
       </c>
       <c r="J424" t="s">
         <v>930</v>
       </c>
       <c r="K424" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="425" spans="1:11">
@@ -18627,19 +18630,19 @@
         <v>575</v>
       </c>
       <c r="G425">
-        <v>329578188.6987973</v>
+        <v>328941148.022133</v>
       </c>
       <c r="H425" t="s">
         <v>442</v>
       </c>
       <c r="I425">
-        <v>0.05667449858786169</v>
+        <v>0.05678425670461634</v>
       </c>
       <c r="J425" t="s">
         <v>928</v>
       </c>
       <c r="K425" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="426" spans="1:11">
@@ -18662,19 +18665,19 @@
         <v>784</v>
       </c>
       <c r="G426">
-        <v>329578188.6987973</v>
+        <v>328941148.022133</v>
       </c>
       <c r="H426" t="s">
         <v>442</v>
       </c>
       <c r="I426">
-        <v>0.02141725706384938</v>
+        <v>0.0214587345865439</v>
       </c>
       <c r="J426" t="s">
         <v>1051</v>
       </c>
       <c r="K426" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="427" spans="1:11">
@@ -18697,19 +18700,19 @@
         <v>785</v>
       </c>
       <c r="G427">
-        <v>329578188.6987973</v>
+        <v>328941148.022133</v>
       </c>
       <c r="H427" t="s">
         <v>442</v>
       </c>
       <c r="I427">
-        <v>0.01657582842284299</v>
+        <v>0.01660792983982366</v>
       </c>
       <c r="J427" t="s">
         <v>1052</v>
       </c>
       <c r="K427" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="428" spans="1:11">
@@ -18732,19 +18735,19 @@
         <v>786</v>
       </c>
       <c r="G428">
-        <v>329578188.6987973</v>
+        <v>328941148.022133</v>
       </c>
       <c r="H428" t="s">
         <v>442</v>
       </c>
       <c r="I428">
-        <v>0.01231090868678064</v>
+        <v>0.01233475048841396</v>
       </c>
       <c r="J428" t="s">
         <v>1052</v>
       </c>
       <c r="K428" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="429" spans="1:11">
@@ -18767,19 +18770,19 @@
         <v>587</v>
       </c>
       <c r="G429">
-        <v>329578188.6987973</v>
+        <v>328941148.022133</v>
       </c>
       <c r="H429" t="s">
         <v>442</v>
       </c>
       <c r="I429">
-        <v>0.01215497910271148</v>
+        <v>0.01217851892483161</v>
       </c>
       <c r="J429" t="s">
         <v>938</v>
       </c>
       <c r="K429" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="430" spans="1:11">
@@ -18802,19 +18805,19 @@
         <v>510</v>
       </c>
       <c r="G430">
-        <v>329578188.6987973</v>
+        <v>328941148.022133</v>
       </c>
       <c r="H430" t="s">
         <v>442</v>
       </c>
       <c r="I430">
-        <v>0.01087529992400419</v>
+        <v>0.0108963614678827</v>
       </c>
       <c r="J430" t="s">
         <v>888</v>
       </c>
       <c r="K430" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="431" spans="1:11">
@@ -18837,19 +18840,19 @@
         <v>787</v>
       </c>
       <c r="G431">
-        <v>329578188.6987973</v>
+        <v>328941148.022133</v>
       </c>
       <c r="H431" t="s">
         <v>442</v>
       </c>
       <c r="I431">
-        <v>0.01068919864457887</v>
+        <v>0.01070989977722368</v>
       </c>
       <c r="J431" t="s">
         <v>1052</v>
       </c>
       <c r="K431" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="432" spans="1:11">
@@ -18872,19 +18875,19 @@
         <v>788</v>
       </c>
       <c r="G432">
-        <v>995085936.879577</v>
+        <v>994885952.919577</v>
       </c>
       <c r="H432" t="s">
         <v>443</v>
       </c>
       <c r="I432">
-        <v>0.02261047270788594</v>
+        <v>0.0226150176829721</v>
       </c>
       <c r="J432" t="s">
         <v>1053</v>
       </c>
       <c r="K432" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="433" spans="1:11">
@@ -18907,19 +18910,19 @@
         <v>789</v>
       </c>
       <c r="G433">
-        <v>995085936.879577</v>
+        <v>994885952.919577</v>
       </c>
       <c r="H433" t="s">
         <v>443</v>
       </c>
       <c r="I433">
-        <v>0.02136157005999934</v>
+        <v>0.0213658639907357</v>
       </c>
       <c r="J433" t="s">
         <v>1054</v>
       </c>
       <c r="K433" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="434" spans="1:11">
@@ -18942,19 +18945,19 @@
         <v>742</v>
       </c>
       <c r="G434">
-        <v>995085936.879577</v>
+        <v>994885952.919577</v>
       </c>
       <c r="H434" t="s">
         <v>443</v>
       </c>
       <c r="I434">
-        <v>0.01617305830938259</v>
+        <v>0.01617630928728265</v>
       </c>
       <c r="J434" t="s">
         <v>1029</v>
       </c>
       <c r="K434" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="435" spans="1:11">
@@ -18977,19 +18980,19 @@
         <v>740</v>
       </c>
       <c r="G435">
-        <v>995085936.879577</v>
+        <v>994885952.919577</v>
       </c>
       <c r="H435" t="s">
         <v>443</v>
       </c>
       <c r="I435">
-        <v>0.01548455856676119</v>
+        <v>0.01548767114798916</v>
       </c>
       <c r="J435" t="s">
         <v>1027</v>
       </c>
       <c r="K435" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="436" spans="1:11">
@@ -19012,19 +19015,19 @@
         <v>777</v>
       </c>
       <c r="G436">
-        <v>995085936.879577</v>
+        <v>994885952.919577</v>
       </c>
       <c r="H436" t="s">
         <v>443</v>
       </c>
       <c r="I436">
-        <v>0.01459119637183008</v>
+        <v>0.01459412937658606</v>
       </c>
       <c r="J436" t="s">
         <v>968</v>
       </c>
       <c r="K436" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="437" spans="1:11">
@@ -19047,19 +19050,19 @@
         <v>790</v>
       </c>
       <c r="G437">
-        <v>995085936.879577</v>
+        <v>994885952.919577</v>
       </c>
       <c r="H437" t="s">
         <v>443</v>
       </c>
       <c r="I437">
-        <v>0.01426364439300659</v>
+        <v>0.01426651155590237</v>
       </c>
       <c r="J437" t="s">
         <v>852</v>
       </c>
       <c r="K437" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="438" spans="1:11">
@@ -19082,19 +19085,19 @@
         <v>791</v>
       </c>
       <c r="G438">
-        <v>995085936.879577</v>
+        <v>994885952.919577</v>
       </c>
       <c r="H438" t="s">
         <v>443</v>
       </c>
       <c r="I438">
-        <v>0.01376736855002531</v>
+        <v>0.01377013595554886</v>
       </c>
       <c r="J438" t="s">
         <v>1055</v>
       </c>
       <c r="K438" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="439" spans="1:11">
@@ -19117,19 +19120,19 @@
         <v>792</v>
       </c>
       <c r="G439">
-        <v>995085936.879577</v>
+        <v>994885952.919577</v>
       </c>
       <c r="H439" t="s">
         <v>443</v>
       </c>
       <c r="I439">
-        <v>0.01349415964223903</v>
+        <v>0.01349687212950876</v>
       </c>
       <c r="J439" t="s">
         <v>1056</v>
       </c>
       <c r="K439" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="440" spans="1:11">
@@ -19152,19 +19155,19 @@
         <v>793</v>
       </c>
       <c r="G440">
-        <v>995085936.879577</v>
+        <v>994885952.919577</v>
       </c>
       <c r="H440" t="s">
         <v>443</v>
       </c>
       <c r="I440">
-        <v>0.01267727663432133</v>
+        <v>0.01267982491834917</v>
       </c>
       <c r="J440" t="s">
         <v>1057</v>
       </c>
       <c r="K440" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="441" spans="1:11">
@@ -19187,19 +19190,19 @@
         <v>651</v>
       </c>
       <c r="G441">
-        <v>995085936.879577</v>
+        <v>994885952.919577</v>
       </c>
       <c r="H441" t="s">
         <v>443</v>
       </c>
       <c r="I441">
-        <v>0.0125522639278581</v>
+        <v>0.01255478708283873</v>
       </c>
       <c r="J441" t="s">
         <v>979</v>
       </c>
       <c r="K441" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="442" spans="1:11">
@@ -19234,7 +19237,7 @@
         <v>1058</v>
       </c>
       <c r="K442" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="443" spans="1:11">
@@ -19269,7 +19272,7 @@
         <v>1059</v>
       </c>
       <c r="K443" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="444" spans="1:11">
@@ -19304,7 +19307,7 @@
         <v>843</v>
       </c>
       <c r="K444" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="445" spans="1:11">
@@ -19339,7 +19342,7 @@
         <v>878</v>
       </c>
       <c r="K445" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="446" spans="1:11">
@@ -19374,7 +19377,7 @@
         <v>1060</v>
       </c>
       <c r="K446" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="447" spans="1:11">
@@ -19409,7 +19412,7 @@
         <v>1061</v>
       </c>
       <c r="K447" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="448" spans="1:11">
@@ -19444,7 +19447,7 @@
         <v>1062</v>
       </c>
       <c r="K448" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="449" spans="1:11">
@@ -19479,7 +19482,7 @@
         <v>1063</v>
       </c>
       <c r="K449" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="450" spans="1:11">
@@ -19514,7 +19517,7 @@
         <v>976</v>
       </c>
       <c r="K450" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="451" spans="1:11">
@@ -19549,7 +19552,7 @@
         <v>1064</v>
       </c>
       <c r="K451" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="452" spans="1:11">
@@ -19572,19 +19575,19 @@
         <v>788</v>
       </c>
       <c r="G452">
-        <v>2877691473.031536</v>
+        <v>2877615728.941536</v>
       </c>
       <c r="H452" t="s">
         <v>445</v>
       </c>
       <c r="I452">
-        <v>0.1797007097668145</v>
+        <v>0.1797054398169726</v>
       </c>
       <c r="J452" t="s">
         <v>1053</v>
       </c>
       <c r="K452" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="453" spans="1:11">
@@ -19607,19 +19610,19 @@
         <v>541</v>
       </c>
       <c r="G453">
-        <v>2877691473.031536</v>
+        <v>2877615728.941536</v>
       </c>
       <c r="H453" t="s">
         <v>445</v>
       </c>
       <c r="I453">
-        <v>0.0236141294291985</v>
+        <v>0.02361475099611821</v>
       </c>
       <c r="J453" t="s">
         <v>846</v>
       </c>
       <c r="K453" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="454" spans="1:11">
@@ -19642,19 +19645,19 @@
         <v>804</v>
       </c>
       <c r="G454">
-        <v>2877691473.031536</v>
+        <v>2877615728.941536</v>
       </c>
       <c r="H454" t="s">
         <v>445</v>
       </c>
       <c r="I454">
-        <v>0.01761702509591316</v>
+        <v>0.01761748880811802</v>
       </c>
       <c r="J454" t="s">
         <v>1065</v>
       </c>
       <c r="K454" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="455" spans="1:11">
@@ -19677,19 +19680,19 @@
         <v>805</v>
       </c>
       <c r="G455">
-        <v>2877691473.031536</v>
+        <v>2877615728.941536</v>
       </c>
       <c r="H455" t="s">
         <v>445</v>
       </c>
       <c r="I455">
-        <v>0.01734547793287532</v>
+        <v>0.017345934497464</v>
       </c>
       <c r="J455" t="s">
         <v>852</v>
       </c>
       <c r="K455" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="456" spans="1:11">
@@ -19712,19 +19715,19 @@
         <v>546</v>
       </c>
       <c r="G456">
-        <v>2877691473.031536</v>
+        <v>2877615728.941536</v>
       </c>
       <c r="H456" t="s">
         <v>445</v>
       </c>
       <c r="I456">
-        <v>0.01711263358617413</v>
+        <v>0.01711308402187528</v>
       </c>
       <c r="J456" t="s">
         <v>909</v>
       </c>
       <c r="K456" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="457" spans="1:11">
@@ -19747,19 +19750,19 @@
         <v>578</v>
       </c>
       <c r="G457">
-        <v>2877691473.031536</v>
+        <v>2877615728.941536</v>
       </c>
       <c r="H457" t="s">
         <v>445</v>
       </c>
       <c r="I457">
-        <v>0.01578681541223171</v>
+        <v>0.01578723094998242</v>
       </c>
       <c r="J457" t="s">
         <v>931</v>
       </c>
       <c r="K457" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="458" spans="1:11">
@@ -19782,19 +19785,19 @@
         <v>806</v>
       </c>
       <c r="G458">
-        <v>2877691473.031536</v>
+        <v>2877615728.941536</v>
       </c>
       <c r="H458" t="s">
         <v>445</v>
       </c>
       <c r="I458">
-        <v>0.01553215227124856</v>
+        <v>0.01553256110580131</v>
       </c>
       <c r="J458" t="s">
         <v>932</v>
       </c>
       <c r="K458" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="459" spans="1:11">
@@ -19817,19 +19820,19 @@
         <v>807</v>
       </c>
       <c r="G459">
-        <v>2877691473.031536</v>
+        <v>2877615728.941536</v>
       </c>
       <c r="H459" t="s">
         <v>445</v>
       </c>
       <c r="I459">
-        <v>0.01423697313730985</v>
+        <v>0.01423734788038753</v>
       </c>
       <c r="J459" t="s">
         <v>1066</v>
       </c>
       <c r="K459" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="460" spans="1:11">
@@ -19852,19 +19855,19 @@
         <v>808</v>
       </c>
       <c r="G460">
-        <v>2877691473.031536</v>
+        <v>2877615728.941536</v>
       </c>
       <c r="H460" t="s">
         <v>445</v>
       </c>
       <c r="I460">
-        <v>0.01325912811968931</v>
+        <v>0.01325947712410415</v>
       </c>
       <c r="J460" t="s">
         <v>1067</v>
       </c>
       <c r="K460" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="461" spans="1:11">
@@ -19887,19 +19890,19 @@
         <v>809</v>
       </c>
       <c r="G461">
-        <v>2877691473.031536</v>
+        <v>2877615728.941536</v>
       </c>
       <c r="H461" t="s">
         <v>445</v>
       </c>
       <c r="I461">
-        <v>0.01294622502627821</v>
+        <v>0.01294656579451341</v>
       </c>
       <c r="J461" t="s">
         <v>878</v>
       </c>
       <c r="K461" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="462" spans="1:11">
@@ -19922,19 +19925,19 @@
         <v>810</v>
       </c>
       <c r="G462">
-        <v>227102444.08</v>
+        <v>245974762.03</v>
       </c>
       <c r="H462" t="s">
         <v>446</v>
       </c>
       <c r="I462">
-        <v>0.2388191506247923</v>
+        <v>0.2204958441768311</v>
       </c>
       <c r="J462" t="s">
         <v>953</v>
       </c>
       <c r="K462" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="463" spans="1:11">
@@ -19957,19 +19960,19 @@
         <v>811</v>
       </c>
       <c r="G463">
-        <v>227102444.08</v>
+        <v>245974762.03</v>
       </c>
       <c r="H463" t="s">
         <v>446</v>
       </c>
       <c r="I463">
-        <v>0.1337103786047462</v>
+        <v>0.1234515018101591</v>
       </c>
       <c r="J463" t="s">
         <v>855</v>
       </c>
       <c r="K463" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="464" spans="1:11">
@@ -19992,19 +19995,19 @@
         <v>812</v>
       </c>
       <c r="G464">
-        <v>227102444.08</v>
+        <v>245974762.03</v>
       </c>
       <c r="H464" t="s">
         <v>446</v>
       </c>
       <c r="I464">
-        <v>0.07068099498015758</v>
+        <v>0.06525802313020333</v>
       </c>
       <c r="J464" t="s">
         <v>852</v>
       </c>
       <c r="K464" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="465" spans="1:11">
@@ -20027,19 +20030,19 @@
         <v>813</v>
       </c>
       <c r="G465">
-        <v>227102444.08</v>
+        <v>245974762.03</v>
       </c>
       <c r="H465" t="s">
         <v>446</v>
       </c>
       <c r="I465">
-        <v>0.06752088442781499</v>
+        <v>0.06234037083093016</v>
       </c>
       <c r="J465" t="s">
         <v>1052</v>
       </c>
       <c r="K465" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="466" spans="1:11">
@@ -20062,19 +20065,19 @@
         <v>814</v>
       </c>
       <c r="G466">
-        <v>227102444.08</v>
+        <v>245974762.03</v>
       </c>
       <c r="H466" t="s">
         <v>446</v>
       </c>
       <c r="I466">
-        <v>0.05253339592328354</v>
+        <v>0.04850279155283791</v>
       </c>
       <c r="J466" t="s">
         <v>843</v>
       </c>
       <c r="K466" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="467" spans="1:11">
@@ -20088,28 +20091,28 @@
         <v>446</v>
       </c>
       <c r="D467">
-        <v>9339568.16</v>
+        <v>10482272.48</v>
       </c>
       <c r="E467">
-        <v>620342</v>
+        <v>902131</v>
       </c>
       <c r="F467" t="s">
         <v>815</v>
       </c>
       <c r="G467">
-        <v>227102444.08</v>
+        <v>245974762.03</v>
       </c>
       <c r="H467" t="s">
         <v>446</v>
       </c>
       <c r="I467">
-        <v>0.04112491258222658</v>
+        <v>0.04261523578065925</v>
       </c>
       <c r="J467" t="s">
-        <v>1052</v>
+        <v>1068</v>
       </c>
       <c r="K467" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="468" spans="1:11">
@@ -20123,28 +20126,28 @@
         <v>446</v>
       </c>
       <c r="D468">
-        <v>9158449.74</v>
+        <v>9339568.16</v>
       </c>
       <c r="E468">
-        <v>640399</v>
+        <v>620342</v>
       </c>
       <c r="F468" t="s">
         <v>816</v>
       </c>
       <c r="G468">
-        <v>227102444.08</v>
+        <v>245974762.03</v>
       </c>
       <c r="H468" t="s">
         <v>446</v>
       </c>
       <c r="I468">
-        <v>0.04032739399657807</v>
+        <v>0.03796961965903198</v>
       </c>
       <c r="J468" t="s">
-        <v>954</v>
+        <v>1052</v>
       </c>
       <c r="K468" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="469" spans="1:11">
@@ -20158,28 +20161,28 @@
         <v>446</v>
       </c>
       <c r="D469">
-        <v>9076489.529999999</v>
+        <v>9158449.74</v>
       </c>
       <c r="E469">
-        <v>870321</v>
+        <v>640399</v>
       </c>
       <c r="F469" t="s">
         <v>817</v>
       </c>
       <c r="G469">
-        <v>227102444.08</v>
+        <v>245974762.03</v>
       </c>
       <c r="H469" t="s">
         <v>446</v>
       </c>
       <c r="I469">
-        <v>0.03996649867318328</v>
+        <v>0.03723329037668914</v>
       </c>
       <c r="J469" t="s">
-        <v>1068</v>
+        <v>954</v>
       </c>
       <c r="K469" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="470" spans="1:11">
@@ -20193,28 +20196,28 @@
         <v>446</v>
       </c>
       <c r="D470">
-        <v>7156837.14</v>
+        <v>9076489.529999999</v>
       </c>
       <c r="E470">
-        <v>640399</v>
+        <v>870321</v>
       </c>
       <c r="F470" t="s">
         <v>818</v>
       </c>
       <c r="G470">
-        <v>227102444.08</v>
+        <v>245974762.03</v>
       </c>
       <c r="H470" t="s">
         <v>446</v>
       </c>
       <c r="I470">
-        <v>0.03151369492738221</v>
+        <v>0.0369000846066191</v>
       </c>
       <c r="J470" t="s">
-        <v>969</v>
+        <v>1069</v>
       </c>
       <c r="K470" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="471" spans="1:11">
@@ -20228,28 +20231,28 @@
         <v>446</v>
       </c>
       <c r="D471">
-        <v>5376943.76</v>
+        <v>7156837.14</v>
       </c>
       <c r="E471">
-        <v>870332</v>
+        <v>640399</v>
       </c>
       <c r="F471" t="s">
         <v>819</v>
       </c>
       <c r="G471">
-        <v>227102444.08</v>
+        <v>245974762.03</v>
       </c>
       <c r="H471" t="s">
         <v>446</v>
       </c>
       <c r="I471">
-        <v>0.02367629191214647</v>
+        <v>0.02909581894067297</v>
       </c>
       <c r="J471" t="s">
-        <v>852</v>
+        <v>969</v>
       </c>
       <c r="K471" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="472" spans="1:11">
@@ -20284,7 +20287,7 @@
         <v>895</v>
       </c>
       <c r="K472" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="473" spans="1:11">
@@ -20316,10 +20319,10 @@
         <v>0.04859264477684545</v>
       </c>
       <c r="J473" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="K473" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="474" spans="1:11">
@@ -20354,7 +20357,7 @@
         <v>974</v>
       </c>
       <c r="K474" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="475" spans="1:11">
@@ -20389,7 +20392,7 @@
         <v>933</v>
       </c>
       <c r="K475" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="476" spans="1:11">
@@ -20424,7 +20427,7 @@
         <v>910</v>
       </c>
       <c r="K476" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="477" spans="1:11">
@@ -20456,10 +20459,10 @@
         <v>0.02986266137775353</v>
       </c>
       <c r="J477" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="K477" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="478" spans="1:11">
@@ -20494,7 +20497,7 @@
         <v>852</v>
       </c>
       <c r="K478" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="479" spans="1:11">
@@ -20529,7 +20532,7 @@
         <v>852</v>
       </c>
       <c r="K479" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="480" spans="1:11">
@@ -20561,10 +20564,10 @@
         <v>0.02495097738729056</v>
       </c>
       <c r="J480" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="K480" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="481" spans="1:11">
@@ -20599,7 +20602,7 @@
         <v>855</v>
       </c>
       <c r="K481" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="482" spans="1:11">
@@ -20634,7 +20637,7 @@
         <v>1012</v>
       </c>
       <c r="K482" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="483" spans="1:11">
@@ -20669,7 +20672,7 @@
         <v>852</v>
       </c>
       <c r="K483" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="484" spans="1:11">
@@ -20701,10 +20704,10 @@
         <v>0.04679130952631538</v>
       </c>
       <c r="J484" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="K484" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="485" spans="1:11">
@@ -20736,10 +20739,10 @@
         <v>0.03930805018252153</v>
       </c>
       <c r="J485" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="K485" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="486" spans="1:11">
@@ -20774,7 +20777,7 @@
         <v>878</v>
       </c>
       <c r="K486" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="487" spans="1:11">
@@ -20809,7 +20812,7 @@
         <v>891</v>
       </c>
       <c r="K487" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="488" spans="1:11">
@@ -20841,10 +20844,10 @@
         <v>0.02742166295432743</v>
       </c>
       <c r="J488" t="s">
-        <v>986</v>
+        <v>1068</v>
       </c>
       <c r="K488" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="489" spans="1:11">
@@ -20876,10 +20879,10 @@
         <v>0.01982578838987697</v>
       </c>
       <c r="J489" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="K489" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="490" spans="1:11">
@@ -20911,10 +20914,10 @@
         <v>0.01521781724783618</v>
       </c>
       <c r="J490" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="K490" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="491" spans="1:11">
@@ -20946,10 +20949,10 @@
         <v>0.01474894850262917</v>
       </c>
       <c r="J491" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="K491" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="492" spans="1:11">
@@ -20972,19 +20975,19 @@
         <v>833</v>
       </c>
       <c r="G492">
-        <v>977409753.7828077</v>
+        <v>977196482.2235805</v>
       </c>
       <c r="H492" t="s">
         <v>449</v>
       </c>
       <c r="I492">
-        <v>0.1451299655857932</v>
+        <v>0.1451616399671629</v>
       </c>
       <c r="J492" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="K492" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="493" spans="1:11">
@@ -21007,19 +21010,19 @@
         <v>526</v>
       </c>
       <c r="G493">
-        <v>977409753.7828077</v>
+        <v>977196482.2235805</v>
       </c>
       <c r="H493" t="s">
         <v>449</v>
       </c>
       <c r="I493">
-        <v>0.04923329051010774</v>
+        <v>0.04924403559650949</v>
       </c>
       <c r="J493" t="s">
         <v>852</v>
       </c>
       <c r="K493" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="494" spans="1:11">
@@ -21042,19 +21045,19 @@
         <v>834</v>
       </c>
       <c r="G494">
-        <v>977409753.7828077</v>
+        <v>977196482.2235805</v>
       </c>
       <c r="H494" t="s">
         <v>449</v>
       </c>
       <c r="I494">
-        <v>0.02406210784082808</v>
+        <v>0.02406735935713095</v>
       </c>
       <c r="J494" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="K494" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="495" spans="1:11">
@@ -21077,19 +21080,19 @@
         <v>741</v>
       </c>
       <c r="G495">
-        <v>977409753.7828077</v>
+        <v>977196482.2235805</v>
       </c>
       <c r="H495" t="s">
         <v>449</v>
       </c>
       <c r="I495">
-        <v>0.02290057300482622</v>
+        <v>0.02290557101802089</v>
       </c>
       <c r="J495" t="s">
         <v>1028</v>
       </c>
       <c r="K495" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="496" spans="1:11">
@@ -21112,19 +21115,19 @@
         <v>578</v>
       </c>
       <c r="G496">
-        <v>977409753.7828077</v>
+        <v>977196482.2235805</v>
       </c>
       <c r="H496" t="s">
         <v>449</v>
       </c>
       <c r="I496">
-        <v>0.01868072336778695</v>
+        <v>0.01868480040559113</v>
       </c>
       <c r="J496" t="s">
         <v>931</v>
       </c>
       <c r="K496" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="497" spans="1:11">
@@ -21147,19 +21150,19 @@
         <v>835</v>
       </c>
       <c r="G497">
-        <v>977409753.7828077</v>
+        <v>977196482.2235805</v>
       </c>
       <c r="H497" t="s">
         <v>449</v>
       </c>
       <c r="I497">
-        <v>0.01847675213245672</v>
+        <v>0.01848078465386713</v>
       </c>
       <c r="J497" t="s">
         <v>897</v>
       </c>
       <c r="K497" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="498" spans="1:11">
@@ -21182,19 +21185,19 @@
         <v>836</v>
       </c>
       <c r="G498">
-        <v>977409753.7828077</v>
+        <v>977196482.2235805</v>
       </c>
       <c r="H498" t="s">
         <v>449</v>
       </c>
       <c r="I498">
-        <v>0.01555736938339496</v>
+        <v>0.0155607647542198</v>
       </c>
       <c r="J498" t="s">
         <v>957</v>
       </c>
       <c r="K498" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="499" spans="1:11">
@@ -21217,19 +21220,19 @@
         <v>837</v>
       </c>
       <c r="G499">
-        <v>977409753.7828077</v>
+        <v>977196482.2235805</v>
       </c>
       <c r="H499" t="s">
         <v>449</v>
       </c>
       <c r="I499">
-        <v>0.01463636043149546</v>
+        <v>0.01463955479359911</v>
       </c>
       <c r="J499" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="K499" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="500" spans="1:11">
@@ -21252,19 +21255,19 @@
         <v>838</v>
       </c>
       <c r="G500">
-        <v>977409753.7828077</v>
+        <v>977196482.2235805</v>
       </c>
       <c r="H500" t="s">
         <v>449</v>
       </c>
       <c r="I500">
-        <v>0.01458736675769041</v>
+        <v>0.01459055042700362</v>
       </c>
       <c r="J500" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="K500" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="501" spans="1:11">
@@ -21287,19 +21290,19 @@
         <v>839</v>
       </c>
       <c r="G501">
-        <v>977409753.7828077</v>
+        <v>977196482.2235805</v>
       </c>
       <c r="H501" t="s">
         <v>449</v>
       </c>
       <c r="I501">
-        <v>0.01430546551221922</v>
+        <v>0.01430858765703939</v>
       </c>
       <c r="J501" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="K501" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/data/resultados/top10_impo_ci.xlsx
+++ b/scripts/data/resultados/top10_impo_ci.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="1120">
   <si>
     <t>hs6_d12</t>
   </si>
@@ -3314,6 +3314,9 @@
   </si>
   <si>
     <t>Maquinaria de oficina</t>
+  </si>
+  <si>
+    <t>Maquinaria n.c.p.</t>
   </si>
   <si>
     <t>Maquinaria y equipo</t>
@@ -14298,7 +14301,7 @@
         <v>994</v>
       </c>
       <c r="K302" t="s">
-        <v>426</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="303" spans="1:11">
@@ -14333,7 +14336,7 @@
         <v>855</v>
       </c>
       <c r="K303" t="s">
-        <v>426</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="304" spans="1:11">
@@ -14368,7 +14371,7 @@
         <v>988</v>
       </c>
       <c r="K304" t="s">
-        <v>426</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="305" spans="1:11">
@@ -14403,7 +14406,7 @@
         <v>996</v>
       </c>
       <c r="K305" t="s">
-        <v>426</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="306" spans="1:11">
@@ -14438,7 +14441,7 @@
         <v>834</v>
       </c>
       <c r="K306" t="s">
-        <v>426</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="307" spans="1:11">
@@ -14473,7 +14476,7 @@
         <v>834</v>
       </c>
       <c r="K307" t="s">
-        <v>426</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="308" spans="1:11">
@@ -14508,7 +14511,7 @@
         <v>883</v>
       </c>
       <c r="K308" t="s">
-        <v>426</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="309" spans="1:11">
@@ -14543,7 +14546,7 @@
         <v>866</v>
       </c>
       <c r="K309" t="s">
-        <v>426</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="310" spans="1:11">
@@ -14578,7 +14581,7 @@
         <v>837</v>
       </c>
       <c r="K310" t="s">
-        <v>426</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="311" spans="1:11">
@@ -14613,7 +14616,7 @@
         <v>983</v>
       </c>
       <c r="K311" t="s">
-        <v>426</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="312" spans="1:11">
@@ -14648,7 +14651,7 @@
         <v>978</v>
       </c>
       <c r="K312" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="313" spans="1:11">
@@ -14683,7 +14686,7 @@
         <v>837</v>
       </c>
       <c r="K313" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="314" spans="1:11">
@@ -14718,7 +14721,7 @@
         <v>847</v>
       </c>
       <c r="K314" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="315" spans="1:11">
@@ -14753,7 +14756,7 @@
         <v>983</v>
       </c>
       <c r="K315" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="316" spans="1:11">
@@ -14788,7 +14791,7 @@
         <v>852</v>
       </c>
       <c r="K316" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="317" spans="1:11">
@@ -14823,7 +14826,7 @@
         <v>978</v>
       </c>
       <c r="K317" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="318" spans="1:11">
@@ -14858,7 +14861,7 @@
         <v>974</v>
       </c>
       <c r="K318" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="319" spans="1:11">
@@ -14893,7 +14896,7 @@
         <v>997</v>
       </c>
       <c r="K319" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="320" spans="1:11">
@@ -14928,7 +14931,7 @@
         <v>998</v>
       </c>
       <c r="K320" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="321" spans="1:11">
@@ -14963,7 +14966,7 @@
         <v>855</v>
       </c>
       <c r="K321" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="322" spans="1:11">
@@ -14998,7 +15001,7 @@
         <v>843</v>
       </c>
       <c r="K322" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="323" spans="1:11">
@@ -15033,7 +15036,7 @@
         <v>999</v>
       </c>
       <c r="K323" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="324" spans="1:11">
@@ -15068,7 +15071,7 @@
         <v>1000</v>
       </c>
       <c r="K324" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="325" spans="1:11">
@@ -15103,7 +15106,7 @@
         <v>847</v>
       </c>
       <c r="K325" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="326" spans="1:11">
@@ -15138,7 +15141,7 @@
         <v>1001</v>
       </c>
       <c r="K326" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="327" spans="1:11">
@@ -15173,7 +15176,7 @@
         <v>847</v>
       </c>
       <c r="K327" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="328" spans="1:11">
@@ -15208,7 +15211,7 @@
         <v>843</v>
       </c>
       <c r="K328" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="329" spans="1:11">
@@ -15243,7 +15246,7 @@
         <v>985</v>
       </c>
       <c r="K329" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="330" spans="1:11">
@@ -15278,7 +15281,7 @@
         <v>843</v>
       </c>
       <c r="K330" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="331" spans="1:11">
@@ -15313,7 +15316,7 @@
         <v>1001</v>
       </c>
       <c r="K331" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="332" spans="1:11">
@@ -15348,7 +15351,7 @@
         <v>1002</v>
       </c>
       <c r="K332" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="333" spans="1:11">
@@ -15383,7 +15386,7 @@
         <v>957</v>
       </c>
       <c r="K333" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="334" spans="1:11">
@@ -15418,7 +15421,7 @@
         <v>955</v>
       </c>
       <c r="K334" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="335" spans="1:11">
@@ -15453,7 +15456,7 @@
         <v>1002</v>
       </c>
       <c r="K335" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="336" spans="1:11">
@@ -15488,7 +15491,7 @@
         <v>1003</v>
       </c>
       <c r="K336" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="337" spans="1:11">
@@ -15523,7 +15526,7 @@
         <v>1004</v>
       </c>
       <c r="K337" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="338" spans="1:11">
@@ -15558,7 +15561,7 @@
         <v>1000</v>
       </c>
       <c r="K338" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="339" spans="1:11">
@@ -15593,7 +15596,7 @@
         <v>1005</v>
       </c>
       <c r="K339" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="340" spans="1:11">
@@ -15628,7 +15631,7 @@
         <v>1006</v>
       </c>
       <c r="K340" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="341" spans="1:11">
@@ -15663,7 +15666,7 @@
         <v>960</v>
       </c>
       <c r="K341" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="342" spans="1:11">
@@ -15698,7 +15701,7 @@
         <v>855</v>
       </c>
       <c r="K342" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="343" spans="1:11">
@@ -15733,7 +15736,7 @@
         <v>843</v>
       </c>
       <c r="K343" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="344" spans="1:11">
@@ -15768,7 +15771,7 @@
         <v>843</v>
       </c>
       <c r="K344" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="345" spans="1:11">
@@ -15803,7 +15806,7 @@
         <v>847</v>
       </c>
       <c r="K345" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="346" spans="1:11">
@@ -15838,7 +15841,7 @@
         <v>1007</v>
       </c>
       <c r="K346" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="347" spans="1:11">
@@ -15873,7 +15876,7 @@
         <v>1008</v>
       </c>
       <c r="K347" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="348" spans="1:11">
@@ -15908,7 +15911,7 @@
         <v>1009</v>
       </c>
       <c r="K348" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="349" spans="1:11">
@@ -15943,7 +15946,7 @@
         <v>1010</v>
       </c>
       <c r="K349" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="350" spans="1:11">
@@ -15978,7 +15981,7 @@
         <v>949</v>
       </c>
       <c r="K350" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="351" spans="1:11">
@@ -16013,7 +16016,7 @@
         <v>834</v>
       </c>
       <c r="K351" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="352" spans="1:11">
@@ -16048,7 +16051,7 @@
         <v>962</v>
       </c>
       <c r="K352" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="353" spans="1:11">
@@ -16083,7 +16086,7 @@
         <v>1011</v>
       </c>
       <c r="K353" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="354" spans="1:11">
@@ -16118,7 +16121,7 @@
         <v>962</v>
       </c>
       <c r="K354" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="355" spans="1:11">
@@ -16153,7 +16156,7 @@
         <v>1012</v>
       </c>
       <c r="K355" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="356" spans="1:11">
@@ -16188,7 +16191,7 @@
         <v>901</v>
       </c>
       <c r="K356" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="357" spans="1:11">
@@ -16223,7 +16226,7 @@
         <v>1013</v>
       </c>
       <c r="K357" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="358" spans="1:11">
@@ -16258,7 +16261,7 @@
         <v>1014</v>
       </c>
       <c r="K358" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="359" spans="1:11">
@@ -16293,7 +16296,7 @@
         <v>851</v>
       </c>
       <c r="K359" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="360" spans="1:11">
@@ -16328,7 +16331,7 @@
         <v>1015</v>
       </c>
       <c r="K360" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="361" spans="1:11">
@@ -16363,7 +16366,7 @@
         <v>1016</v>
       </c>
       <c r="K361" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="362" spans="1:11">
@@ -16398,7 +16401,7 @@
         <v>855</v>
       </c>
       <c r="K362" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="363" spans="1:11">
@@ -16433,7 +16436,7 @@
         <v>855</v>
       </c>
       <c r="K363" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="364" spans="1:11">
@@ -16468,7 +16471,7 @@
         <v>855</v>
       </c>
       <c r="K364" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="365" spans="1:11">
@@ -16503,7 +16506,7 @@
         <v>924</v>
       </c>
       <c r="K365" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="366" spans="1:11">
@@ -16538,7 +16541,7 @@
         <v>1017</v>
       </c>
       <c r="K366" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="367" spans="1:11">
@@ -16573,7 +16576,7 @@
         <v>855</v>
       </c>
       <c r="K367" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="368" spans="1:11">
@@ -16608,7 +16611,7 @@
         <v>1018</v>
       </c>
       <c r="K368" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="369" spans="1:11">
@@ -16643,7 +16646,7 @@
         <v>855</v>
       </c>
       <c r="K369" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="370" spans="1:11">
@@ -16678,7 +16681,7 @@
         <v>1019</v>
       </c>
       <c r="K370" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="371" spans="1:11">
@@ -16713,7 +16716,7 @@
         <v>999</v>
       </c>
       <c r="K371" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="372" spans="1:11">
@@ -16748,7 +16751,7 @@
         <v>888</v>
       </c>
       <c r="K372" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="373" spans="1:11">
@@ -16783,7 +16786,7 @@
         <v>843</v>
       </c>
       <c r="K373" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="374" spans="1:11">
@@ -16818,7 +16821,7 @@
         <v>1020</v>
       </c>
       <c r="K374" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="375" spans="1:11">
@@ -16853,7 +16856,7 @@
         <v>956</v>
       </c>
       <c r="K375" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="376" spans="1:11">
@@ -16888,7 +16891,7 @@
         <v>937</v>
       </c>
       <c r="K376" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="377" spans="1:11">
@@ -16923,7 +16926,7 @@
         <v>966</v>
       </c>
       <c r="K377" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="378" spans="1:11">
@@ -16958,7 +16961,7 @@
         <v>1021</v>
       </c>
       <c r="K378" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="379" spans="1:11">
@@ -16993,7 +16996,7 @@
         <v>978</v>
       </c>
       <c r="K379" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="380" spans="1:11">
@@ -17028,7 +17031,7 @@
         <v>968</v>
       </c>
       <c r="K380" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="381" spans="1:11">
@@ -17063,7 +17066,7 @@
         <v>1022</v>
       </c>
       <c r="K381" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="382" spans="1:11">
@@ -17098,7 +17101,7 @@
         <v>1013</v>
       </c>
       <c r="K382" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="383" spans="1:11">
@@ -17133,7 +17136,7 @@
         <v>1023</v>
       </c>
       <c r="K383" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="384" spans="1:11">
@@ -17168,7 +17171,7 @@
         <v>1023</v>
       </c>
       <c r="K384" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="385" spans="1:11">
@@ -17203,7 +17206,7 @@
         <v>855</v>
       </c>
       <c r="K385" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="386" spans="1:11">
@@ -17238,7 +17241,7 @@
         <v>1024</v>
       </c>
       <c r="K386" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="387" spans="1:11">
@@ -17273,7 +17276,7 @@
         <v>853</v>
       </c>
       <c r="K387" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="388" spans="1:11">
@@ -17308,7 +17311,7 @@
         <v>834</v>
       </c>
       <c r="K388" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="389" spans="1:11">
@@ -17343,7 +17346,7 @@
         <v>1023</v>
       </c>
       <c r="K389" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="390" spans="1:11">
@@ -17378,7 +17381,7 @@
         <v>1025</v>
       </c>
       <c r="K390" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="391" spans="1:11">
@@ -17413,7 +17416,7 @@
         <v>855</v>
       </c>
       <c r="K391" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="392" spans="1:11">
@@ -17448,7 +17451,7 @@
         <v>1026</v>
       </c>
       <c r="K392" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="393" spans="1:11">
@@ -17483,7 +17486,7 @@
         <v>1027</v>
       </c>
       <c r="K393" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="394" spans="1:11">
@@ -17518,7 +17521,7 @@
         <v>861</v>
       </c>
       <c r="K394" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="395" spans="1:11">
@@ -17553,7 +17556,7 @@
         <v>895</v>
       </c>
       <c r="K395" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="396" spans="1:11">
@@ -17588,7 +17591,7 @@
         <v>1028</v>
       </c>
       <c r="K396" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="397" spans="1:11">
@@ -17623,7 +17626,7 @@
         <v>1029</v>
       </c>
       <c r="K397" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="398" spans="1:11">
@@ -17658,7 +17661,7 @@
         <v>855</v>
       </c>
       <c r="K398" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="399" spans="1:11">
@@ -17693,7 +17696,7 @@
         <v>847</v>
       </c>
       <c r="K399" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="400" spans="1:11">
@@ -17728,7 +17731,7 @@
         <v>1030</v>
       </c>
       <c r="K400" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="401" spans="1:11">
@@ -17763,7 +17766,7 @@
         <v>1031</v>
       </c>
       <c r="K401" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="402" spans="1:11">
@@ -17798,7 +17801,7 @@
         <v>855</v>
       </c>
       <c r="K402" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="403" spans="1:11">
@@ -17833,7 +17836,7 @@
         <v>960</v>
       </c>
       <c r="K403" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="404" spans="1:11">
@@ -17868,7 +17871,7 @@
         <v>855</v>
       </c>
       <c r="K404" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="405" spans="1:11">
@@ -17903,7 +17906,7 @@
         <v>1032</v>
       </c>
       <c r="K405" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="406" spans="1:11">
@@ -17938,7 +17941,7 @@
         <v>1033</v>
       </c>
       <c r="K406" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="407" spans="1:11">
@@ -17973,7 +17976,7 @@
         <v>1034</v>
       </c>
       <c r="K407" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="408" spans="1:11">
@@ -18008,7 +18011,7 @@
         <v>855</v>
       </c>
       <c r="K408" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="409" spans="1:11">
@@ -18043,7 +18046,7 @@
         <v>1035</v>
       </c>
       <c r="K409" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="410" spans="1:11">
@@ -18078,7 +18081,7 @@
         <v>853</v>
       </c>
       <c r="K410" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="411" spans="1:11">
@@ -18113,7 +18116,7 @@
         <v>843</v>
       </c>
       <c r="K411" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="412" spans="1:11">
@@ -18148,7 +18151,7 @@
         <v>953</v>
       </c>
       <c r="K412" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="413" spans="1:11">
@@ -18183,7 +18186,7 @@
         <v>1036</v>
       </c>
       <c r="K413" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="414" spans="1:11">
@@ -18218,7 +18221,7 @@
         <v>890</v>
       </c>
       <c r="K414" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="415" spans="1:11">
@@ -18253,7 +18256,7 @@
         <v>953</v>
       </c>
       <c r="K415" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="416" spans="1:11">
@@ -18288,7 +18291,7 @@
         <v>953</v>
       </c>
       <c r="K416" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="417" spans="1:11">
@@ -18323,7 +18326,7 @@
         <v>1037</v>
       </c>
       <c r="K417" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="418" spans="1:11">
@@ -18358,7 +18361,7 @@
         <v>890</v>
       </c>
       <c r="K418" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="419" spans="1:11">
@@ -18393,7 +18396,7 @@
         <v>1037</v>
       </c>
       <c r="K419" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="420" spans="1:11">
@@ -18428,7 +18431,7 @@
         <v>1037</v>
       </c>
       <c r="K420" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="421" spans="1:11">
@@ -18463,7 +18466,7 @@
         <v>1038</v>
       </c>
       <c r="K421" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="422" spans="1:11">
@@ -18498,7 +18501,7 @@
         <v>962</v>
       </c>
       <c r="K422" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="423" spans="1:11">
@@ -18533,7 +18536,7 @@
         <v>1016</v>
       </c>
       <c r="K423" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="424" spans="1:11">
@@ -18568,7 +18571,7 @@
         <v>1011</v>
       </c>
       <c r="K424" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="425" spans="1:11">
@@ -18603,7 +18606,7 @@
         <v>962</v>
       </c>
       <c r="K425" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="426" spans="1:11">
@@ -18638,7 +18641,7 @@
         <v>1039</v>
       </c>
       <c r="K426" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="427" spans="1:11">
@@ -18673,7 +18676,7 @@
         <v>1039</v>
       </c>
       <c r="K427" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="428" spans="1:11">
@@ -18708,7 +18711,7 @@
         <v>1039</v>
       </c>
       <c r="K428" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="429" spans="1:11">
@@ -18743,7 +18746,7 @@
         <v>929</v>
       </c>
       <c r="K429" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="430" spans="1:11">
@@ -18778,7 +18781,7 @@
         <v>1040</v>
       </c>
       <c r="K430" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="431" spans="1:11">
@@ -18813,7 +18816,7 @@
         <v>1039</v>
       </c>
       <c r="K431" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="432" spans="1:11">
@@ -18848,7 +18851,7 @@
         <v>1041</v>
       </c>
       <c r="K432" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="433" spans="1:11">
@@ -18883,7 +18886,7 @@
         <v>1042</v>
       </c>
       <c r="K433" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="434" spans="1:11">
@@ -18918,7 +18921,7 @@
         <v>924</v>
       </c>
       <c r="K434" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="435" spans="1:11">
@@ -18953,7 +18956,7 @@
         <v>1018</v>
       </c>
       <c r="K435" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="436" spans="1:11">
@@ -18988,7 +18991,7 @@
         <v>1016</v>
       </c>
       <c r="K436" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="437" spans="1:11">
@@ -19023,7 +19026,7 @@
         <v>890</v>
       </c>
       <c r="K437" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="438" spans="1:11">
@@ -19058,7 +19061,7 @@
         <v>855</v>
       </c>
       <c r="K438" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="439" spans="1:11">
@@ -19093,7 +19096,7 @@
         <v>1043</v>
       </c>
       <c r="K439" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="440" spans="1:11">
@@ -19128,7 +19131,7 @@
         <v>1044</v>
       </c>
       <c r="K440" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="441" spans="1:11">
@@ -19163,7 +19166,7 @@
         <v>967</v>
       </c>
       <c r="K441" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="442" spans="1:11">
@@ -19198,7 +19201,7 @@
         <v>1045</v>
       </c>
       <c r="K442" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="443" spans="1:11">
@@ -19233,7 +19236,7 @@
         <v>1046</v>
       </c>
       <c r="K443" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="444" spans="1:11">
@@ -19268,7 +19271,7 @@
         <v>834</v>
       </c>
       <c r="K444" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="445" spans="1:11">
@@ -19303,7 +19306,7 @@
         <v>847</v>
       </c>
       <c r="K445" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="446" spans="1:11">
@@ -19338,7 +19341,7 @@
         <v>1047</v>
       </c>
       <c r="K446" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="447" spans="1:11">
@@ -19373,7 +19376,7 @@
         <v>1048</v>
       </c>
       <c r="K447" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="448" spans="1:11">
@@ -19408,7 +19411,7 @@
         <v>1049</v>
       </c>
       <c r="K448" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="449" spans="1:11">
@@ -19443,7 +19446,7 @@
         <v>1050</v>
       </c>
       <c r="K449" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="450" spans="1:11">
@@ -19478,7 +19481,7 @@
         <v>960</v>
       </c>
       <c r="K450" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="451" spans="1:11">
@@ -19513,7 +19516,7 @@
         <v>1051</v>
       </c>
       <c r="K451" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="452" spans="1:11">
@@ -19548,7 +19551,7 @@
         <v>1041</v>
       </c>
       <c r="K452" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="453" spans="1:11">
@@ -19583,7 +19586,7 @@
         <v>837</v>
       </c>
       <c r="K453" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="454" spans="1:11">
@@ -19618,7 +19621,7 @@
         <v>1052</v>
       </c>
       <c r="K454" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="455" spans="1:11">
@@ -19653,7 +19656,7 @@
         <v>924</v>
       </c>
       <c r="K455" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="456" spans="1:11">
@@ -19688,7 +19691,7 @@
         <v>855</v>
       </c>
       <c r="K456" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="457" spans="1:11">
@@ -19723,7 +19726,7 @@
         <v>963</v>
       </c>
       <c r="K457" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="458" spans="1:11">
@@ -19758,7 +19761,7 @@
         <v>1053</v>
       </c>
       <c r="K458" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="459" spans="1:11">
@@ -19793,7 +19796,7 @@
         <v>1054</v>
       </c>
       <c r="K459" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="460" spans="1:11">
@@ -19828,7 +19831,7 @@
         <v>847</v>
       </c>
       <c r="K460" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="461" spans="1:11">
@@ -19863,7 +19866,7 @@
         <v>999</v>
       </c>
       <c r="K461" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="462" spans="1:11">
@@ -19898,7 +19901,7 @@
         <v>939</v>
       </c>
       <c r="K462" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="463" spans="1:11">
@@ -19933,7 +19936,7 @@
         <v>843</v>
       </c>
       <c r="K463" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="464" spans="1:11">
@@ -19968,7 +19971,7 @@
         <v>855</v>
       </c>
       <c r="K464" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="465" spans="1:11">
@@ -20003,7 +20006,7 @@
         <v>1039</v>
       </c>
       <c r="K465" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="466" spans="1:11">
@@ -20038,7 +20041,7 @@
         <v>834</v>
       </c>
       <c r="K466" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="467" spans="1:11">
@@ -20073,7 +20076,7 @@
         <v>1055</v>
       </c>
       <c r="K467" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="468" spans="1:11">
@@ -20108,7 +20111,7 @@
         <v>1039</v>
       </c>
       <c r="K468" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="469" spans="1:11">
@@ -20143,7 +20146,7 @@
         <v>849</v>
       </c>
       <c r="K469" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="470" spans="1:11">
@@ -20178,7 +20181,7 @@
         <v>1056</v>
       </c>
       <c r="K470" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="471" spans="1:11">
@@ -20213,7 +20216,7 @@
         <v>953</v>
       </c>
       <c r="K471" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="472" spans="1:11">
@@ -20248,7 +20251,7 @@
         <v>888</v>
       </c>
       <c r="K472" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="473" spans="1:11">
@@ -20283,7 +20286,7 @@
         <v>1057</v>
       </c>
       <c r="K473" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="474" spans="1:11">
@@ -20318,7 +20321,7 @@
         <v>920</v>
       </c>
       <c r="K474" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="475" spans="1:11">
@@ -20353,7 +20356,7 @@
         <v>1058</v>
       </c>
       <c r="K475" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="476" spans="1:11">
@@ -20388,7 +20391,7 @@
         <v>959</v>
       </c>
       <c r="K476" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="477" spans="1:11">
@@ -20423,7 +20426,7 @@
         <v>978</v>
       </c>
       <c r="K477" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="478" spans="1:11">
@@ -20458,7 +20461,7 @@
         <v>855</v>
       </c>
       <c r="K478" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="479" spans="1:11">
@@ -20493,7 +20496,7 @@
         <v>855</v>
       </c>
       <c r="K479" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="480" spans="1:11">
@@ -20528,7 +20531,7 @@
         <v>1059</v>
       </c>
       <c r="K480" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="481" spans="1:11">
@@ -20563,7 +20566,7 @@
         <v>1060</v>
       </c>
       <c r="K481" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="482" spans="1:11">
@@ -20598,7 +20601,7 @@
         <v>998</v>
       </c>
       <c r="K482" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="483" spans="1:11">
@@ -20633,7 +20636,7 @@
         <v>855</v>
       </c>
       <c r="K483" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="484" spans="1:11">
@@ -20668,7 +20671,7 @@
         <v>1061</v>
       </c>
       <c r="K484" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="485" spans="1:11">
@@ -20703,7 +20706,7 @@
         <v>1062</v>
       </c>
       <c r="K485" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="486" spans="1:11">
@@ -20738,7 +20741,7 @@
         <v>847</v>
       </c>
       <c r="K486" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="487" spans="1:11">
@@ -20773,7 +20776,7 @@
         <v>883</v>
       </c>
       <c r="K487" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="488" spans="1:11">
@@ -20808,7 +20811,7 @@
         <v>834</v>
       </c>
       <c r="K488" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="489" spans="1:11">
@@ -20843,7 +20846,7 @@
         <v>1063</v>
       </c>
       <c r="K489" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="490" spans="1:11">
@@ -20878,7 +20881,7 @@
         <v>1064</v>
       </c>
       <c r="K490" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="491" spans="1:11">
@@ -20913,7 +20916,7 @@
         <v>1065</v>
       </c>
       <c r="K491" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="492" spans="1:11">
@@ -20948,7 +20951,7 @@
         <v>1066</v>
       </c>
       <c r="K492" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="493" spans="1:11">
@@ -20983,7 +20986,7 @@
         <v>855</v>
       </c>
       <c r="K493" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="494" spans="1:11">
@@ -21018,7 +21021,7 @@
         <v>1067</v>
       </c>
       <c r="K494" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="495" spans="1:11">
@@ -21053,7 +21056,7 @@
         <v>907</v>
       </c>
       <c r="K495" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="496" spans="1:11">
@@ -21088,7 +21091,7 @@
         <v>1068</v>
       </c>
       <c r="K496" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="497" spans="1:11">
@@ -21123,7 +21126,7 @@
         <v>1069</v>
       </c>
       <c r="K497" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="498" spans="1:11">
@@ -21158,7 +21161,7 @@
         <v>1017</v>
       </c>
       <c r="K498" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="499" spans="1:11">
@@ -21193,7 +21196,7 @@
         <v>924</v>
       </c>
       <c r="K499" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="500" spans="1:11">
@@ -21228,7 +21231,7 @@
         <v>907</v>
       </c>
       <c r="K500" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="501" spans="1:11">
@@ -21263,7 +21266,7 @@
         <v>943</v>
       </c>
       <c r="K501" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
   </sheetData>
